--- a/Hindi_codebase_topics_directory/folderCode_for_generating300_to_450_words-in-hindi/multi_topic_articles_300_to_450_11.xlsx
+++ b/Hindi_codebase_topics_directory/folderCode_for_generating300_to_450_words-in-hindi/multi_topic_articles_300_to_450_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,38 +724,38 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>नवोत्थान विद्या मन्दिर-चितौरा</t>
+          <t>राज्यवर्धन सिंह राठौड़</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>नवोत्थान विद्यालय की स्थापना सर्वप्रथम ग्राम-चितौरा मे श्री निरंजन सिह राना ने (वर्ष १९९५) अपनी माता श्री सरमन देवी की याद मे की । यह विद्यालय अपनी विशिष्ट अध्ययन पद्धती और अनुशासन के कारण प्रसिद्ध है।  इस विद्यालय ने क्षेत्र को कई होनहार बालक और बालिकाए दिये है जो अलग-अलग क्षेत्रो मे अपने देश, समाज और माता-पिता का नाम रौशन कर रहे है। विद्यालय मे बालक-बालिकाओ के शारीरिक और मानसिक विकास के लिये नियमित रूप से शैक्षणिक गतिविधियो के अलावा खेलकूद, पर्यटन, रन्गारग कार्यक्रमो का आयोजन किया जाता है। यह सन्स्थान आज भी क्षेत्र को अपनी उत्क्रश्ट सेवाये प्रदान कर रहा है।</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>102</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>राज्यवर्धन सिंह राठौड़</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
         <is>
           <t>कर्नल राज्यवर्धन सिंह राठौड़ (जन्म 29 जनवरी 1970, जैसलमेर, राजस्थान) एक भारतीय निशानेबाज हैं जिन्होंने 2004 ग्रीष्मकालीन ओलम्पिक, एथेंस में डबल ट्रैप स्पर्धा में रजत पदक विजेता हैं। वो प्रथम भारतीय (स्वतंत्रता के बाद) हैं जिन्होंने व्यक्तिगत रजत पदक जीता। उनसे पहले ब्रितानी मूल के भारत में जन्मे नॉर्मन प्रिचर्ड ने 1900 ग्रीष्मकालीन ओलम्पिक में दो रजत पदक जीते।  
 राज्यवर्धन राठौड़ एक पूर्व सैन्य अधिकारी, खिलाड़ी, और भारतीय राजनीतिज्ञ हैं। राठौर ने अपनी खेलकूद करियर में भी विशेष उपलब्धियों को हासिल किया। उन्होंने शूटिंग में अंतरराष्ट्रीय स्तर पर भारतीय ध्वज का सम्मान किया और ओलंपिक, एशियन गेम्स, और कामनवेल्थ गेम्स में भाग लिया। राज्यवर्धन का जन्म गारबदेसर/गरीबदेसर के कर्नल लक्ष्मण सिंह राठौर (सेवानिवृत्त) और उनकी पत्नी श्रीमती मंजू राघव, जो एक शिक्षिका थीं, के घर में हुआ। उनके ननिहाल के गाँव भोंडसी के लोगों ने जब उन्हें ओलंपिक में भाग लेते हुए देखा, तो एक यज्ञ हवन का आयोजन किया था। राज्यवर्धन राठौर की पत्नी का नाम गायत्री कपकोटी, अल्मोड़ा के कैप्टन डूंगर सिंह कपकोटी कि पुत्री ने एक फौजी डॉक्टर के तौर पर सेवा की है। 
 राज्यवर्धन राठौड़ १६वीं लोकसभा में जयपुर ग्रामीण लोकसभा क्षेत्र से भाजपा के सांसद चुने गये। वर्तमान में जयपुर के झोटवाड़ा विधानसभा क्षेत्र से विधायक हैं और राज्य की भाजपा सरकार में कैबिनेट मंत्री हैं। उनके पास उद्योग विभाग, खेल एवं युवा मामले विभाग, स्किल व सैनिक कल्याण विभाग की जिम्मेदारी है।</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>228</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>नवोत्थान विद्या मन्दिर-चितौरा</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>नवोत्थान विद्यालय की स्थापना सर्वप्रथम ग्राम-चितौरा मे श्री निरंजन सिह राना ने (वर्ष १९९५) अपनी माता श्री सरमन देवी की याद मे की । यह विद्यालय अपनी विशिष्ट अध्ययन पद्धती और अनुशासन के कारण प्रसिद्ध है।  इस विद्यालय ने क्षेत्र को कई होनहार बालक और बालिकाए दिये है जो अलग-अलग क्षेत्रो मे अपने देश, समाज और माता-पिता का नाम रौशन कर रहे है। विद्यालय मे बालक-बालिकाओ के शारीरिक और मानसिक विकास के लिये नियमित रूप से शैक्षणिक गतिविधियो के अलावा खेलकूद, पर्यटन, रन्गारग कार्यक्रमो का आयोजन किया जाता है। यह सन्स्थान आज भी क्षेत्र को अपनी उत्क्रश्ट सेवाये प्रदान कर रहा है।</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -766,16 +766,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>नारायण प्रसाद शुक्‍ल</t>
+          <t>पीएम श्री विद्यालय</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>नारायण प्रसाद शुक्‍ल मध्य प्रदेश के एक राजनेता थे। वे विधान सभा के उपाध्यक्ष और मध्य प्रदेश सरकार में मन्त्री रहे।</t>
+          <t>पीएम श्री विद्यालय भारत सरकार की प्रधानमंत्री शैक्षिक योजना (PM Shri School Scheme) के तहत स्थापित एक स्कूल है। यह विद्यालय उच्च शैक्षिक मानकों, समग्र विकास और बच्चों के लिए एक आदर्श शैक्षिक वातावरण प्रदान करने के उद्देश्य से खोला गया है। इसका उद्देश्य बच्चों को प्रौद्योगिकी, शैक्षिक नवाचार और समाज में महत्वपूर्ण बदलावों के लिए तैयार करना है।</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -786,118 +786,164 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>नारायण प्रसाद शुक्‍ल</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>नारायण प्रसाद शुक्‍ल मध्य प्रदेश के एक राजनेता थे। वे विधान सभा के उपाध्यक्ष और मध्य प्रदेश सरकार में मन्त्री रहे।</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>डिकेथलॉन</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>डिकेथलॉन (Decathlon) समूह खेलकूद के लिए वस्त्र और उपादान सामग्री बनाने वाले कई ब्रांडों का समूह है। इसकी स्थापना फ़्रांस में १९७६ में हुई थी। १९९० के दशक में यूरोप के अन्य हिस्सों में इसका विस्तार हुआ। चीन में २००३ में तथा भारत में २००९ में आया। 
 ये जिम, एथेलेटिक्स, क्रिकेट, टेनिस, फुटबॉल, साईकलिंग, पर्वतारोहण आदि के लिए कपड़े, जूते, आदि बनाता है। इन कपड़ो में हल्का होना और पसीने को आसानी से निजात पाना एक महत्वपूर्ण ज़रूरत हैं। इसके आलावे कपड़ों और जूतों आदि का दीर्घकाल तक चलना भी ग्राहकों को आकर्षित करता है। इसलिए इनके उत्पादों में पॉलीमर का प्रयोग बहुत होता है - नाईलॉन और पॉलीएस्टर जैसे पॉलीमर का। 
 इसके प्रमुख brands में - Artengo (Racquets and tennis equipments), Domyos (टी-शर्ट्स आदि) और Quechua हैं।</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>128</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>श्रीपति मिश्रा</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>श्रीपति मिश्रा (20 जनवरी 1924 - 07 दिसम्बर 2002) उत्तर प्रदेश के भूतपूर्व मुख्यमंत्री थे। वह भारतीय राष्ट्रीय कांग्रेस के एक नेता थे। वे पूर्व में विधान सभा अध्यक्ष भी थे।
+उनके पिता प्रतिष्ठित राजकीय वैद्य पंडित राम प्रसाद मिश्र थे। उनका जन्म 20 जनवरी, 1924 को गांव सूरापुर सुल्तानपुर में हुआ था। उन्होंने वाराणसी तथा लखनऊ विश्वविद्यालयों में पढ़ाई की व एम0ए0, एल-एल0बी0 की डिग्री प्राप्त की। उनका विवाह श्रीमती राजकुमारी मिश्र से 1941 में हुआ। उनके तीन पुत्र तथा एक पुत्री थीं। व्यवसायिक रूप से वे कृषि एवं वकालत करते थे। मार्च 1962 में वे पहली बार विधान सभा (तीसरी) के सदस्य के रूप में निर्वाचित हुए। मार्च 1967 में वे चौथी विधान सभा के सदस्‍य बने। 19 जून 1967 से 14 अप्रैल 1968 तक वे उत्तर प्रदेश विधान सभा के उपाध्यक्ष रहे।
+1969 में वे लोक सभा के सदस्य बने। 18 फरवरी 1970 से 01 अक्टूबर 1970 तक वे चौधरी चरण सिंह की सरकार में मंत्री रहे व उनके पास खाद्य एवं रसद, राजस्‍व अभाव, समाज कल्‍याण, हरिजन सहायक, शिक्षा, खेलकूद, श्रम, सहायता एवं पुनर्वास का कार्यभार था। 18 अक्‍टूबर 1970 से 04 अप्रैल 1971 तक वे त्रिभुवन नारायण सिंह सरकार के मंत्रिमण्‍डल में शिक्षा एवं प्राविधिक शिक्षा मंत्री रहे। 1970 से 1976 तक वे विधान परिषद् के सदस्य रहे। 1976 में वे राज्य योजना आयोग के उपाध्यक्ष बने। जून 1980 में वे आठवीं विधान सभा के सदस्‍य बने। 07 जुलाई 1980 से 18 जुलाई 1982 तक वे उत्तर प्रदेश विधान सभा के अध्यक्ष रहे। 19 जुलाई 1982 से 02 अगस्‍त 1984 तक वे उत्तर प्रदेश के मुख्यमंत्री रहे। 1985 में वे आठवीं लोक सभा के सदस्य बने। 07 दिसम्बर 2002 को उनका निधन हो गया।
+विदेश यात्रा
+26वीं कामनवेल्‍थ पार्लियामेंटरी एसोसिएशन कांफ्रेंस, लुसाका (जाम्बिया), सितम्‍बर- अक्‍टूबर, 1980,   27वीं कामनवेल्‍थ पार्लियामेंटरी एसोसिएशन कांफ्रेंस, सूवा (फिजी), अक्‍टूबर, 1981,  केन्‍या, मारीशस, सेशल्‍ज, श्रीलंका, सिंगापुर, आस्‍ट्रेलिया, फिलीपीन्‍स, जापान, हांगकांग, थाईलैण्‍ड तथा बहरीन आदि।
+अन्‍य जानकारी
+जुडिशियल मजिस्‍ट्रेट (1954- 1958)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>319</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>सोहन सिंह जोश</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>सोहन सिंह जोश (1898-1982) भारत के एक स्वतंत्रता सेनानी तथा साम्यवादी कार्यकर्ता थे। 
 सोहन सिंह जोश का जन्म 18 नवम्बर 1898 को अमृतसर जिले के अजनाला तहसील के चेतनपुर गांव में हुआ था। उनका परिवार जाट किसानों के निम्न मध्यम तबके का था। उनके पिता लाल सिंह और माता दयाल कौर थीं।
 1911-15 में सोहन सिंह ने मजीठा मिशन मिड्ल से स्कूल में पढ़ाई की जो ईसाई मिशन स्कूल था। पढ़ाई और खेलकूद में वह काफी आगे थे। 1916 में मैट्रिक पास करने के बाद वह खालसा कॉलेज, अमृतसर में भर्ती हो गए। मैट्रिक की पढ़ाई उनेने कम समय में बिना शिक्षकों के ही उतीर्ण कर ली। ऐसा उसने घर का पैसा बचाने के लिए किया। घर में आर्थिक समस्या बढ़ रही थी। उसे अपनी पढ़ाई कुछ ही महीनों बाद छोड़नी पड़ी।</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>132</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>लखनऊ विश्वविद्यालय</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>लखनऊ विश्वविद्यालय, लखनऊ; उत्तर प्रदेश में स्थित एक सार्वजनिक राज्य विश्वविद्यालय है। १८६७ में स्थापित, लखनऊ विश्वविद्यालय भारत में उच्च शिक्षा के सबसे पुराने सरकारी स्वामित्व वाले संस्थानों में से एक है। विश्वविद्यालय का मुख्य परिसर बादशाहबाग, और दूसरा परिसर जानकीपुरम में स्थित है ।
 यह एक शिक्षण, आवासीय और संबद्ध विश्वविद्यालय है, जो पूरे शहर और आसपास के क्षेत्रों में स्थित १६० से अधिक कॉलेजों और संस्थानों में आयोजित किया जाता है।
 इस विश्वविद्यालय का समबन्ध अनुदान आयोग; राष्ट्रमंडल विश्वविद्यालयों का संगठन (ACU); भारतीय विश्वविद्यालयों का संगठन (AIU); दूरस्थ शिक्षा परिषद (DEC) से है । अन्य मान्यता में राष्ट्रीय मूल्यांकन और प्रत्यायन परिषद (NAAC); राष्ट्रीय अध्यापक शिक्षा परिषद (NCTE); बार काउंसिल ऑफ इंडिया (BCI )  शामिल हैं । इसकी मान्यता १९२१ तक यूजीसी से थी ।</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>127</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>न्यू आर. एस. जे. पब्लिक स्कूल</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>न्यू आर. एस. जे. पब्लिक स्कूल (अंग्रेज़ी: New R. S. J. Public School या NRSJPS) एक धर्मनिरपेक्ष, सह शिक्षा और अंग्रेजी माध्यम का निजी स्कूल है। यह विद्यालय झूँसी, इलाहाबाद, भारत में स्थित है। यह कुमार एजुकेशनल सोसायटी द्वारा संचालित और सीबीएसई द्वारा प्रवाधित है।
 स्कूल कक्षा नर्सरी से कक्षा बारह तक चलता है। वसंत विहार, झूँसी, इलाहाबाद में एक शाखा कक्षा नर्सरी से कक्षा पांच तक चलती है। लालापुर, हंडिया, जमशेदपुर, इलाहाबाद में स्कूल की एक अन्य शाखा निर्माणाधीन है।
 स्कूल में चार घरो की प्रणाली (पीले, नीले, हरे और रंग लाल) है, जो खेलकूद को विद्यार्थियों के सर्वांगीण विकास का महत्वपूर्ण हिस्सा मानते हुए वर्ष में दो दिवसीय खेलकूद प्रतियोगिता सहित अन्य कईं प्रतियोगिताओ में हिस्सा लेते हैं ।</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>121</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>सावित्रा भण्डारी</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>सावित्रा भण्डारी एक नेपाली महिला फुटबॉल खेलाडी है, जो नेपालके एपीएफ क्लब और नेपाल की महिला फुटबॉल टीम के लिए एक स्ट्राइकर के रूप में खेलती हैं।</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>27</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>बाल दिवस</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>दुनिया भर में बाल दिवस अलग अलग तिथियों को मनाया जाता है। 
 भारत में गुरु गोविंद सिंह जी महाराज के पुत्रों के बलिदान दिवस26 दिसम्बर, को बाल दिवस के रूप में मनाया जाता है। बाल दिवस बच्चों को समर्पित भारत का एक राष्ट्रीय त्योहार है।
@@ -906,44 +952,8 @@
 इसके साथ ही यह दिन हमें यह याद दिलाता है कि बच्चों को एक सुरक्षित, स्वस्थ और शिक्षाप्रद माहौल प्रदान करना हमारी जिम्मेदारी है। बच्चों की सुरक्षा और उनके अधिकारों के प्रति जागरूकता बढ़ाने के लिए यह दिन एक महत्वपूर्ण अवसर प्रदान करता है।</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>183</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>गुड बॉय बैड बॉय</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>गुड बॉय बैड बॉय 2007 में बनी हिन्दी भाषा की फिल्म है। यह अश्विनी चौधरी द्वारा निर्देशित है और इसमें इमरान हाशमी, तुषार कपूर, तनुश्री दत्ता, ईशा शरवानी और परेश रावल हैं। यह 1992 की अमेरिकी फिल्म क्लास एक्ट की रीमेक है। यह मुक्ता आर्ट्स लिमिटेड के बैनर तले राजू फ़ारूक़ी द्वारा निर्मित है।</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>54</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>हरियाणा में खेलकूद</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
-        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -954,16 +964,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>राम लखन</t>
+          <t>जिलाधिकारी</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>राम लखन 1989 में बनी हिन्दी भाषा की फिल्म है। फिल्म सुभाष घई द्वारा निर्देशित है और अनिल कपूर, जैकी श्रॉफ, माधुरी दीक्षित, डिंपल कपाड़िया, राखी और अनुपम खेर ने इसमें मुख्य चरित्र निभाएँ हैं। लक्ष्मीकांत प्यारेलाल द्वारा दिये गए संगीत में निर्मित गाने काफी लोकप्रिय हुए थे। इस फ़िल्म को काफी सराहा गया था !</t>
+          <t>जिलाधिकारी या ज़िला दंडाधिकारी भारतीय प्रशासनिक सेवा (IAS) का एक प्रमुख प्रशासनिक पद है। जिसे अंग्रेजी में "डिस्ट्रिक्ट कलेक्टर" और इसे अंग्रेजी में या फिर सिर्फ "कलेक्टर" या "डेप्युटी कमिश्नर" के नाम से भी जाना जाता है। भारत के प्रत्येक जिले का एक अपना उपायुक्त होता है। अंग्रेज शासन के दौरान सन 1772 में गव्हर्नर जनरल लोर्ड वॉरेन हेस्टिंग द्वारा बुनियादी रूप से नागरिक प्रशासन और 'भू राजस्व की वसूली' के लिए गठित 'जिलाधिकारी' का पद, अब राज्य के लोक-प्रशासन के सर्वाधिक महत्वपूर्ण पदों में प्रमुख स्थान 
+'जिलाधीश' और 'कलेक्टर' के रूप में जिले में राज्य सरकार का सर्वोच्च अधिकार संपन्न प्रतिनिधि या प्रथम लोक-सेवक होता है। जो मुख्य जिला विकास अधिकारी के रूप में सारे प्रमुख सरकारी विभागों- पंचायत एवं ग्रामीण विकास, चिकित्सा एवं स्वास्थ्य, आयुर्वेद, अल्पसंख्यक कल्याण, कृषि, भू-संरक्षण, शिक्षा, महिला अधिकारता, ऊर्जा, उद्योग, श्रम कल्याण, खनन, खेलकूद, पशुपालन, सहकारिता, परिवहन एवं यातायात, समाज कल्याण, सिंचाई, सार्वजनिक निर्माण विभाग, स्थानीय प्रशासन आदि के सारे कार्यक्रमों और नीतियों का प्रभावी क्रियान्वयन करवाने के लिए अपने जिले के लिए अकेले उत्तरदायी होता है।
+वह जिला मजिस्ट्रेट के रूप में पुलिस अधीक्षक के साथ प्रमुखतः जिले की संपूर्ण कानून-व्यवस्था का प्रभारी होता है और सभी तरह के चुनावों का मुख्य प्रबंधक भी। साथ ही वह जनगणना-आयोजक, प्राकृतिक-आपदा प्रबंधक, भू-राजस्व-वसूलीकर्ता, भूअभिलेख-संधारक, नागरिक खाद्य व रसद आपूर्ति-व्यस्थापक, ई-गतिविधि नियंत्रक, जनसमस्या-निवारणकरता भी है।
+जिला प्रशासन का नेतृत्व जिलाधिकारी करता है। वह एक साथ जिले के उपायुक्त (DC), जिला मजिस्ट्रेट (DM) और कलेक्टर होते हैं। जिलाधिकारी की मुख्य जिम्मेदारियाँ राजस्व प्रशासन, आपदा राहत, चुनाव, कानून और व्यवस्था बनाए रखना और सरकार द्वारा सौंपे गए अन्य मामले हैं। एक प्रशासक के रूप में, जिला कलेक्टर जिले में सभी विकास गतिविधियों के समन्वय के लिए जिम्मेदार है।
+जिलाधिकारी जिला मजिस्ट्रेट (DM) के रूप में कार्य करता है और जिले में कानून और व्यवस्था बनाए रखने के लिए जिम्मेदार है। वह एक साथ उपायुक्त, जिला मजिस्ट्रेट और कलेक्टर हैं जिला मजिस्ट्रेट के रूप में, वह कानून और व्यवस्था के लिए जिम्मेदार है और पुलिस और अभियोजन एजेंसी का प्रमुख है।  कलेक्टर के रूप में, वह राजस्व प्रशासन का मुख्य अधिकारी होता है और भू-राजस्व के संग्रह के लिए जिम्मेदार होता है, और जिले में सर्वोच्च राजस्व न्यायिक प्राधिकारी भी होता है। उपायुक्त (डेप्युटी कमिश्नर) के रूप में, वह जिले का कार्यकारी प्रमुख होता है और उसके पास विकास, पंचायत, स्थानीय निकाय, नागरिक प्रशासन आदि से संबंधित विविध जिम्मेदारियां होती हैं।</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>392</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -974,31 +988,110 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>हेरोद महान</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>हेरोद (ई. पूर्व. 73 से 4 ई तक) (इब्रानी: הוֹרְדוֹס होर्द़ोस, अ-ध्व-लि: /hoɾðos/, यूनानी: ἡρῴδης हेरोडेस, अ-ध्व-लि /heːroːdeːs/) रोम के अंतर्गत आने वाले हेरोडियन साम्राज्य के राज्य जूडीआ का एक राजा और हेरोद ऐंटीपेटर का पुत्र था।
+ई. पू. 47 में रोम की सेवाओं के पुरस्कारस्वरूप जूलियस सीजर ने ऐंटीपेटर को जुदेआ का प्रशासक नियुक्त किया था। उस समय ऐंटीपेटर ने हेरोद को गवर्नर बना दिया। लेकिन ई. पूर्व 43 में ऐंटीपेटर की हत्या और देश पर पार्थियनों के कब्जा कर लेने के कारण वह रोम भाग आया। रोम में उसके मार्क एंटोनी का समर्थन प्राप्त किया। ऐंटोनी ने ई. पूर्व 40 में हेरोद को यहूदियों का शासक बनाने की स्वीकृति सीनेट से लेकर उसे कुस्तुंतुनियाँ भेज दिया। यहाँ आकार उसने ई. पूर्व 37 में रोमन सेनाओं की सहायता से जेरुसलम पर अधिकार कर लिया और वहाँ का शासक बन गया। बाद में उसने राजकुमारी मेरी आयूनी से अपनी दूसरी शादी कर अपनी स्थिति को और सुदृढ़ कर लिया।
+अपने शासनकाल के पहले चरण (ई. पूर्व 37 से 25) में हेरोद ने प्रतिस्पर्धियों को दबाकर अपनी गद्दी को सुरक्षित बनाया। रोम के एक प्रतिनिधि शासक के रूप में वह रोम का विश्वासपात्र बना रहा। लेकिन रोम में ऐंटोनी और आक्टेवियस की प्रतिद्वंदिता के कारण उसकी स्थिति डावाँडोल बनी रहती थी। ई. पूर्व 31 के युद्ध में आवटेवियस ने उसे क्षमा करके उसको अपना समर्थन प्रदान किया।
+उसके शासनकाल का दूसरा भाग (ई. पू. 25 से 13 तक) महान्‌ निर्माण का काल है। उसने उस समय अनेक भव्य भवनों का निर्माण करवाया। सोमारिया नगर का पुनर्निर्माण और जेरुसलम का जीर्णोद्धार करवाया। रंगमंच, ओपेरा और खेलकूद के केंद्र बनवाए। जेरुसलम के महान्‌ मंदिर में पुनरुद्धार का काम शुरु किया। वह सफल शासक था, फिर भी शासन की कठोरता और दमन नीति के कारण वह जनता की शुभेच्छा नहीं प्राप्त कर सका। बाद में घरेलू झगड़ों के कारण उसके शासन को बहुत हानि पहुँची। ई. पूर्व 4 में जेरुसलम में उसकी मृत्यु हो गई।</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>321</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>गुड बॉय बैड बॉय</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>गुड बॉय बैड बॉय 2007 में बनी हिन्दी भाषा की फिल्म है। यह अश्विनी चौधरी द्वारा निर्देशित है और इसमें इमरान हाशमी, तुषार कपूर, तनुश्री दत्ता, ईशा शरवानी और परेश रावल हैं। यह 1992 की अमेरिकी फिल्म क्लास एक्ट की रीमेक है। यह मुक्ता आर्ट्स लिमिटेड के बैनर तले राजू फ़ारूक़ी द्वारा निर्मित है।</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>54</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>हरियाणा में खेलकूद</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>राम लखन</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>राम लखन 1989 में बनी हिन्दी भाषा की फिल्म है। फिल्म सुभाष घई द्वारा निर्देशित है और अनिल कपूर, जैकी श्रॉफ, माधुरी दीक्षित, डिंपल कपाड़िया, राखी और अनुपम खेर ने इसमें मुख्य चरित्र निभाएँ हैं। लक्ष्मीकांत प्यारेलाल द्वारा दिये गए संगीत में निर्मित गाने काफी लोकप्रिय हुए थे। इस फ़िल्म को काफी सराहा गया था !</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>56</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>खेलों में मादन</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>प्रतियोगी खेलों के सन्दर्भ में, मादन या डोपन (डोपिंग) का अर्थ है, किसी खिलाड़ी द्वारा ऐसी दवायें लेना जो खेल क्षमता को बढ़ातीं हैं तथा जो प्रतिबन्धित हैं।
 शारीरिक खेलकूद और मनोरंजन के क्षेत्र में शारीरिक क्षमता बढ़ाने के लिए दवाओं का सेवन सैकड़ों वर्षों से चल रहा है। सन 1904 के ओलिम्पिक खेलों के मैराथन चैम्पियन टॉमस हिक्स के कोच ने रास्ते में उसे सल्फेट ऑफ स्ट्रिकनाइन के इंजेक्शन लगाए और ब्रांडी पिलाई। ऐसे ही अनेकों प्रसंग हैं। खेल प्रतियोगिताओं में दवाओं के बढ़ते चलन को देखते हुए ही सबसे पहले 1928 में इंटरनेशनल अमेच्योर एथलेटिक फेडरेशन ने (जिसका नाम अब है इंटरनेशनल एसोसिएशन ऑफ एथलेटिक्स फेडरेशंस-आईएएएफ) ने डोपिंग पर रोक लगाई। उस समय यह रोक मौखिक थी, क्योंकि परीक्षण प्रणाली पर्याप्त रूप से विकसित नहीं थी। केवल खिलाड़ियों के मौखिक आश्वासन से काम चल जाता था। सन 1966 में अंतरराष्ट्रीय फुटबॉल फेडरेशन (फीफा) और यूनियन साइकलिस्ट इंटरनेशनल ने आईएएएफ के साथ मिलकर इस दिशा में काम करने का फैसला किया। सबसे पहले 1966 की यूरोपीय चैम्पियनशिप में टेस्ट हुए और उसके दो साल बाद अंतरराष्ट्रीय ओलिम्पिक काउंसिल (आईओसी) ने 1968 को ओलिम्पिक खेलों में ड्रग टेस्ट शुरू किए। उस समय तक भी विश्व डोपिंग-विरोधी संस्था (वाडा) नहीं बनी थी। उसकी स्थापना 10 नवंबर 1999 में हुई और तबसे इस दिशा में कड़ाई से काम हो रहा है। अलग-अलग देशों में नेशनल एंटी डोपिंग एजेंसी (नाडा) भी बनाई गई हैं। भारत में नाडा की प्रयोगशाला दिल्ली में है।</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>239</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>बीसवीं शताब्दी</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>ग्रेगरी पंचांग (कलेंडर) के अनुसार ईसा की बीसवीं शताब्दी 1 जनवरी 1901 से 31 दिसम्बर 2000 तक मानी जाती है। कुछ इतिहासवेत्ता 1914 से 1992 तक को संक्षिप्त बीसवीं शती का नाम भी देते हैं।
 (उन्नीसवी शताब्दी - बीसवी शताब्दी - इक्कीसवी शताब्दी - और शताब्दियाँ)
@@ -1012,207 +1105,207 @@
 प्रसुती दौरान माँ के मरने की औसत</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>134</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>राजकीय उच्च माध्यमिक विद्यालय , दियातरा</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>दियातरा में एक शिक्षण संस्थान।
 इस विद्यालय की स्थापना सन्1953 में की गई थी।</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>14</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>बिशप कॉटन स्कूल, शिमला</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>बिशप कॉटन स्कूल, शिमला (हिमाचल प्रदेश) भारत में सबसे पुराने बोर्डिग स्कूलों में से एक है। इस स्कूल की स्थापना 28 जुलाई 1859 को हुई थी। इस स्कूल ने 2009 में अपने 150 साल पूरे कर लिए थे। बिशप जॉर्ज एडवार्ड लिंच कॉटन इसके संस्थापक है। इस स्कूल का कैंपस 56 एकड़ में फैला हुआ है। इस स्कूल में लगभग 500 विद्यार्थी शिक्षा ग्रहण करते हैं। भारत में पहली बार बिशप कॉटन स्कूल नोयकोचित ढंग से शुरू किया गया। स्कूल के अधिकारियों ने मिलकर चार कप्तान नियुक्त किए। कक्षा तीसरी से कक्षा आठवीं तक स्कूल का स्वयं का पाठ्यक्रम है और कक्षा नौंवी से 12वीं तक का पाठ्यक्रम आईसीएसई पर आधारित है। इस स्कूल का ध्येय वाक्य ओवरकम एविल विद गुड है। स्कूल का मुख्य हाल इरविन हाल है। पीछे बाईं ओर पार्क है और दाईं ओर सिट्र हाल व प्रयोगशाला स्थित है। खेलकूद की सुविधाएं बाबा स्क्वैश कोर्ट और इनडोर बैडमिंटन के लिए शंकर हाल शामिल हैं। छात्रों के लिए छात्रावास की विशेष रूप से व्यवस्था की गई है और उनकी देखभाल एवं पर्यवेक्षण के लिए अलग से स्टाफ की नियुक्ति की गई है। अपनी इन्हीं विशेष उपलब्धियों के कारण बिशप कॉटन स्कूल भारत में ही अपितु पूरे विश्व में प्रसिद्ध है। इस स्कूल के प्रदेश एवं देश के कई प्रमुख हस्तियों ने शिक्षा ग्रहण की है।</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>218</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>पद्म सम्मान</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>पद्म सम्मान भारत सरकार द्वारा शासकीय सेवकों व अन्य भारतीयों को किसी भी क्षेत्र में असाधारण और विशिष्ट सेवा के लिए पद्म विभूषण, पद्म भूषण और पद्म श्री नामक पद्म सम्मान (पुरस्कार) प्रदान किए जाते हैं। पद्म पुरस्कारों की सिफारिशें राज्य सरकारों/संघ राज्य प्रशासनों, केन्द्रीय मंत्रालयों/विभागों, उत्कृष्टता संस्थानों आदि से प्राप्त की जाती हैं, जिन पर पुरस्कार समिति द्वारा विचार किया जाता है। पुरस्कार समिति की सिफारिश के आधार पर और प्रधानमंत्री, गृहमंत्री तथा राष्ट्रपति के अनुमोदन के बाद गणतंत्र दिवस की पूर्व संध्या पर इन पद्म सम्मानों की घोषणा की जाती है। परन्तु इस बार सामान्य नागरिकों को ये सम्मान देने की प्रक्रिया में कुछ बदलाव किया गया है।</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>110</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>सिंधिया कन्या विद्यालय, ग्वालियर</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>सिंधिया कन्या विद्यालय भारतीय राज्य मध्य प्रदेश के ग्वालियर में लड़कियों के लिए एक आवासीय विद्यालय है। इसकी स्थापना सन् 1956 में तत्कालीन राजमाता विजयराजे सिंधिया द्वारा हुई थी एवं तत्कालीन राष्ट्रपति राजेन्द्र प्रसाद ने इसका उद्घाटन किया था। यह देश के कुछ महँगे आवासीय विद्यालयों में गिना जाता है। वर्ष 2016 में बोर्डिंग स्कूलों की एक रैंकिंग में यह लड़कियों के स्कूल में तीसरे स्थान पर था।
 प्रतिवर्ष विद्यालय में 3 अक्टूबर को विद्यालय का स्थापना दिवस मनाया जाता है; 2016 में स्थापना के 60 वर्ष पूरे होने के अवसर पर तत्कालीन राष्ट्रपति श्री प्रणब मुखर्जी भी समारोह में शामिल हुए थे; स्थापना दिवस पर समारोह में विभिन्न खेलकूद प्रतियोगिताओं का भी आयोजन किया जाता है।
 2022 के स्वच्छ सर्वेक्षण में इसे ग्वालियर की सबसे स्वच्छ पाठशाला के रूप में चिह्नित किया जा चुका है।</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>136</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>पण्डित दीनदयाल उपाध्याय सनातन धर्म विद्यालय</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>पण्डित दीनदयाल उपाध्याय सनातन धर्म विद्यालय भारत के कानपुर शहर में स्थित एक हिन्दी/अंग्रेजी माध्यम का शिक्षा संस्थान है। श्री राकेश राम त्रिपाठी इसके प्रधानाचार्य है। यह विद्यालय केन्द्रीय माध्यमिक शिक्षा बोर्ड (सी.बी.एस.सी. बोर्ड) से सम्बद्ध है।  विद्यालय का नाम दीनदयाल उपाध्याय के नाम पर पड़ा है जो कि महान विचारक, दर्शनशास्त्री और सामाजिक कार्यकता थे।</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>56</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>जयपाल सिंह मुंडा</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>जयपाल सिंह मुंडा (3 जनवरी 1903 – 20 मार्च 1970) भारतीय आदिवासियों और झारखंड आंदोलन के एक सर्वोच्च नेता थे। वे एक जाने माने राजनीतिज्ञ, पत्रकार, लेखक, संपादक, शिक्षाविद् और 1925 में ‘ऑक्सफोर्ड ब्लू’ का खिताब पाने वाले हॉकी के एकमात्र अंतरराष्ट्रीय खिलाड़ी थे। उनकी कप्तानी में 1928 के ओलिंपिक में भारत ने पहला स्वर्ण पदक प्राप्त किया।। ओपनिवेशिक भारत में जयपाल सिंह मुंडा सर्वोच्च सरकारी पद पर थे ।
 जयपाल सिंह मुंडा ने सबसे पहले अलग झारखंड राज्य की मांग की थी। वर्ष 1940 में झारखंड को अलग राज्य बनाने की मांग की थी.जयपाल सिंह मुंडा ने नेताजी सुभाष चंद्र बोस के सामने अलग झारखंड राज्य के गठन का प्रस्ताव रखा था.</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>113</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>रेनुका नगरकोटी</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>रेनुका नगरकोटी एक नेपाली महिला
 फुटबॉल खेलाडी है, जो नेपालके एपीएफ क्लब और नेपाल की महिला  नेशनल फुटबॉल टीम के लिए एक स्ट्राइकर के रूप में खेलती हैं।</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>28</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>एसए20 (क्रिकेट)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>एसए20 क्रिकेट साउथ अफ़्रीका (सीएसए) द्वारा आयोजित दक्षिण अफ़्रीका की एक ट्वेंटी-20 फ्रेंचाइज़ी क्रिकेट खेलकूद-प्रतियोगिता है, जिसे पहली बार 2023 में खेला गया था। इसमें देश भर की छह टीम शामिल होती हैं। इस प्रतियोगिता (टूर्नामेंट) के पहले विजेता सनराइजर्स ईस्टर्न केप थे।</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>43</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>विजय कुमार मलहोत्रा</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>विजय कुमार मलहोत्रा (जन्म: ३ दिसम्बर १९३१ लाहौर) भारत के एक राजनेता तथा शिक्षाविद हैं। वे लोक सभा सांसद, खेलकूद प्रशासक व शिक्षा जगत से सम्बद्ध प्रोफेसर हैं। लोग उन्हें प्रोफेसर विजय कुमार मलहोत्रा के नाम से भी जानते हैं। उन्होंने दिल्ली सदर व दक्षिणी दिल्ली से क्रमाश: ९वीं व १४वीं लोकसभा का प्रतिनिधित्व किया। कई संसदीय समितियों के सदस्य से लेकर अध्यक्ष रह चुके श्री मलहोत्रा आजकल ग्रेटर कैलाश नई दिल्ली से दिल्ली विधान सभा के सदस्य हैं। उनकी गणना भारतीय जनता पार्टी के वरिष्ठ सदस्यों में की जाती है।</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>91</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>बिभा इंटरनॅशनल स्कूल</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>बिभा इंटरनेशनल स्कूल (English - Bivha International School), जिसे बिभा अंतरराष्ट्रीय चिकित्सा एंव विज्ञान विद्यालय के 
 नाम से भी जाना जाता हैं। ये अंतरराष्ट्रीय स्तर की नामचीन संस्था हैं, जिसे डाँ पमल(Dr. Pamal) ने सुपौल जिलाके सिमराही बाजार नामक शहर में 8 मई २०११ को स्थापित किया गया था।
@@ -1222,104 +1315,128 @@
 वर्तमान में इसकी मुख्य अधिकारिक परिसर : बिभा नलेज पार्क, National Highway No - 106, में स्थित हैं।</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>235</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>राहत इन्दौरी</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>राहत इन्दौरी (1 जनवरी 1950 – 11 अगस्त 2020 ) एक भारतीय उर्दू शायर और हिंदी फिल्मों के गीतकार थे। वे देवी अहिल्या विश्वविद्यालय इंदौर में उर्दू साहित्य के प्राध्यापक भी रहे। 11 अगस्त 2020 को पूर्णहृद्रोधव से उनका निधन हो गया।</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>42</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>सादी कार्नो</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>निकोलस लिओनार्द सादी कारनो (१७९६ - १८३२) फ्रांसीसी भौतिकीविद् एवं सैन्य इंजीनियर थे। इन्होने १८२४ में लिखित अपनी पुस्तक 'आग की गतिकारी शक्ति एवं उसका उपयोग करने वाले इंजनों पर चिन्तन' (Réflexions sur la puissance motrice du feu et sur les machines propres à développer cette puissance) में सबसे पहले एक सफल ऊष्मा इंजन का सिद्धान्त दिया। अब इस इंजन को 'कार्नो चक्र' (Carnot cycle) के नाम से जाना जाता है। इस पुस्तक में उन्होने ऊष्मागतिकी के द्वितीय नियम की भी आधारशिला रख दी थी। इन्ही कारणों से उन्हें 'ऊष्मागतिकी का जनक' कहा जाता है। 'कार्नो दक्षता', कार्नो प्रमेय, कार्नो ऊष्मा इंजन आदि उनकी ही देन हैं।</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>107</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>छोटा भीम: पेट्रा की यात्रा</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>छोटा भीम: जर्नी टू पेट्रा एक  भारतीय  एनिमेटेड फिल्म भीम की विशेषता है,  स्टार भारतीय टेलीविजन की कार्टून श्रृंखला कार्टून कार्यक्रम  छोटा भीम  है। यह छोटा भीम फिल्म श्रृंखला की पांचवीं फिल्म है।</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>33</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>ओलिम्पिया</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>ओलिंपिया नगर (Olympia) प्राचीन काल में ओलिंपिक खेलों का स्थल था। यह यूनान देश के पश्चिमी मोरिया में रूफ़िया नदी के उत्तरी किनारे पर आधुनिक पिरगोस नगर से 11 मील पूर्व स्थित है।
 यूनान के इतिहास में इस नगर का धार्मिक और राजनीतिक महत्व रहा है। हीरा का मंदिर प्राचीनतम विद्यमान भवन है जिसका निर्माण, अपने मौलिक रूप में, संभवत: ईसा से 1,000 वर्ष पूर्व हुआ था। यहाँ खेलों की उत्पत्ति के संबंध में विभिन्न धारणाएँ हैं। एक मत के अनुसार पहली दौड़ पेलौप्स और आयनोमौस के बीच हुई थी, किंतु द्वितीय मतानुसार यहाँ सर्वप्रथम हेराकिल्स द्वारा खेलकूदों का उत्सव मनाया गया था। 11वीं शताब्दी के यूनानी लेखक सेड़ीनस के अनुसार ओलिंपिक उत्सव 393 ई. तक ही मनाए गए।
 ओलिंपिया अथवा ओलिंबिया का वर्तमान गाँव क्लादियस नदी के दूसरे तट पर स्थित है। यहाँ एक संग्रहालय भी है।</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>138</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2000 ग्रीष्मकालीन ओलंपिक</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2000 ग्रीष्मकालीन ओलंपिक खेलों, आधिकारिक तौर पर XXVII ओलंपियाड के खेलों के रूप में जाना जाता है और आमतौर पर सिडनी 2000 या मिलेनियम ओलंपिक खेलों / नई सहस्राब्दी के खेलों के रूप में जाना जाता है, एक अंतरराष्ट्रीय बहु-खेल आयोजन था जो 15 सितंबर और 1 अक्टूबर 2000 के बीच आयोजित किया गया था सिडनी में, न्यू साउथ वेल्स, ऑस्ट्रेलिया। यह दूसरी बार था कि ग्रीष्मकालीन ओलंपिक ऑस्ट्रेलिया में आयोजित किया गया था, और दक्षिणी गोलार्ध, मेलबर्न, विक्टोरिया में पहली बार 1956 में।
+1993 में 2000 के ओलपिंक के लिए सिडनी को मेज़बान शहर के रूप में चुना गया था। 199 देशों से टीमों ने भाग लिया। संयुक्त राज्य अमेरिका ने 93 के साथ सबसे अधिक पदक जीता जबकि ऑस्ट्रेलिया 58 के साथ चौथे स्थान पर रहा। खेल लागत का अनुमान 6.6 अरब डॉलर था। खेलों को संगठन, स्वयंसेवकों, खेलकूद और अंतरराष्ट्रीय मीडिया में ऑस्ट्रेलियाई जनता की प्रशंसा के साथ सार्वभौमिक प्रशंसा मिली। द टाइम्स से बिल ब्रायसन ने सिडनी खेलों को "विश्व स्तर पर सबसे सफल घटनाओं में से एक" कहा, और कहा कि वे "बेहतर नहीं हो सके"।
+इलेक्ट्रॉनिक टेलीग्राफ के जेम्स मोसॉप ने एक लेख में कहा "ऐसी सफलता कि भविष्य में ओलंपिक के लिए बोली लगाने वाले किसी भी शहर को सोचना चाहिए कि यह सिडनी द्वारा निर्धारित मानकों तक कैसे पहुंच सकता है"। जबकि मॉन्ट्रियल गैजेट में जैक टोड ने सुझाव दिया था कि आईओसी को आगे निकल जाना चाहिए, जबकि आगे चल रहा है। वहाँ स्वीकार कभी नहीं हो सकता एक बेहतर ओलंपिक खेलों, और के रूप में यह के साथ किया जा सिडनी दोनों असाधारण और सबसे अच्छा था।
+लंदन में 2012 ओलंपिक खेलों की तैयारी में, लॉर्ड कोइ ने सिडनी खेलों को "खेलों की भावना के लिए बेंचमार्क घोषित किया, निस्संदेह" और स्वीकार करते हुए कि लंदन आयोजन समिति ने "सिडनी आयोजन समिति ने क्या किया है अनुकरण करने के कई तरीकों से प्रयास किया।" ये जुआन एंटोनियो समरंच के आईओसी अध्यक्ष पद के तहत अंतिम ओलंपिक खेलों थे। ये स्प्रिंग में होने वाले दूसरे ओलंपिक खेलों भी थे।
+अंतिम मेडल मिलान का नेतृत्व अमेरिका ने किया था, उसके बाद रूस और चीन के साथ मेज़बान ऑस्ट्रेलिया चौथे स्थान पर था। खेल के दौरान कई विश्व और ओलंपिक रिकॉर्ड टूट गए थे। कम या कोई विवादों के साथ, खेल को आम तौर पर पूरे विश्व में राष्ट्रों के बीच प्रतिस्पर्धा के बढ़ते स्तर के साथ समझा जाता था।</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>397</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>दक्षिण कोरिया</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>दक्षिण कोरिया (कोरियाई: 한국), पूर्वी एशिया में स्थित एक देश है जो कोरियाई प्रायद्वीप के दक्षिणी अर्धभाग को घेरे हुए है। 'शान्त सुबह की भूमि' के रूप में ख्यात इस देश के पश्चिम में चीन, पूर्व में जापान और उत्तर में उत्तर कोरिया स्थित है। देश की राजधानी सियोल दुनिया का दूसरा सबसे बड़ा महानगरीय क्षेत्र और एक प्रमुख वैश्विक नगर है। यहां की आधिकारिक भाषा कोरियाई है जो हंगुल और हंजा दोनो लिपियों में लिखी जाती है। राष्ट्रीय मुद्रा वॉन है। 
 उत्तर कोरिया, इस देश की सीमा से लगता एकमात्र देश है, जिसकी दक्षिण कोरिया के साथ २३८ किलिमीटर लम्बी सीमा है। दोनो कोरियाओं की सीमा विश्व की सबसे अधिक सैन्य जमावड़े वाली सीमा है। साथ ही दोनों देशों के बीच एक असैन्य क्षेत्र भी है।
@@ -1327,127 +1444,151 @@
 और करीब ५०० विश्वविद्यालय है लोग बिदेशो यहा अध्ययन करने आते है। यहा औद्योगिक विकास बहुत हुऐ है और कोरिया मे चीन सहित १५ देशो के लोग रोजगार अनुमति प्रणाली(EPS) के माध्यम से यहा काम करते है। जिसमे दक्षिण एशिया के ४ देशो नेपाल, बांग्लादेश, श्रीलंका, पाकिस्तान है।</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C48" t="n">
         <v>220</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>मिलखा सिंह</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>मिलखा सिंह (जन्म: २० नवंबर १९२९ - मृत्यु: १८ जून २०२१) एक भारतीय धावक थे, जिन्होंने रोम के १९६० ग्रीष्म ओलंपिक और टोक्यो के १९६४ ग्रीष्म ओलंपिक में भारत का प्रतिनिधित्व किया था। उन्हें "उड़न सिख" उपनाम दिया गया था। वे भारत के सर्वकालिक सर्वश्रेष्ठ एथलीट्स में से एक थे। वे एक राजपूूूत सिख (राठौड़) परिवार से थे। 
 भारत सरकार ने १९५९ में उन्हें पद्म श्री की उपाधि से भी सम्मानित किया।</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C49" t="n">
         <v>72</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>शिक्षा विभाग</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>भारत में शिक्षा विभाग की स्थापना करीब सौ वर्ष पहले हुई थी। देश की स्वतंत्रता के पहले सन 1910 में शिक्षा को प्रोत्साहन देने के लिए शिक्षा विभाग का गठन किया गया था। हालांकि 15 अगस्त सन 1947 को स्वतंत्रता प्राप्ति के तुरंत बाद 29 अगस्त सन 1947 को मानव संसाधन विकास मंत्रालय के अंतर्गत पूर्ण रूप से शिक्षा को समर्पित 'शिक्षा विभाग' की स्थापना फिर से की गई। हालांकि इस विभाग के नाम कार्यप्रणाली और जिम्मेदारियों में स्वतंत्रता के बाद भी समय-समय पर कई बदलाव किए जाते रहे हैं। 
+वर्तमान में मंत्रालय के पास शिक्षा के दो विभाग हैं: 
+उच्च शिक्षा विभाग
+स्कूल शिक्षा और साक्षरता विभाग
+केंद्र सरकार ने अपनी अगुवाई में शैक्षिक नीतियों एवं कार्यक्रम बनाने और उनके क्रियान्‍वयन पर नजर रखने के कार्य को जारी रखा है। इन नीतियों में सन् 1986 की राष्‍ट्रीय शिक्षा-नीति (एनपीई) तथा वह कार्यवाही कार्यक्रम (पीओए) शामिल है, जिसे सन् 1992 में अद्यतन किया गया। संशोधित नीति में एक ऐसी राष्‍ट्रीय शिक्षा प्रणाली तैयार करने का प्रावधान है जिसके अंतर्गत शिक्षा में एकरूपता लाने, प्रौढ़शिक्षा कार्यक्रम को जनांदोलन बनाने, सभी को शिक्षा सुलभ कराने, बुनियादी (प्राथमिक) शिक्षा की गुणवत्ता बनाए रखने, बालिका शिक्षा पर विशेष जोर देने, देश के प्रत्‍येक जिले में नवोदय विद्यालय जैसे आधुनिक विद्यालयों की स्‍थापना करने, माध्‍यमिक शिक्षा को व्‍यवसायपरक बनाने, उच्‍च शिक्षा के क्षेत्र में विविध प्रकार की जानकारी देने और अंतर अनुशासनिक अनुसंधान करने, राज्‍यों में नए मुक्‍त विश्‍वविद्यालयों की स्‍थापना करने, अखिल भारतीय तकनीकी शिक्षा परिषदको सुदृढ़ करने तथा खेलकूद, शारीरिक शिक्षा, योग को बढ़ावा देने एवं एक सक्षम मूल्‍यांकन प्रक्रिया अपनाने के प्रयास शामिल हैं। इसके अलावा शिक्षा में अधिकाधिक लोगों की भागीदारी सुनिश्चित करने हेतु एक विकेंद्रीकृत प्रबंधन ढांचे का भी सुझाव दिया गया है। इन कार्यक्रमों के कार्यान्‍वयन में लगी एजेंसियों के लिए विभिन्‍न नीतिगत मानकों को तैयार करने हेतु एक विस्‍तृत रणनीति का भी पीओए में प्रावधान किया गया है।</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>310</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>स्वामी प्रणवानन्द</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>स्वामी प्रणवानन्द (14 मई १८९६ - १९४१) एक सन्त थे जिन्होने भारत सेवाश्रम संघ की स्थापना की। उन्होने भारत के स्वतन्त्रता आन्दोलन में भी भाग लिया। वे बाबा गंभीरनाथ जी के शिष्य थे। सन् १९१७ में उन्होने भारत सेवाश्रम संघ की स्थापना की। उनके अनुयायी उन्हे भगवान शिव का अवतार मानते हैं।</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>52</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>राजस्थान दिवस</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>राजस्थान दिवस, इसे राजस्थान का स्थापना दिवस भी कहा जाता है। हर वर्ष के तीसरे महीने (मार्च) की दिनाङ्क 30  को राजस्थान दिवस मनाया जाता है। 30 मार्च, 1949 में जोधपुर, जयपुर, जैसलमेर और बीकानेर रियासतों का विलय होकर 'वृहत्तर राजस्थान सङ्घ' बना था।
 इस दिन राजस्थान के लोगों की वीरता, दृढ़ इच्छाशक्ति तथा बलिदान को नमन किया जाता है। यहाँ की लोक कलाएँ, समृद्ध संस्कृति, महल, व्यञ्जन आदि एक विशिष्ट पहचान रखते हैं। इस दिन कई उत्सव और आयोजन होते हैं जिनमें राजस्थान की अनूठी संस्कृति का दर्शन होता है।
 इसे पहले राजपूताना के नाम से जाना जाता था तथा कुल 19 रियासतों को मिलाकर यह राज्य बना तथा इसका नाम "राजस्थान" किया गया जिसका शाब्दिक अर्थ है "राजाओं का स्थान" क्योंकि स्वतन्त्रता से पूर्व यहाँ कई राजा-महाराजाओं ने राज किया। राजस्थान का एकीकरण 7 चरणों में हुआ। इसकी शुरुआत 18 अप्रैल 1948 को अलवर, भरतपुर, धौलपुर और करौली रियासतों के विलय से हुई। विभिन्न चरणों में रियासतें जुड़ती गईं तथा अन्त में 30 मार्च 1949 को जोधपुर, जयपुर, जैसलमेर और बीकानेर रियासतों के विलय से "वृहत्तर राजस्थान सङ्घ" बना और इसे ही राजस्थान स्थापना दिवस कहा जाता है। इसमें सरदार वल्लभभाई पटेल जी की सक्रिय भूमिका रही।</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C52" t="n">
         <v>199</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>अब्दुल आज़ीम बदख़्शी</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>अब्दुल आज़ीम बदख्शी (अंग्रेज़ी: Abdul Azim Badakhshi) का जन्म (17 अप्रैल 1994) अफ़ग़ानिस्तान के एक बॉक्सर और मुक्केबाज़ या मिश्रित योद्धा है। वह अफ़ग़ानिस्तान के सर्वश्रेष्ठ मिश्रित योद्धाओं में से एक माने जाते हैं। वह बदख़्शान ज़िले के हैं और 14 जीत और 4 हार के रिकॉर्ड के मालिक हैं। उन्हें "अफ़ग़ानिस्तान का नॉकआउट मैन" के रूप में मशहूरी है।</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C53" t="n">
         <v>60</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>ग़ाज़ीपुर</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>गाजीपुर भारत के उत्तर प्रदेश प्रान्त का एक शहर एवं गाजीपुर जिले का मुख्यालय है। यह गंगा नदी के किनारे स्थित है। यह नगर उत्तर प्रदेश और बिहार की सीमा के बहुत समीप स्थित है। यहाँ की स्थानीय भाषा भोजपुरी एवं हिंदी है। यह बनारस से ७० कि०मी० पूर्व में स्थित है। गाजीपुर को लहुरी काशी भी कहा जाता है। गाजीपुर जिले के बहुत से युवा भारतीय सेना से जुङे हुए हैं इसलिए गाजीपुर जिले को वीरो की धरती भी कहा जाता है। मरणोपरान्त परमवीर चक्र से सम्मानित वीर अब्दुल हमीद यहीं के रहने वाले थें। एशिया का सबसे बड़ा गांव गहमर इसी जिले का हिस्सा है। जहां आज भी लगभग सभी घरों के न्यूनतम एक लोग सेना में तैनात है।
 गाजीपुर, अंग्रेजों द्वारा १८२० में स्थापित, एशिया में सबसे बड़े अफ़ीम के कारखाने के लिए प्रख्यात है। यहाँ हथकरघा तथा इत्र उद्योग भी हैं। ब्रिटिश भारत के गवर्नर जनरल लॉर्ड कॉर्नवालिस की मृत्यु यहीं हुई थी तथा वे यहीं दफन हैं।
 सैदपुर — यह गाजीपुर का एक सबसे व्यापक तहसील है सैदपुर के भीतरी में गुप्त साम्राज्य द्वारा बनाया गया स्तंभ लेख है जिसे इतिहास में भीतरी का स्तंभ लेख के नाम से जाना जाता है और यही एक सदियों पुराना विष्णु मंदिर भी है जो अब जर्जर अवस्था में है। [उद्धरण चाहिए]</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C54" t="n">
         <v>214</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>विद्या भारती</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>विद्या भारती 
 , भारत में शिक्षा के क्षेत्र में सबसे बड़ी अशासकीय संस्था है। इसका पूरा नाम "विद्या भारती अखिल भारतीय शिक्षा संस्थान" है। इसकी  स्थापना सन् 1977 में हुई थी।
@@ -1455,63 +1596,84 @@
 विद्या भारती के तहत, हजारों शिक्षण संस्थान संचालित होते है। विद्या भारती -शिशुवाटिका , सरस्वती शिशु मंदिर ,सरस्वती विद्या मंदिर , प्राथमिक, उच्च प्राथमिक, माध्यमिक, वरिष्ठ माध्यमिक, संस्कार केंद्र, एकल विद्यालय, पूर्ण एवं अर्द्ध आवासीय विद्यालय और महाविद्यालयों के छात्रों के लिए शिक्षा प्रदान करता है।विद्या भारती का मुख्य उद्देश्य समाज के दीन दुखी अभाव ग्रस्त ,साधन हीं  को शिक्षित कर स्वावलंबी बनाना है।</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C55" t="n">
         <v>143</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>देहरादून जिला</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>देहरादून, भारत के उत्तराखंड राज्य की राजधानी है इसका मुख्यालय देहरादून नगर में है। इस जिले में ६ तहसीलें, ६ सामुदायिक विकास खंड, १७ शहर और ७६४ आबाद गाँव हैं। इसके अतिरिक्त यहाँ १८ गाँव ऐसे भी हैं जहाँ कोई नहीं रहता। देश की राजधानी से २३० किलोमीटर दूर स्थित इस नगर का गौरवशाली पौराणिक इतिहास है। प्राकृतिक सौंदर्य से भरपूर यह नगर अनेक प्रसिद्ध शिक्षा संस्थानों के कारण भी जाना जाता है। यहाँ तेल एवं प्राकृतिक गैस आयोग, सर्वे ऑफ इंडिया, भारतीय पेट्रोलियम संस्थान आदि जैसे कई राष्ट्रीय संस्थान स्थित हैं। देहरादून में वन अनुसंधान संस्थान, भारतीय राष्ट्रीय मिलिटरी कालेज और इंडियन मिलिटरी एकेडमी जैसे कई शिक्षण संस्थान हैं। यह एक प्रसिद्ध पर्यटन स्थल है। अपनी सुंदर दृश्यवाली के कारण देहरादून पर्यटकों, तीर्थयात्रियों और विभिन्न क्षेत्र के उत्साही व्यक्तियों को अपनी ओर आकर्षित करता है। विशिष्ट बासमती चावल, चाय और लीची के बाग इसकी प्रसिद्धि को और बढ़ाते हैं तथा शहर को सुंदरता प्रदान करते हैं।
+देहरादून दो शब्दों देहरा और दून से मिलकर बना है। इसमें देहरा शब्द को डेरा का अपभ्रंश माना गया है। जब सिख गुरु हर राय के पुत्र रामराय इस क्षेत्र में आए तो अपने तथा अनुयायियों के रहने के लिए उन्होंने यहाँ अपना डेरा स्थापित किया। कालांतर में नगर का विकास इसी डेरे का आस-पास प्रारंभ हुआ। इस प्रकार डेरा शब्द के दून शब्द के साथ जुड़ जाने के कारण यह स्थान देहरादून कहलाने लगा। कुछ इतिहासकारों का यह भी मानना है कि देहरा शब्द स्वयं में सार्थकता लिए हुए है, इसको डेरा का अपभ्रंश रूप नहीं माना जा सकता है। देहरा शब्द हिंदी तथा पंजाबी में आज भी प्रयोग किया जाता है। हिंदी में देहरा का अर्थ देवग्रह अथवा देवालय है, जबकि पंजाबी में इसे समाधि, मंदिर तथा गुरुद्वारे के अर्थो में सुविधानुसार किया गया है। इसी तरह दून शब्द दूण से बना है और यह दूण शब्द संस्कृत के द्रोणि का अपभ्रंश है। संस्कृत में द्रोणि का अर्थ दो पहाड़ों के बीच की घाटी है। यह भी विश्वास किया जाता है कि यह पूर्व में ऋषि द्रोणाचार्य का डेरा था।</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>339</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>सुत्तपिटक</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>सुत्तपिटक बौद्ध धर्म का एक ग्रंथ है। यह ग्रंथ त्रिपिटक के तीन भागों में से एक है। सुत्त पिटक में तर्क और संवादों के रूप में भगवान बुद्ध के सिद्धांतों का संग्रह है। इनमें गद्य संवाद हैं, मुक्तक छन्द हैं तथा छोटी-छोटी प्राचीन कहानियाँ हैं। यह पाँच निकायों या संग्रहों में विभक्त है।
 ।</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C57" t="n">
         <v>54</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>कम्यून</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>सुविचारित ढंग से एक साथ रहने वाले लोगों के समुदाय को कम्यून (Commune) कहते हैं। कम्यून के सभी सदस्यों के लक्ष्य, सम्पत्ति, स्रोत आदि एक होते हैं अनुर कुछ मामलों में तो काम और आय भी एक ही होती है।</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C58" t="n">
         <v>40</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>श्री चन्द्रमुनि</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>बाबा श्री चन्द्र जी (8 सितम्बर 1494 – 13 जनवरी 1629) गुरु नानक के ज्येष्ट पुत्र थे जिन्होने उदासीन सम्प्रदाय की स्थापना की थी। 
 आप लुप्तप्राय उदासीन संप्रदाय के पुनः प्रवर्तक आचार्य है। उदासीन गुरुपरंपरा में आपका १६५ वाँ स्थान हैं। आपकी आविर्भावतिथि संवत १५५१ भाद्रपद शुक्ला नवमी तथा अंतर्धानतिथि संवत् १७०० श्रावण शुक्ला पंचमी है। आपके प्रमुख शिष्य श्री बालहास, अलमत्ता, पुष्पदेव, गोविन्ददेव, गुरुदत्त भगवद्दत्त, कर्ताराय, कमलासनादि मुनि थे।
@@ -1520,163 +1682,163 @@
 बाबा श्रीचंद की मृत्यु माघ सदी में 13 जनवरी 1629 को किरतपुर में हुई। उदासीन सम्प्रदाय परम्पराओं का मानना है की बाबा श्रीचंद कभी मर नहीं सकते। वे चम्बा के जंगल में गायब हो गए। बाबा श्रीचंद के अदृश्य होने के बाद बाबा गुरदित्ता उदासीन सम्प्रदाय के प्रमुख उत्तराधिकारी बने।</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C59" t="n">
         <v>290</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>बैकुण्ठ चतुर्दशी मेला, श्रीनगर</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>उत्तराखण्ड के गढ़वाल अंचल में श्रीनगर में बैकुंठ चतुर्दशी का मेला प्रतिवर्ष लगा करता है। विभिन्न पर्वों की भांति वैकुण्ठ चतुर्दशी वर्षभर में पडने वाला हिन्दू समाज का महत्वपूर्ण पर्व है। सामान्यतः दीपावली तिथि से 14 वे दिन बाद आने वाले साल का यह पर्व धार्मिक महत्व का है। इस अवसर पर विभिन्न शिवालयों में पूजा/अर्चना साधना का विशेष महत्व है। गढवाल जनपद के प्रसिद्ध शिवालयों श्रीनगर में कमलेश्वर तथा थलीसैण में बिन्सर शिवालय में इस पर्व पर अधिकाधिक संख्या में श्रृद्धालु दर्शन हेतु आते हैं तथा इस पर्व को आराधना व मनोकामना पूर्ति का मुख्य पर्व मानते हैं। श्रीनगर स्थित कमलेश्वर मन्दिर पौराणिक मन्दिरों में से है। इसकी अतिशय धार्मिक महत्ता है, किवदंती है कि यह स्थान देवताओं की नगरी भी रही है। इस शिवालय में भगवान विष्णु ने तपस्या कर सुदर्शन-चक्र प्राप्त किया तो श्री राम ने रावण वध के उपरान्त ब्रह्म हत्या के पाप से मुक्ति हेतु कामना अर्पण कर शिव जी को प्रसन्न किया व पापमुक्त हुए।</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C60" t="n">
         <v>161</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>बसंत पंचमी मेला, कोटद्वार</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>बसन्त पंचमी हिन्दू समाज का प्रमुख पर्व है, परिवर्तन व आशा-उमंग के इस पर्व का विभिन्न धार्मिक स्थलों पर उत्साह पूर्वक मनाया जाता है। जनपद पौडी में कोटद्वार के समीप (कोटद्वार से 14 कि.मी.) कण्वाश्रम ऐतिहासिक, सांस्कृतिक महत्व का स्थल है। यहॉ पर प्रति वर्ष बसन्त पंचमी पर्व पर दो दिवसीय सांस्कृतिक कार्यक्रमों का आयोजन होता है। जिसमें हजारों की संख्या में दर्शक मौजूद रहते हैं।</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C61" t="n">
         <v>66</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>2015-16 शेफील्ड शील्ड</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>2015-16 शेफील्ड शील्ड
 2015-16 के शेफील्ड शील्ड मौसम शेफील्ड शील्ड, घरेलू प्रथम श्रेणी क्रिकेट में ऑस्ट्रेलिया प्रतियोगिता के चल रहे 123 वें मौसम है। मौसम मेटाडोर BBQs वन-डेकप के समापन के बाद शुरू हुआ और आधे रास्ते में बिग बैश लीग के लिए अनुमति देने के लिए के माध्यम से एक ब्रेक शामिल थे। एक गुलाबी गेंद के साथ दिन / रात के टेस्ट मैचों के लिए परीक्षण जारी रखा, पिछले सत्र के दौरान पेश किया गया है। दौर एक और खेलकूद-प्रतियोगिता के सात मैचों में से सभी दिन / रात के खेल के रूप में खेला गया। गत खेलविजेता है विक्टोरिया।</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C62" t="n">
         <v>102</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>सरकारी नालडांगा भूषण पाइलट माध्यमिक विद्यालय</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>सरकारी नलडांगा भूषण पायलट माध्यमिक विद्यालय (बांग्ला: সরকারি নলডাঙ্গা ভূষণ পাইলট মাধ্যমিক বিদ্যালয়) बांग्लादेश के झिनाइदह जिला के कालिगंज उपजिला में स्थित एक माध्यमिक विद्यालय है। यह विद्यालय 1882 में स्थापित किया गया था।</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>34</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>सीताराम अग्रहरि</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>सीताराम अग्रहरि 'प्रकाश' (जन्म: १९५७) नेपाल के कवि, साहित्यकार एवं प्रख्यात पत्रकार हैं। वे नेपाल के सबसे पुराने समाचार पत्र गोरखापत्र के प्रधान संम्पादक हैं।</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C64" t="n">
         <v>25</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>सरकारी नालडांगा भूषण पाइलट माध्यमिक विद्यालय</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>सरकारी नलडांगा भूषण पायलट माध्यमिक विद्यालय (बांग्ला: সরকারি নলডাঙ্গা ভূষণ পাইলট মাধ্যমিক বিদ্যালয়) बांग्लादेश के झिनाइदह जिला के कालिगंज उपजिला में स्थित एक माध्यमिक विद्यालय है। यह विद्यालय 1882 में स्थापित किया गया था।</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>34</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>राजकीय अभियांत्रिकी महाविद्यालय, जाफरपुर</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>चौधरी ब्रह्म प्रकाश राजकीय अभियांत्रिकी महाविद्यालय, जाफरपुर या GEC का निर्माण दिल्ली सरकार के ट्रेनिंग एंड टेक्नीकल विभाग द्वारा सन २००७ में किया गया था। महाविद्यालय का नाम, दिल्ली के प्रथम मुख्य मंत्री, चौधरी ब्रह्म प्रकाश के नाम के ऊपर समर्पित किया गया है। यह महाविद्यालय देश का पहला ऐसा अभियांत्रिकी महाविद्यालय है जो सिविल इंजीनियरिंग को समर्पित है। यह महाविद्यालय गुरु गोबिन्द सिंह इन्द्रप्रस्थ विश्वविद्यालय से सम्बद्ध है।</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C65" t="n">
         <v>69</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>देव संस्कृति विश्वविद्यालय</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>देव संस्कृति विश्वविद्यालय हरिद्वार में स्थित है। इस संस्थान की स्थापना गायत्री परिवार के पितृपुरुष पंडित श्रीराम शर्मा आचार्य द्वारा 11 अप्रैल 2002 में की गयी।</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C66" t="n">
         <v>26</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>चम्बा, हिमाचल प्रदेश</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>चंबा भारत के हिमाचल प्रदेश प्रान्त का एक नगर है। हिमाचल प्रदेश का चंबा अपने रमणीय मंदिरों और हैंडीक्राफ्ट के लिए सर्वविख्यात है। रवि नदी के किनारे 996 मीटर की ऊँचाई पर स्थित चंबा पहाड़ी राजाओं की प्राचीन राजधानी थी। चंबा को राजा साहिल वर्मन ने 920 ई. में स्थापित किया था। इस नगर का नाम उन्होंने अपनी प्रिय पुत्री चंपावती के नाम पर रखा। चारों ओर से ऊंची पहाड़ियों से घिरे चंबा ने प्राचीन संस्कृति और विरासत को संजो कर रखा है। प्राचीन काल की अनेक निशानियां चंबा में देखी जा सकती हैं।
 जाब 
@@ -1684,64 +1846,85 @@
 अरब लेखकों ने सामान्यत: चंबा के सूर्यवंशी राजपूत शासकों को 'जाब' की उपाधि के साथ लिखा है। हब्न रुस्ता का मत है कि यह शासन सालुकि वंश के थे परंतु राजवंश की उत्पत्ति के संबंध में विद्वानों में मतभेद है। ८४६ ई. में सर्वप्रथम हब्न खुर्रदद्बी ने 'जाब' का प्रयोग किया, पर ऐसा लगता है कि इस शब्द की उत्पत्ति अरब साहित्य में इससे पूर्व हो चुकी थी। इस प्रकार यह प्रामाणिक माना जाता है कि चंबा नगर ९ वीं शताब्दी के प्रथम दशक में विद्यमान था। इब्न रुस्ता ने लिखा है कि चंबा के शासक प्राय: गुर्जरों और प्रतिहारों से शत्रुता रखते थे।</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C67" t="n">
         <v>263</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>मनस्ताप</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>मनस्ताप या मनोविक्षिप्ति या साइकोसिस (Psychosis) मन की एक अपसामान्य दशा है जिसमें मन यह तय नहीं कर पाता कि क्या वास्तविक है और क्या अवास्तविक (आभासी)। इसके कुछ लक्षण ये हो सकते हैं- असत्य विश्वास (फाल्स बिलीफ/ भ्रमासक्ति),  तथा ऐसी ध्वनि सुनाई देना या ऐसी चीजें दिखाई देना जो सामान्य लोगों को नहीं सुनाई/दिखाई देतीं। अन्य लक्षण हैं- बातचीत (भाषण) में एकरूपता न होना, किसी परिस्थिति के अनुरूप जो व्यवहार होना चाहिए उससे अलग व्यवहार। इसके अलावा नींद न आने की समस्या, समाज से दूर रहने की प्रवृत्ति, अभिप्रेरण (मोटिवेशन) की कमी, अपने दैनिक क्रियाकलापों को करने में कठिनाई आना आदि अन्य लक्षण हैं।
+मनोविक्षिप्ति और पागलपन दोनों शब्द असाधारण मनोदशा के बोधक है, परन्तु जहाँ पागलपन एक साधारण प्रयोग का शब्द है, जिसका कानूनी उपयोग भी किया जाता है, वहाँ मनोविक्षिप्ति चिकित्साशास्त्र का शब्द है जिसका चिकित्सा में विशेष अर्थ है। पागल व्यक्ति को प्राय: अपने शरीर एवं कामों की सुध-बुध नहीं रहती। उसकी हिफाजत दूसरे लोगों को करनी पड़ती है। अतएव यदि वह कोई अपराध का काम कर डाले, तो उसे दंड का भागी नहीं माना जाता। इससे मिलता-जुलता, परंतु इससे पृथक, अर्थ मनोविक्षिप्ति का है। मनोविक्षिप्त व्यक्ति में साधारण असामान्यता से लेकर बिल्कुल पागलपन जैसे व्यवहार देखे जाते हैं। कुछ मनोविक्षिप्त व्यक्ति थोड़ी ही चिकित्सा से अच्छे हो जाते हैं। ये समाज में रहते हैं और समाज का कोई भी अहित नहीं करते। उनमें अपराध की प्रवृत्ति नहीं रहती। इसके विपरीत, कुछ मनोविक्षिप्त व्यक्तियों में प्रबल अपराध की प्रवृत्ति रहती है। वे अपने भीतरी मन में बदले की भावना रखते हैं, जिसे विक्षिप्त व्यवहारों में प्रकट करते हैं। कुछ ऐसे विक्षिप्त भी होते हैं जिनसे अच्छे और बुरे व्यवहार में अंतर समझने की क्षमता ही नहीं रहती। वे हँसते-हँसते किसी व्यक्ति का गला घोट दे सकते हैं, पर उन्हें ऐसा नहीं जान पड़ता कि उन्होंने कोई जघन्य अपराध का डाला है। इस तरह मनोविक्षिप्ति में पागलपन का समावेश होता है, परंतु सभी मनोविक्षिप्त व्यक्तियों को पागल नहीं कहा जा सकता है।</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>325</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>भक्ति</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>भक्ति शब्द की व्युत्पत्ति 'भज्' धातु से हुई है, जिसका अर्थ 'सेवा करना' या 'भजना' है, अर्थात् श्रद्धा और प्रेमपूर्वक इष्ट देवता के प्रति आसक्ति।  व्यास ने पूजा में अनुराग को भक्ति कहा है। भारतीय धार्मिक साहित्य में भक्ति का उदय वैदिक काल से ही दिखाई पड़ता है।</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C69" t="n">
         <v>48</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>निदान</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>किसी भी रोग के बाहरी लक्षणों से आरम्भ करके उसके (उत्पत्ति के) मूल कारण का ज्ञान करना निदान कहलाता है। निदान की विधि 'विलोपन' पर आधारित है। निदान शब्द का प्रयोग सभी क्षेत्रों में होता है : रोगोपचार , विज्ञान, प्रौद्योगिकी, न्याय, व्यापार, एवं प्रबन्धन आदि में। 
 निदान का बहुत महत्व है। जब तक रोग की सटीक पहचान न हो जाए, तब तक सही दिशा में उपचार असंभव है। इसलिए पुराने आयुर्वेद ग्रंथों में निदान अध्याय बहुत वृहद होता था और उपचार अध्याय सीमित। कारण यह है कि यदि निदान सटीक हो गया तो उपचार भी सटीक होगा।
 यह सही है कि अनेक रोग स्वयमेव अच्छे हो जाते हैं और प्रकृति की निवारक शक्ति को किसी की सहायता की अपेक्षा नहीं होती, परंतु अनेक रोग ऐसे भी होते हैं जिनमें प्रकृति असमर्थ हो जाती है और तब चिकित्सा द्वारा सहायता की आवश्यकता होती है। सही और सटीक चिकित्सा के लिए आवश्यक है कि निदान सही हो। सही निदान का अर्थ यह है कि कष्टदायक लक्षणों का आधारभूत कारण और उसके द्वारा उत्पन्न विकृति का सही रूप समझा जाए।</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C70" t="n">
         <v>178</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>पेशेवर (प्रोफेशनल)</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>प्रोफेशनल (पेशेवर) किसी व्यवसाय का एक ऐसा सदस्य होता है जि
 मेंसे विशिष्ट शैक्षणिक प्रशिक्षण के आधार पर चुना जाता है। जो कि अपनी बुद्धि का उपयोग कर आय कमाते है;जैसे-डॉक्टर,इंजीनियर,चार्टर्ड एकाउण्टेण्ट, वकील आदि। ये व्यक्ति अपनी सेवा प्रदान कर आय कमाते है।
@@ -1750,146 +1933,150 @@
 कई पेशेवर सेवाओं की निजी और गोपनीय प्रकृति और इस तरह उनमें अधिक से अधिक विश्वास पैदा करने की जरुरत के कारण ज्यादातर पेशेवर लोग सख्त नैतिक और न्यायसंगत नियमों का पालन करते हैं।</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C71" t="n">
         <v>206</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>शरत्चन्द्र चट्टोपाध्याय</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>शरतचन्द्र चट्टोपाध्याय (१५ सितम्बर, १८७६ - १६ जनवरी, १९३८) बांग्ला के सुप्रसिद्ध उपन्यासकार एवं लघुकथाकार थे। वे बांग्ला के सबसे लोकप्रिय उपन्यासकार हैं। उनकी अधिकांश कृतियों में गाँव के लोगों की जीवनशैली, उनके संघर्ष एवं उनके द्वारा झेले गए संकटों का वर्णन है। इसके अलावा उनकी रचनाओं में तत्कालीन बंगाल के सामाजिक जीवन की झलक मिलती है। शरतचंद्र भारत के सार्वकालिक सर्वाधिक लोकप्रिय तथा सर्वाधिक अनूदित लेखक हैं।</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C72" t="n">
         <v>68</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>केरल में आधुनिक खेल कूद</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>प्राचीन काल से ही केरल खेलकूद क्षेत्र में ख्यात है। यहाँ सैकडों वैविध्यपूर्ण खेल प्रचलित थे। उनमें से कुछ खेल अब भी शेष है। ब्रिटिश औपनिवेशिक सत्ता के साथ आए अनेक नवीन खेलों ने लोक खेल कूदों को मिटा दिया। नवीन खेलों से ऊर्जा लेकर नवीनता के कदम से कदम मिलाकर चलने में लोक क्रीडाएँ विफल हो गईं। अतः वे लुप्त हो गईं। लोक खोलों के मिटने के कई कारण थे जिनमें संगठित प्रतियोगिता का अभाव, मंचों या मैदानों का अभाव, जिलास्तर के टूर्नामेन्ट को आयोजित न करना, नियम व्यवस्था का अभाव आदि प्रमुख माने जा सकते हैं। केरल के प्रान्तीय खेल - विनोदों में एक सीमा तक कळरिप्पयट्टु ही टिक सका। आयोधन कला के रूप में प्रतिष्ठित कळरिप्पयट्टु भी नवीन आयुधों के आविर्भाव से महत्त्व हीन हो गया। आज वह मनोरंजन के साधन से बढ़कर कुछ नहीं।</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C73" t="n">
         <v>138</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>केशवप्रसाद मिश्र</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>केशवप्रसाद मिश्र (चैत्र कृष्ण सप्तमी, विक्रम संवत् १९४२ - चैत्र ७, संवत् २००८) शिक्षाविद तथा हिन्दी साहित्यकार थे।</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C74" t="n">
         <v>18</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>महात्मा गांधी अंतरराष्ट्रीय हिन्दी विश्वविद्यालय</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>महात्मा गांधी  अंतरराष्ट्रीय हिन्दी विश्वविद्यालय  भारत का एक केन्द्रीय विश्वविद्यालय है। विश्वविद्यालय की स्थापना भारत सरकार ने सन् १९९६ में संसद द्वारा पारित एक अधिनियम द्वारा की थी। इस अधिनियम को भारत के राजपत्र में ८ जनवरी सन् १९९७ को प्रकाशित किया गया। यह विश्वविद्यालय महाराष्ट्र के वर्धा में स्थित है। 
+गान्धी जी, हिन्दी तथा भारतीय भाषाओं के प्रबल पक्षधर थे। इसलिये इस विश्वविद्यालय का नाम उनके नाम पर रखना सर्वथा सार्थक है। वर्धा भारत के केन्द्र में स्थित होने के कारण इस विश्वविद्यालय के लिये यह स्थान भी सर्वथा उपयुक्त है।</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>92</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>जूडो</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>जूडो (柔道) डॉ कानो जिगोरो द्वारा 1882 में जापान में बनाया गया एक आधुनिक जापानी मार्शल आर्ट और लड़ाकू खेल है। इसकी सबसे प्रमुख विशेषता इसका प्रतिस्पर्धी तत्व है, जिसका उद्देश्य अपने प्रतिद्वंद्वी को या तो जमीन पर पटकना, गतिहीन कर देना या नहीं तो कुश्ती की चालों से अपने प्रतिद्वंद्वी को अपने वश में कर लेना, या ज्वाइंट लॉक करके अर्थात् जोड़ों को उलझाकर या गला घोंटकर या दम घोंटू तकनीकों का इस्तेमाल करके अपने प्रतिद्वंद्वी को समर्पण करने के लिए मजबूर कर देना है। हाथ और पैर के प्रहार और वार के साथ-साथ हथियारों से बचाव करना जुडो का एक हिस्सा है लेकिन इनका इस्तेमाल केवल पूर्व-व्यवस्थित तरीकों (काता) में होता है क्योंकि जुडो प्रतियोगिता या मुक्त अभ्यास (रंदोरी) में इसकी इजाजत नहीं दी जाती है।
 जुडो के लिए विकसित दर्शन और परवर्ती प्रशिक्षण अन्य आधुनिक जापानी मार्शल आर्ट के मॉडल बन गए जिनका विकास पारंपरिक स्कूलों (कोर्यु) से हुआ था। जुडो के विश्वव्यापी प्रसार के फलस्वरूप साम्बो, बार्तित्सु और ब्राजीलियाई जिउ-जित्सु जैसी कई उपशाखाओं का विकास हो गया है जिसका विकास मित्सुयो माएदा द्वारा 1914 में ब्राज़ील में जुडो के लाए जाने के बाद हुआ था। 
 जुडो के अभ्यासकर्ताओं या पेशेवरों को जुडोका कहा जाता है।</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="C76" t="n">
         <v>199</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>महात्मा गांधी अंतरराष्ट्रीय हिन्दी विश्वविद्यालय</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>महात्मा गांधी  अंतरराष्ट्रीय हिन्दी विश्वविद्यालय  भारत का एक केन्द्रीय विश्वविद्यालय है। विश्वविद्यालय की स्थापना भारत सरकार ने सन् १९९६ में संसद द्वारा पारित एक अधिनियम द्वारा की थी। इस अधिनियम को भारत के राजपत्र में ८ जनवरी सन् १९९७ को प्रकाशित किया गया। यह विश्वविद्यालय महाराष्ट्र के वर्धा में स्थित है। 
-गान्धी जी, हिन्दी तथा भारतीय भाषाओं के प्रबल पक्षधर थे। इसलिये इस विश्वविद्यालय का नाम उनके नाम पर रखना सर्वथा सार्थक है। वर्धा भारत के केन्द्र में स्थित होने के कारण इस विश्वविद्यालय के लिये यह स्थान भी सर्वथा उपयुक्त है।</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>92</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>वनस्थली विद्यापीठ</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>वनस्थली विद्यापीठ महिला शिक्षा की राष्ट्रीय संस्था है जो राजस्थान के टोंक जिले की निवाई में स्थित है। जहॉ शिशु कक्षा से लेकर स्नातकोत्तर शिक्षण एंव अनुसंधान कार्य हो रहा है। विद्यापीठ को विश्वविद्यालय अनुदान आयोग अधिनियम की धारा 3 के अधीन भारत सरकार द्वारा समविश्वविद्यालय घोषित किया गया है। विद्यापीठ भारतीय विश्वविद्यालय संघ तथा एसोसिएशन ऑफ कॉमनवेल्थ यूनिवर्सिटीज का सदस्य है।
-वनस्थली का वातावरण स्वतंत्रता का वातावरण है। छात्राओं को अधिकतम स्वतन्त्रता दी जाती है और उनके व्यक्तित्व के निर्माण का प्रयास किया जाता है। जो छात्रा दो-चार वर्ष वनस्थली में पढ़ लेती है उसके व्यक्तित्व मे वनस्थली की झलक देखी जा सकती है। वनस्थली के विशाल पुस्तकालय में लगभग एक लाख पुस्तकें हैं जिनमें उच्चकोटि के अनेक दुर्लभ ग्रन्थ भी हैं। लगभग 750 पत्रिकाएँ नियमित रूप से आती हैं जिनमें उच्च स्तर की विदेशी पत्रिकाएँ भी हैं। क्षेत्रीय स्तर पर, राज्य के स्तर पर, तथा राष्ट्रीय स्तर पर भी वनस्थली की छात्राएँ खेलकूद के विभिन्न कार्यक्रमों में पुरस्कृत होती है। घुड़सवारी के प्रशिक्षण की यहाँ जो व्यवस्था है वह यही का एक विशिष्ट और सराहनीय पक्ष है। लगभग प्रतिवर्ष ही राजस्थान माध्यमिक शिक्षा बोर्ड तथा राजस्थान विश्वविद्यालय की मेरिट लिस्ट में यहाँ की छात्राएँ भी स्थान पाती हैं। वनस्थली का उच्च माध्यमिक विद्यालय देश का प्रथम 'गर्ल्स ऑटोनॉमस स्कूल' है।</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>212</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>यूरोपीय संघ</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>यूरोपीय संघ (अंग्रेज़ी: European Union)(EU) मुख्यत: यूरोप में स्थित 27 देशों का एक राजनैतिक एवं आर्थिक मंच है जिनमें आपस में प्रशासकीय साझेदारी होती है जो संघ के कई या सभी राष्ट्रो पर लागू होती है। इसका अभ्युदय 1 नवम्बर1993 में रोम की संधि द्वारा यूरोपिय आर्थिक परिषद के माध्यम से छह यूरोपिय देशों की आर्थिक भागीदारी से हुआ था। तब से इसमें सदस्य देशों की संख्या में लगातार बढोत्तरी होती रही और इसकी नीतियों में बहुत से परिवर्तन भी शामिल किये गये। 1992 में मास्त्रिख संधि द्वारा इसके आधुनिक वैधानिक स्वरूप की नींव रखी गयी। दिसम्बर 2009 में लिस्बन समझौता जिसके द्वारा इसमें और व्यापक सुधारों की प्रक्रिया 1 जनवरी 2008 से शुरु की गयी है। 
+यूरोपिय संघ सदस्य राष्ट्रों को एकल बाजार के रूप में मान्यता देता है एवं इसके कानून सभी सदस्य राष्ट्रों पर लागू होता है जो सदस्य राष्ट्र के नागरिकों की चार तरह की स्वतंत्रताएँ सुनिश्चित करता है:- लोगों, सामान, सेवाएँ एवं पूँजी का स्वतंत्र आदान-प्रदान.
+संघ सभी सदस्य राष्ट्रों के लिए एक तरह की व्यापार, मतस्य, क्षेत्रीय विकास की नीति पर अमल करता है 1999 में यूरोपिय संघ ने साझी मुद्रा यूरो की शुरुआत की जिसे पंद्रह सदस्य देशों ने अपनाया। संघ ने साझी विदेश, सुरक्षा, न्याय नीति की भी घोषणा की। सदस्य राष्ट्रों के बीच श्लेगन संधि के तहत पासपोर्ट नियंत्रण भी समाप्त कर दिया गया।
+यूरोपिय संघ में लगभग ५० करोड़ नागरिक हैं, एवं यह विश्व के सकल घरेलू उत्पाद का 31% योगदानकर्ता है जो 2007 में लगभग (यूएस$1.66 नील) था।
+यूरोपीय संघ समूह आठ संयुक्त राष्ट्रसंघ एवं विश्व व्यापार संगठन में अपने सदस्य देशों का प्रतिनिधित्व करता है। यूरोपीय संघ के 21 देश नाटो के भी सदस्य हैं। यूरोपीय संघ के महत्वपूर्ण संस्थानों में यूरोपियन कमीशन, यूरोपीय संसद, यूरोपीय संघ परिषद, यूरोपीय न्यायलय एवं यूरोपियन सेंट्रल बैंक इत्यादि शामिल हैं। यूरोपीय संघ के नागरिक हर पाँच वर्ष में अपनी संसदीय व्यवस्था के सदस्यों को चुनती है।
+यूरोपीय संघ को वर्ष 2012 में यूरोप में शांति और सुलह, लोकतंत्र और मानव अधिकारों की उन्नति में अपने योगदान के लिए नोबेल शांति पुरस्कार से सम्मानित किया गया।</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>344</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>खेल चिकित्सा</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>खेल चिकित्सा (Sports medicine), चिकित्सा की वह शाखा है शारीरिक स्वस्थता एवं खेल तथा व्यायाम आदि से सम्बन्धित क्षति को रोकने और उसकी चिकित्सा करने से सम्बन्धित है। 
 खेल चिकित्सा के प्रमुख क्षेत्र ये हैं
@@ -1916,106 +2103,150 @@
 शारीरिक शिक्षा कार्यक्रम और नये तथ्य खोजने में व्यवस्था करना</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C78" t="n">
         <v>219</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>वनस्थली विद्यापीठ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>वनस्थली विद्यापीठ महिला शिक्षा की राष्ट्रीय संस्था है जो राजस्थान के टोंक जिले की निवाई में स्थित है। जहॉ शिशु कक्षा से लेकर स्नातकोत्तर शिक्षण एंव अनुसंधान कार्य हो रहा है। विद्यापीठ को विश्वविद्यालय अनुदान आयोग अधिनियम की धारा 3 के अधीन भारत सरकार द्वारा समविश्वविद्यालय घोषित किया गया है। विद्यापीठ भारतीय विश्वविद्यालय संघ तथा एसोसिएशन ऑफ कॉमनवेल्थ यूनिवर्सिटीज का सदस्य है।
+वनस्थली का वातावरण स्वतंत्रता का वातावरण है। छात्राओं को अधिकतम स्वतन्त्रता दी जाती है और उनके व्यक्तित्व के निर्माण का प्रयास किया जाता है। जो छात्रा दो-चार वर्ष वनस्थली में पढ़ लेती है उसके व्यक्तित्व मे वनस्थली की झलक देखी जा सकती है। वनस्थली के विशाल पुस्तकालय में लगभग एक लाख पुस्तकें हैं जिनमें उच्चकोटि के अनेक दुर्लभ ग्रन्थ भी हैं। लगभग 750 पत्रिकाएँ नियमित रूप से आती हैं जिनमें उच्च स्तर की विदेशी पत्रिकाएँ भी हैं। क्षेत्रीय स्तर पर, राज्य के स्तर पर, तथा राष्ट्रीय स्तर पर भी वनस्थली की छात्राएँ खेलकूद के विभिन्न कार्यक्रमों में पुरस्कृत होती है। घुड़सवारी के प्रशिक्षण की यहाँ जो व्यवस्था है वह यही का एक विशिष्ट और सराहनीय पक्ष है। लगभग प्रतिवर्ष ही राजस्थान माध्यमिक शिक्षा बोर्ड तथा राजस्थान विश्वविद्यालय की मेरिट लिस्ट में यहाँ की छात्राएँ भी स्थान पाती हैं। वनस्थली का उच्च माध्यमिक विद्यालय देश का प्रथम 'गर्ल्स ऑटोनॉमस स्कूल' है।</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>212</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>भारतीय वायुसेना</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>भारतीय वायुसेना (इंडियन एयरफोर्स) भारतीय सशस्त्र सेना का एक अंग है जो वायु युद्ध, वायु सुरक्षा, एवं वायु चौकसी का महत्वपूर्ण काम देश के लिए करती है। इसकी स्थापना 8 अक्टूबर 1932 को की गयी थी। स्वतन्त्रता  (1950 में पूर्ण गणतंत्र घोषित होने) से पूर्व इसे रॉयल इंडियन एयरफोर्स के नाम से जाना जाता था और 1945  के द्वितीय विश्वयुद्ध में इसने महत्वपूर्ण भूमिका निभाई थी। आजादी (1950 में पूर्ण गणतंत्र घोषित होने) के पश्च्यात इसमें से "रॉयल" शब्द हटाकर सिर्फ "इंडियन एयरफोर्स" कर दिया गया।
 आज़ादी के बाद से ही भारतीय वायुसेना पडौसी मुल्क पाकिस्तान के साथ चार युद्धों व चीन के साथ एक युद्ध में अपना योगदान दे चुकी है। अब तक इसने कईं बड़े मिशनों को अंजाम दिया है जिनमें ऑपरेशन विजय - गोवा का अधिग्रहण, ऑपरेशन मेघदूत, ऑपरेशन कैक्टस व ऑपरेशन पुमलाई शामिल है। ऐसें कई विवादों के अलावा भारतीय वायुसेना संयुक्त राष्ट्र के शांति मिशन का भी सक्रिय हिसा रही है। भारत के राष्ट्रपति भारतीय वायु सेना के कमांडर इन चीफ के रूप में कार्य करते है। वायु सेनाध्यक्ष, एयर चीफ मार्शल (ACM), एक चार सितारा कमांडर है और वायु सेना का नेतृत्व करते है। भारतीय वायु सेना में किसी भी समय एक से अधिक एयर चीफ मार्शल सेवा में कभी नहीं होते। इसका मुख्यालय नयी दिल्ली में स्थित है एवं 2006 के आंकडों के अनुसार इसमें कुल मिलाकर 170,000  जवान एवं 1,350  लडाकू विमान हैं जो इसे दुनिया की चौथी सबसे बडी वायुसेना होने का दर्जा दिलाती है।</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C80" t="n">
         <v>244</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ताज एक्जॉटीका रिज़ॉर्ट</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ताज एक्जॉटीका रिज़ॉर्ट और स्पा गोवा के अर्ध-चंद्राकार आकर वाले बेनलिअम बीच पर बना हुआ है। यह होटेल टाटा समूह के ताज ग्रूप ऑफ होटेल शृंखला का एक अंग है गोवा के दक्षिण-पस्चिम तट पर बसा यह मढ़ानत्रा पाँच-सितारा रिज़ॉर्ट मेडिटेरेनियन-शैली में बना यह होटेल अरब सागर का सुरम्य दर्शन संभव बनाता है और यहाँ आकर समय भी मन्थर गति अपनाते हुए थम सा जाता है। ५६ एकड़ के बगीचे जैसे परिसर में फैला हुआ यह रिज़ॉर्ट अपने उष्णकटिबन्धीय - शैली से अभिप्रेरित साज-सज्जा, भव्य वास्तु कला, सूर्य के रोशनी से आच्छादित परिकोष्ठ, चौड़े छायादार गलियारे और फुलो की पंक्तियों से भरे पड़े आँगन के साथ आपके यहाँ ठहरने को एक यादगार निर्णय बना देता है।</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>116</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>बिहार की संस्कृति</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>बिहार की संस्कृति किसी छेत्र विशेष की विशिष्टता को प्रकट करती है।संस्कृति का निरुपण बौद्धिक विरासत,कला,मेले, उत्सव,रहन-सहन आदि से होता है। बिहार की संस्कृति प्राचीन काल से ही बहुआयामी और समृद्ध रही है।भोजपुरी, मैथिली, मगही, तिरहुत तथा अंग संस्कृतियों का मिश्रण है। नगरों तथा गाँवों की संस्कृति में अधिक फर्क नहीं है। नगरों में भी लोग पारंपरिक रीति-रिवाजों काhghejjh4oh3h3kjegherh4
 Uggej2i पालन करते है तथा उनकी मान्यताएँ रुढिवादी है। बिहारी समाज पुरूष प्रधान है और यहां के बच्चे अपने माता पिता के श्रवणकुमार हैं। हिंदू और मुस्लिम यद्यपि आपसी सहिष्णुता का परिचय देते हैं लेकिन कई अवसरों पर यह तनाव का रूप ले लेता है। दोनों समुदायों में विवाह को छोड़कर सामाजिक एवं पारिवारिक मूल्य लगभग समान है। जैन एवं बौद्ध धर्मों की जन्मस्थली होने के बावजूद यहाँ दोनों धर्मों के अनुयाईयों की संख्या कम है। पटना सहित अन्य शहरों में सिक्ख धर्मावलंबी अच्छी संख्या में हैं।</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C82" t="n">
         <v>146</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ताज एक्जॉटीका रिज़ॉर्ट</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ताज एक्जॉटीका रिज़ॉर्ट और स्पा गोवा के अर्ध-चंद्राकार आकर वाले बेनलिअम बीच पर बना हुआ है। यह होटेल टाटा समूह के ताज ग्रूप ऑफ होटेल शृंखला का एक अंग है गोवा के दक्षिण-पस्चिम तट पर बसा यह मढ़ानत्रा पाँच-सितारा रिज़ॉर्ट मेडिटेरेनियन-शैली में बना यह होटेल अरब सागर का सुरम्य दर्शन संभव बनाता है और यहाँ आकर समय भी मन्थर गति अपनाते हुए थम सा जाता है। ५६ एकड़ के बगीचे जैसे परिसर में फैला हुआ यह रिज़ॉर्ट अपने उष्णकटिबन्धीय - शैली से अभिप्रेरित साज-सज्जा, भव्य वास्तु कला, सूर्य के रोशनी से आच्छादित परिकोष्ठ, चौड़े छायादार गलियारे और फुलो की पंक्तियों से भरे पड़े आँगन के साथ आपके यहाँ ठहरने को एक यादगार निर्णय बना देता है।</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>116</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>माड़िया जनजाति</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>माड़िया एक जनजाति है जो महाराष्ट्र के चन्द्रपुर और गढ़चिरौली जिलों में, तथा छत्तीसगढ़ के बस्तर प्रखण्ड में पायी जाती है। ये लोग गोंडी भाषा की माड़िया उपभाषा बोलते हैं। अबूझमाड़ के अनगढ़ जंगलों में निवास करने वाली इस जनजाति निवास ने आजतक अपनी मूल परंपरा और संस्कृति को सहेज कर रखा हुआ है। माड़िया जनजाति को मुख्यतः दो उपजातियों में बांटा गया है - अबुझ माड़िया और बाईसन होर्न माड़िया।
 अबुझ माड़िया अबुझमाड़ के पहाड़ी क्षेत्रों में निवास करते है और बाईसन होर्न माड़िया इन्द्रावती नदी से लगे हुये मैदानी जंगलो में। बाईसन होर्न माड़िया को इस नाम से इसिलिये पुकारा जाता है, क्योंकि वे घोटूल में और खास अवसरों में नाचने के दौरान बाईसन यानी की गौर के सींगो का मुकुट पहनते है। इनके स्थानांतरित कृषि को झूम कहते हैं।
 दोनो उपजातियो की संस्कृति काफ़ी हद तक मिलती जुलती है। ये दोनो ही बाहरी लोगों से मिलना जुलना पसन्द नहीं करते लेकिन दोनो में अबुझ माड़िया ज्यादा आक्रमक हैं, वे बाहरी लोगों के अपने इलाके में आने पर तीर-कमान से हमला करना नहीं चूकते। जबकी बाईसन होर्न माड़िया बाहरी लोगों के आने पर ज्यादातर जंगलो में भाग जाना पसन्द करते है।</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C83" t="n">
         <v>193</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>प्रयोजनमूलक हिन्दी</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>प्रयोजनमूलक हिन्दी (Functional Hindi) से तात्पर्य हिन्दी के उस स्वरुप से है जो विज्ञान, तकनीकी, विधि, संचार एवं अन्य गतिविधियों में प्रयुक्त होती है। इसे 'कामकाजी हिन्दी' भी कहा जाता है।
+व्यक्ति द्वारा विभिन्न रूपों में बरती जाने वाली भाषा को भाषा-विज्ञानियों ने स्थूल रूप से सामान्य भाषा और प्रयोजनमूलक भाषा इन दो भागों में विभक्त किया है। कुछ लोग भाषा को 'बोलचाल की भाषा', 'साहित्यिक भाषा' और 'प्रयोजनमूलक भाषा' - इन तीन भागों में विभाजित करते हैं। जिस भाषा का प्रयोग किसी विशेष प्रयोजन के लिए किया जाए, उसे 'प्रयोजनमूलक भाषा' कहा जाता है। यह एक सर्वमान्य तथ्य है कि प्रयोजन के अनुसार शब्द-चयन, वाक्य-गठन और भाषा-प्रयोग बदलता रहता है।
+अन्य नाम
+व्यावहारिक हिन्दी, कामकाजी हिन्दी, प्रयोजनी हिन्दी, प्रयोजनपरक हिन्दी, प्रायोगिक हिन्दी, प्रयोगपरक हिन्दी ।</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>126</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>न्यूर्क, न्यू जर्सी</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>इसी नाम के अन्य स्थानों के लिए देखें, नेवार्क (असंदिग्ध).  "ब्रिक सिटी" इस ओर पुनः निर्दिष्ट करता है।  ओशन काउंटी में बस्ती के लिए ब्रिक टाउनशिप, न्यू जर्सी देखें.
 न्यूर्क न्यू जर्सी, संयुक्त राज्य का सबसे बड़ा शहर और एसेक्स काउंटी की काउंटी सीट है।
@@ -2027,126 +2258,154 @@
 जातीय विविधता वाला यह शहर पाँच वार्डों में विभाजित है और इसमें हलचल से भरपूर शहरी जिलों से लेकर शांत उपनगरीय परिक्षेत्रों वाले विभिन्न तरह के इलाके शामिल हैं।</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C85" t="n">
         <v>219</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>प्रयोजनमूलक हिन्दी</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>प्रयोजनमूलक हिन्दी (Functional Hindi) से तात्पर्य हिन्दी के उस स्वरुप से है जो विज्ञान, तकनीकी, विधि, संचार एवं अन्य गतिविधियों में प्रयुक्त होती है। इसे 'कामकाजी हिन्दी' भी कहा जाता है।
-व्यक्ति द्वारा विभिन्न रूपों में बरती जाने वाली भाषा को भाषा-विज्ञानियों ने स्थूल रूप से सामान्य भाषा और प्रयोजनमूलक भाषा इन दो भागों में विभक्त किया है। कुछ लोग भाषा को 'बोलचाल की भाषा', 'साहित्यिक भाषा' और 'प्रयोजनमूलक भाषा' - इन तीन भागों में विभाजित करते हैं। जिस भाषा का प्रयोग किसी विशेष प्रयोजन के लिए किया जाए, उसे 'प्रयोजनमूलक भाषा' कहा जाता है। यह एक सर्वमान्य तथ्य है कि प्रयोजन के अनुसार शब्द-चयन, वाक्य-गठन और भाषा-प्रयोग बदलता रहता है।
-अन्य नाम
-व्यावहारिक हिन्दी, कामकाजी हिन्दी, प्रयोजनी हिन्दी, प्रयोजनपरक हिन्दी, प्रायोगिक हिन्दी, प्रयोगपरक हिन्दी ।</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>126</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>भारतीय मनोविज्ञान</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>भारतीय मनोविज्ञान भारत में अति प्राचीन काल से आज तक हुए मनोवैज्ञानिक अध्ययनों और अनुसंधानों का समग्र रूप है।'भारतीय' कहने से यही तात्पर्य है कि भारतीय संस्कृति की पृष्टभूमि में जिस मनोविज्ञान का विकास हुआ वह इस क्षेत्र में भारत का विशेष योगदान माना जा सकता है।</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C86" t="n">
         <v>47</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>श्रीलंका की संस्कृति</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>ऐसा विश्वास किया जाता है कि राजकुमार विजय और उसके 700 अनुयायी ई. पू. 543 में श्रीलंका में जहाज से उतरे थे। ये लोग "सिंहल" कहलाते थे, क्योंकि पहले पहल "सिंहल" की उपाधि धारण करने वाले राजा सिंहबाहु से इनका निकट संबंध था। (सिंह को मारने के कारण यह राजा "सिंहल" कहलाया)। विजय ही श्रीलंका का पहला राजा था और उसने जिस राज्य की स्थापना की वह करीब 2358 वर्ष तक कायम रहा। बीच में एकाध बार चोल या पांड्य के राजा ने इस पर अधिकार कर लिया किंतु देर-सबेर सिंहलियों ने उन्हें देश से निकाल बाहर किया।</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C87" t="n">
         <v>98</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>जगद्गुरु रामभद्राचार्य विकलांग विश्वविद्यालय</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>जगद्गुरु रामभद्राचार्य विकलांग विश्वविद्यालय (अथवा मात्र जराविवि) (संस्कृतभाषा: जगद्गुरुरामभद्राचार्यविकलांगविश्वविद्यालयः), चित्रकूट धाम, उत्तर प्रदेश, भारतवर्ष में स्थापित एक विश्वविद्यालय है। यह भारतवर्ष में और विश्व में विकलांगों के लिए सर्वप्रथम विशिष्टविश्वविद्यालय है। इसकी स्थापना आश्विनपूर्व २७, २००१ को जगद्गुरु रामभद्राचार्य द्वारा हुई थी और इसे जगद्गुरु रामभद्राचार्य विकलांगशिक्षण संस्थान नामक एक संस्थान द्वारा संचालित किया जाता है, जो समस्तयोजनाओं के कार्यान्वयन के लिए उत्तरदायी है। इस विश्वविद्यालय का सृजन उत्तर प्रदेश सरकार के एक अध्यादेश द्वारा किया गया था, जो पश्चात् उत्तर प्रदेश विधायिका द्वारा उत्तर प्रदेश राज्यअधिनियम ३२ (२००१) के रूप में पारित किया गया था। अधिनियम के अनुरूप जगद्गुरु रामभद्राचार्य को विश्वविद्यालय के जीवनपर्यन्त कुलपति के रूप में नियुक्त किया गया। विश्वविद्यालय में संस्कृतभाषा, हिन्दीभाषा, आंग्लभाषा, समाजशास्त्र, मनोविज्ञान, गानविद्या, चित्रकला, चित्रकारी, ललितकला, विशिष्टशिक्षण, शिक्षण, इतिवृत्त, संस्कृति एवं पुरातत्व, अभिकलित्र एवं सूचना विज्ञान, व्यावसायिकशिक्षा, विधि, अर्थशास्त्र, प्रोस्थेटिक्स और ओर्थोटिक्स सहित विभिन्न धाराओं में स्नातक, स्नातकोत्तर और डॉक्टरेट की डिग्री प्रदान की जाती है। विश्वविद्यालय की २०१३ तक आयुर्वेद और चिकित्सवीय विज्ञान के पाठ्यक्रम के प्रदान को प्रारंभ करने की योजना है। 
+प्रवेश चार प्रकार के विकलांग विद्यार्थीयों के लिए प्रतिबंधित किया गया है – दृष्टिबाधित, मूकबधिर, अस्थिविकलांग (पंगु अथवा भुजाहीन) और मानसिक विकलांग, जैसा कि भारतवर्ष सरकार के विकलांगता अधिनियम १९९५ में निरूपित है। उत्तर प्रदेश सरकार के अनुसार, यह विश्वविद्यालय राज्य में सूचना प्रौद्योगिकी और विद्युतीय अध्ययन के लिए प्रमुख शैक्षणिक संस्थानों में से एक है। ३५४ विकलांग विद्यार्थीयों को चैत्र २०१० में आयोजित विश्वविद्यालय के द्वितीय दीक्षांतसमारोह में विभिन्न उपाधियों से सम्मानित किया गया।पूर्वमाघ २०११ में आयोजित तृतीय दीक्षांतसमारोह में ३८८ विद्यार्थीयों को उपाधियों से सम्मानित किया गया। विश्वविद्यालय का उद्देश्य विकलांग विद्यार्थीयों का स्वाधीनवृत्तिकों में रूपांतर करना और विकलांगजनसंख्या की संरक्षण करने के लिए सक्षम मानवीयसंसाधनों को उत्पन्न करना है। इस विश्वविद्यालय में समस्त सुविधाएं जैसे की कक्षाएँ, विद्यार्थीवास, क्रीड़ासुविधाएँ और प्रयोगशाला आदि अत्यंत दिव्यांग जनों के लिए अत्यंत अनुकूल है।
+युवा कार्यक्रम एवं खेल विकास मंत्रालय एवम् नेहरू युवा केंद्र के संयुक्त तत्वाधान में माननीय प्रधानमंत्री नरेंद्र मोदी जी की अध्यक्षता में 27 फरवरी 2019 को दिल्ली के विज्ञान भवन में आयोजित राष्ट्रीय युवा संसद महोत्सव 2019 में इस विश्वविद्यालय के छात्र सूर्यदेव सिंह ने युवा सांसद के रूप में लोकसभा बांदा चित्रकूट का प्रतिनिधित्व किया| 25 जनवरी 2019 को आयोजित जिला युवा संसद में बांदा एवम् चित्रकूट जनपद के सभी महाविद्यालयों एवं विश्वविद्यालयों से आए  सर्वश्रेष्ठ 104 प्रतिभागियों को पीछे छोड़कर सूर्यदेव सिंह ने जिला युवा संसद में प्रथम स्थान प्राप्त किया| सूर्यदेव सिंह राष्ट्रीय युवा संसद में भाग लेने वाले देश के प्रथम दिव्यांग हैं
+विश्वविद्यालय में 3 दिसंबर को दिव्यांग दिवस का कार्यक्रम बड़े ही धूमधाम से वार्षिक उत्सव के रूप मेंं मनाया जाता है जिसमें विभिन्न प्रकार की खेलकूद प्रतियोगिताओं का आयोजन किया जाता है,</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>443</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>हल्द्वानी</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>हल्द्वानी (Haldwani) भारत के उत्तराखण्ड राज्य के नैनीताल ज़िले में स्थित एक नगर है। हल्द्वानी कुमाऊँ मण्डल  का सबसे बड़ा एवं देहरादून  के बाद राज्य का दूसरा सबसे बड़ा नगर है। हल्द्वानी कुमाऊँ का सबसे बड़ा आर्थिक, शैक्षिक, व्यापारिक एवम आवासीय केंद्र है इसे "कुमाऊँ का प्रवेश द्वार" कहा जाता है। कुमाऊँनी भाषा में इसे "हल्द्वेणी" भी कहा जाता है, क्योंकि यहाँ "हल्दू" (कदम्ब) प्रचुर मात्रा में मिलता था।</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C89" t="n">
         <v>69</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>बिहार</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>बिहार (अंग्रेज़ी: Bihar) भारत के उत्तर-पूर्वी भाग के मध्य में स्थित एक प्रसिद्ध ऐतिहासिक राज्य है और इसकी राजधानी पटना है। यह जनसंख्या की दृष्टि से भारत का तीसरा सबसे बड़ा प्रदेश है जबकि क्षेत्रफल की दृष्टि से बारहवां है। २००० ई॰ को बिहार के दक्षिणी हिस्से को अलग कर एक नया राज्य झारखण्ड बनाया गया। बिहार के उत्तर में नेपाल, दक्षिण में झारखण्ड, पूर्व में पश्चिम बंगाल और पश्चिम में उत्तर प्रदेश स्थित है। यह क्षेत्र गंगा नदी तथा उसकी सहायक नदियों के उपजाऊ मैदानों में बसा है। गंगा इसमें पश्चिम से पूर्व की तरफ बहती है। बिहार भारत के सबसे महान् राज्यों मे से एक है।
+बिहार की जनसंख्या का अधिकांश भाग ग्रामीण है और केवल ११.३ प्रतिशत लोग नगरों में रहते हैं। इसके अलावा बिहार के ५८% लोग २५ वर्ष से कम आयु के हैं।
+प्राचीन काल में बिहार विशाल साम्राज्यों, शिक्षा केन्द्रों एवं संस्कृति का गढ़ था। बिहार नाम का प्रादुर्भाव बौद्ध सन्यासियों के ठहरने के स्थान विहार शब्द से हुआ। 'बिहार', 'विहार' का अपभ्रंश है।१२ फरवरी वर्ष १९४८ में महात्मा गांधी के अस्थि कलश जिन १२ तटों पर विसर्जित किए गए थे, त्रिमोहिनी संगम भी उनमें से एक है।
+बिहार का प्राचीन इतिहास विशेष रूप से उदार और गर्वान्वित है। यहां अनेक महत्वपूर्ण साम्राज्यों का केंद्र रहा है, जिनमें मौर्य साम्राज्य, गुप्त साम्राज्य, और पाल साम्राज्य शामिल हैं। बिहार में नालंदा विश्वविद्यालय, बोध गया, और वैशाली जैसे कई ऐतिहासिक धरोहर हैं।
+बिहार की संस्कृति बहुपरकारी है। यहां के प्रमुख कला-साधनों में मधुबनी पेंटिंग, लोक नृत्य, और लोक गीत शामिल हैं। बिहार का भोजन भी बहुत प्रसिद्ध है, जिसमें लिट्टी चोखा, चूड़ा दही, और सत्तू शामिल हैं।
+बिहार में प्राकृतिक सौंदर्य भी प्रचुर है। यहां के प्रमुख नदियों में गंगा, सोन, और घाघरा शामिल हैं। बिहार के प्रमुख पर्वतारों में हिमालय की तराई की पहाड़ियाँ शामिल हैं।
+बिहार एक कृषि प्रधान राज्य है। यहां के प्रमुख फसलें में धान, गेहूं, मक्का, और मटर शामिल हैं। बिहार में कई खनिज भंडार भी हैं, जैसे कि कोयला, लौह अयस्क, और चूना पत्थर।
+बिहार में कई उद्योग भी हैं। यहां के प्रमुख उद्योगों में कृषि उद्योग, कपड़ा उद्योग, और खनिज उद्योग शामिल हैं। बिहार में कई शिक्षण संस्थान भी हैं, जिनमें भारतीय प्रौद्योगिकी संस्थान (पटना), पटना विश्वविद्यालय और नालंदा विश्वविद्यालय शामिल हैं।
+बिहार एक गरीब राज्य है, लेकिन यहां के लोगों में काफी संभावनाएं हैं। बिहार में शिक्षा और स्वास्थ्य के क्षेत्र में सुधार की जरूरत है, लेकिन यहां के लोग मेहनत और लगन की कमी नहीं है। बिहार में विकास की रफ्तार धीमी है, लेकिन यहां के लोग विकास के लिए प्रतिबद्ध हैं।</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>425</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>मैथिलीशरण गुप्त</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>राष्ट्रकवि मैथिलीशरण गुप्त (३ अगस्त १८८६ – १२ दिसम्बर १९६४) हिन्दी के प्रसिद्ध कवि थे। हिन्दी साहित्य के इतिहास में वे खड़ी बोली के प्रथम महत्त्वपूर्ण कवि हैं। उन्हें साहित्य जगत में 'दद्दा' नाम से सम्बोधित किया जाता था। उनकी कृति भारत-भारती (1912)  भारत के स्वतन्त्रता संग्राम के समय में काफी प्रभावशाली सिद्ध हुई थी और इसी कारण महात्मा गांधी ने उन्हें 'राष्ट्रकवि' की पदवी भी दी थी। उनकी जयन्ती ३ अगस्त को हर वर्ष 'कवि दिवस' के रूप में मनाया जाता है। सन १९५४ में भारत सरकार ने उन्हें पद्मभूषण से सम्मानित किया।
 महावीर प्रसाद द्विवेदी जी की प्रेरणा से गुप्त जी ने खड़ी बोली को अपनी रचनाओं का माध्यम बनाया और अपनी कविता के द्वारा खड़ी बोली को एक काव्य-भाषा के रूप में निर्मित करने में अथक प्रयास किया। इस तरह ब्रजभाषा जैसी समृद्ध काव्य-भाषा को छोड़कर समय और संदर्भों के अनुकूल होने के कारण नये कवियों ने इसे ही अपनी काव्य-अभिव्यक्ति का माध्यम बनाया। हिन्दी कविता के इतिहास में यह गुप्त जी का सबसे बड़ा योगदान है। घासीराम व्यास जी उनके मित्र थे। पवित्रता, नैतिकता और परंपरागत मानवीय सम्बन्धों की रक्षा गुप्त जी के काव्य के प्रथम गुण हैं, जो 'पंचवटी' से लेकर 'जयद्रथ वध', 'यशोधरा' और 'साकेत' तक में प्रतिष्ठित एवं प्रतिफलित हुए हैं। 'साकेत' उनकी रचना का सर्वोच्च शिखर है।</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C91" t="n">
         <v>215</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>व्यवसाय</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>व्यवसाय (Business) विधिक रूप से मान्य संस्था है, जो उपभोक्ताओं को कोई उत्पाद या सेवा प्रदान करने के लक्ष्य से निर्मित की जाती है। व्यवसाय को 'कम्पनी', 'इंटरप्राइज' या 'फर्म' भी कहते हैं। पूँजीवादी अर्थव्यवस्थाओं में व्यापार का प्रमुख स्थान है जो अधिकांशत: निजी हाथों में होते हैं और लाभ कमाने के ध्येय से काम करते हैं तथा साथ-साथ स्वयं व्यापार की भी वृद्धि करते हैं। किन्तु सहकारी संस्थाएँ तथा सरकार द्वारा चलायी जानी वाली संस्थाएं प्राय: लाभ के बजाय अन्य उद्देश्यों की पूर्ति के लिये बनायी गयी होती हैं। 
 हम व्यावसायिक वातावरण में रहते हैं। यह समाज का एक अनिवार्य अंग है। यह व्यावसायिक क्रियाओं के विस्तृत नेटवर्क के माध्यम से विभिन्न प्रकार की वस्तुएं तथा सेवाएं उपलब्ध कराकर हमारी आश्यकताओं की पूर्ति करता है। 
@@ -2154,85 +2413,128 @@
 ओं द्वारा समाज की आवश्यकताओं की पूर्ति करके लाभ अर्जन करना होता है।</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C92" t="n">
         <v>196</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>मेवाड़</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>मेवाड़ राजस्थान के दक्षिण-मध्य में स्थित एक रियासत थी। इसे 'उदयपुर राज्य' ( 'चित्तौडगढ राज्य’ ) के नाम से भी जाना जाता है। इसमें आधुनिक भारत के राजस्थान के उदयपुर, भीलवाड़ा, राजसमन्द, चित्तौडगढ़,तथा प्रतापगढ़ जिले और मध्य प्रदेश के नीमच तथा मंदसौर जिले थे। मेवाड़ के राजचिह्न में राजपूत और भील योद्धा अंकित है । सैकड़ों वर्षों तक यहाँ  शासन रहा और इस पर गुहिल तथा सिसोदिया राजाओं ने 1200  वर्ष तक राज किया ।
+१५५० के आसपास मेवाड़ की राजधानी थी ( कालक्रम अनुसार - नागदा, आहड़,कल्याणपुर,चितौड़गढ़,कुंभलगढ़,चावंड,उदयपुर) (आहड़)[चित्तौड़गढ़|चित्तौड़]]। महाराणा प्रताप यहीं के राजा थे। अकबर की भारत विजय में केवल मेवाड़ के राणा प्रताप बाधक बना रहे। अकबर ने सन् 1576 से 1586 तक पूरी शक्ति के साथ मेवाड़ पर कई आक्रमण किए, पर उसका राणा प्रताप को अधीन करने का मनोरथ सिद्ध नहीं हुआ स्वयं अकबर, प्रताप की देश-भक्ति और दिलेरी से इतना प्रभावित हुआ कि प्रताप के मरने पर उसकी आँखों में आंसू भर आये। हल्दी घाटी के युद्ध में मुगलों का पलड़ा भारी होता देखकर मेवाड़ के सैनिकों ने राणा प्रताप को युद्ध भूमि से भगा दिया था। उसने स्वीकार किया कि विजय निश्चय ही राणा की हुई। महाराणा प्रताप की मृत्यु पर उनके उत्तराधिकारी राणा अमर ने मुगल सम्राट जहांगीर से सन् 1615 में संधि कर ली और मुगलों ने उसे सिंह उपाधि से सम्मानित किया।  मेवाड़ के तत्कालीन धर्म प्रमुख एवं धर्मांशद अधिकारी श्री श्री रोहित गोपाल सूत जी को बनाया गया हे शंकराचार्य पीठ द्वारा इनकी नियुक्ति की गई हे श्री रोहित गोपाल जी सर्वहिताये चैरिटेबल ट्रस्ट के अध्यक्ष के रूप मैं विराज मान हे आप के द्वारा कई सामाजिक एवं धार्मिक कार्य सबके विकास एवं कल्याण के लिये किये जाते हे आप मेवाड़ चित्तौड़गढ़ राजस्थान मैं विशाल बद्रीनाथ ध्यान योग केंद्र मन्दिर बनाने जा रहे हे आप विशेष माँ कामख्या के परम सिद्ध साधको मैं से एक हे पुराणों एवं धर्म के मर्मज्ञ हे</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>312</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>मिस्बाह-उल-हक़</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>मिस्बाह-उल-हक़ (अंग्रेज़ी: Misbah-ul-Haq Khan Niazi/उर्दू: مصباح الحق خان نیازی‎) (जन्म २८ मई १९७४ ,मिंयावाली ,पंजाब ,पाकिस्तान ) एक पूर्व प्रोफेशनल क्रिकेट खिलाड़ी है जो पाकिस्तान क्रिकेट टीम की ओर से खेलते थे। साथ मिस्बाह पाकिस्तान टीम के टेस्ट क्रिकेट प्रारूप में कप्तान भी थे। इनके अलावा २०१५ क्रिकेट विश्व कप तक मिस्बाह टीम के एक दिवसीय अंतर्राष्ट्रीय में भी कप्तान थे लेकिन बाद में क्रिकेट के अलविदा कह दिया और इनकी जगह टीम के वनडे के लिए अज़हर अली को कप्तान चुना गया। ये मध्यम क्रम (middle-order) के बल्लेबाज है साथ ही बड़े शॉट्स के लिए भी जाने जाते है ,जब टीम को बड़े हिट्स की जरूरत होती है तो इनका बल्ला खूब बोलता है। मिस्बाह ने एक दिवसीय क्रिकेट में एक भी शतक नहीं लगाया था इस कारण इनके नाम यह एक अजीब रिकॉर्ड कायम है कि बिना शतक सबसे ज्यादा रन बनाए। हालांकि मिस्बाह के नाम सबसे तेज टेस्ट क्रिकेट में अर्द्धशतक लगाने का रिकॉर्ड है। मिस्बाह-उल-हक़ के पास एमबीए की डिग्री भी है यानी मिस्बाह ने यूनिवर्सिटी ऑफ़ मैनेजमेंट एंड टेक्नोलॉजी लाहौर ,पाकिस्तान से एमबीए (मास्टर ऑफ़ बिजनेस एडमिनिस्ट्रेटर) की पढ़ाई की थी। मिस्बाह का सम्बंध पूर्व पाकिस्तानी क्रिकेट कप्तान इमरान ख़ान से भी है जो कि अभी एक राजनेता है।</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C94" t="n">
         <v>204</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>चण्डीगढ़</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>चण्डीगढ़, (पंजाबी: ਚੰਡੀਗੜ੍ਹ), भारत का एक संघ राज्यक्षेत्र है, जो दो भारतीय राज्यों, पंजाब और हरियाणा की राजधानी भी है। इसे पंजाब के २८ गावों को उजाड़ कर बनाया गया था। इसके नाम का अर्थ है चण्डी का किला। यह हिन्दू देवी दुर्गा के एक रूप चण्डिका या चण्डी के एक मन्दिर के कारण पड़ा है। यह मन्दिर आज भी शहर से कुछ दूर हरियाणा के पंचकुला जिले में स्थित है। इसे सिटी ब्यूटीफुल भी कहा जाता है। चण्डीगढ़ राजधानी क्षेत्र में मोहाली, पंचकुला और ज़ीरकपुर आते हैं, जिनकी २००१ की जनगणना के अनुसार जनसंख्या ११६५१११ (१ करोड़ १६ लाख) है। भारत की लोकसभा में प्रतिनिधित्व हेतु चण्डीगढ़ के लिए एक सीट आवण्टित है। वर्तमान सत्रहवीं लोकसभा में भारतीय जनता पार्टी की श्रीमती किरण खेर यहाँ से संसद सदस्य हैं। २०२० ईसवी से पूर्व चण्डीगढ में सेक्टर १३ नाम से कोइ सेक्टर नहीं था क्योंकि चण्डीगढ़ शहर के शिल्पकार ली कार्बूजियर इस अंक को अशुभ मानते थे। किन्तु फ़रवरी २०२० में संघ राज्यक्षेत्र प्रशासन द्वारा नगर के ८ क्षेत्रों को क्षेत्रक १३ अधिसूचित किया गया। 
+इस शहर का नामकरण दुर्गा के एक रूप ‘चण्डिका’ के कारण हुआ है और चंडी का मंदिर आज भी इस शहर की धार्मिक पहचान है। इस शहर के निर्माण में तत्कालीन प्रधानमन्त्री जवाहर लाल नेहरू की भी निजी रुचि रही है, जिन्होंने नए राष्ट्र के आधुनिक प्रगतिशील दृष्टिकोण के रूप में चण्डीगढ़ को देखते हुए इसे राष्ट्र के भविष्य में विश्वास का प्रतीक बताया था। चण्डीगढ़ को तत्कालीन भारत राष्ट्रपति श्री राजेन्द्र प्रसाद द्वारा १९५३ ई० में किया गया था।
+अन्तर्राष्ट्रीय स्तर पर शहरी योजनाबद्धता और वास्तु-स्थापत्य के लिए प्रसिद्ध यह शहर आधुनिक भारत का प्रथम योजनाबद्ध शहर है। चण्डीगढ़ के मुख्य वास्तुकार फ्रांसीसी वास्तुकार ली कार्बूजियर हैं, लेकिन शहर में पियरे जिएन्नरेट, मैथ्यु नोविकी एवं अल्बर्ट मेयर के बहुत से अद्भुत वास्तु नमूने देखे जा सकते हैं। शहर का भारत के समृद्ध राज्यों और संघ शसित प्रदेशों की सूची में अग्रणी नाम आता है, जिसकी प्रति व्यक्ति आय ९९,२६२ रु (वर्तमान मूल्य अनुसार) एवं स्थिर मूल्य अनुसार ७०,३६१ (२००६-०७) रु है।</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>337</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>ढाका</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>ढाका (बांग्ला: ঢাকা) बांग्लादेश की राजधानी है। बूढ़ी गंगा नदी के तट पर स्थित यह देश का सबसे बड़ा शहर है। राजधानी होने के अलावा यह बांग्लादेश का औद्यौगिक और प्रशासनिक केन्द्र भी है। यहाँ पर धान, गन्ना और चाय का व्यापार होता है। ढाका की जनसंख्या लगभग 1.1 करोड़ है (२००१ की जनसंख्या: ९,०००,०२)) जो इसे दुनिया के ग्यारहवें सबसे बड़ी जनसंख्या वाले शहर का दर्जा भी दिलाता है। ढाका का अपना इतिहास रहा है और इसे दुनिया में मस्जिदों के शहर के नाम से जाना जाता है।
 मुगल सल्तनत के दौरान इस शहर को १७ वीं सदी में जहांगीर नगर के नाम से भी जाना जाता था, यह न सिर्फ प्रादेशिक राजधानी हुआ करती थी बल्कि यहाँ पर निर्मित होने वाले मलमल के व्यापार में इस शहर का पूरी दुनिया में दबदबा था। आधुनिक ढाका का निर्माण एवं विकास ब्रिटिश शासन के दौरान उन्नीसवीं शताब्दी में हुआ और जल्द ही यह कोलकाता के बाद पूरे बंगाल का दूसरा सबसे बड़ा शहर बन गया। 
 भारत विभाजन के बाद १९४७ में ढाका पूर्वी पाकिस्तान की प्रशासनिक राजधानी बना तथा १९७२ में बांग्लादेश के स्वतंत्र राष्ट्र के रूप में अस्तित्व में आने पर यह राष्ट्रीय राजधानी घोषित हुआ। आधुनिक ढाका देश की राजनीति, अर्थव्यवस्था, एवं संस्कृति का मुख्य केन्द्र है। ढाका न सिर्फ देश का सबसे साक्षर (६३%) शहर है- - बल्कि बांग्लादेश के शहरों में सबसे ज्यादा विविधता वाला शहर भी है। हालांकि आधुनिक ढाका का शहरी आधारभूत ढांचा देश में सबसे ज्यादा विकसित है परंतु प्रदूषण, यातायात कुव्यवस्था, गरीबी, अपराध जैसी समस्यायें इस शहर के लिए बड़ी चुनौतियां हैं। सारे देश से लोगों का ढाका की ओर पलायन भी सरकार के लिए एक बड़ी समस्या का रूप लेता जा रहा है।</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C96" t="n">
         <v>282</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>खेल चोट</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>खेलकूद में लगने वाली चोटें (sports injuries) नियमित चोटों से अलग होती हैं, क्योंकि खिलाड़ी अपने शरीर पर बहुत दबाव डालते हैं, जो कभी-कभी मांसपेशियों, जोड़ों और हड्डियों में टूट-फूट का कारण बनता है। खेल, प्रशिक्षण और व्यायाम में भाग लेने के दौरान खेल की चोटें होती हैं। ओवरट्रेनिंग, कंडीशनिंग की कमी, और कार्य करने की अनुचित तकनीक से खेल में चोट लगती है। व्यायाम या किसी भी शारीरिक खेल को खेलने से पहले वार्म अप न करने से भी चोटों का खतरा बढ़ जाता है।
 स्पोर्ट्स फिजियोथेरेपी, फिजियोथेरेपी की एक विशेष शाखा है जिसकी मदद से खेल की चोटों का इलाज बेहतर तरीके से किया जाता है। स्पोर्ट्स फिजियोथेरेपिस्ट के पास खेल विशिष्ट ज्ञान होता है और एथलीट की तेजी से रिकवरी करने में मदद करने में बेहतर होते हैं। आम तौर पर खेल की चोटों के उपचार में एथलीटों को राहत पहुंचाने के लिए उचित दवा के साथ स्पोर्ट्स फिजियोथेरेपी का उपयोग किया जाता है। वास्तव में खेल की चोट में फिजियोथेरेपी एथलीटों की तेजी से रिकवरी काफी उपयोगी साबित हुई है और उपचार के सबसे भरोसेमंद रूपों में से एक है।</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C97" t="n">
         <v>184</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>रामठाकुर बाबा</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>बिहार के सुपौल जिले के प्रतापगंज प्रखंड के सिरीपुर गाँव में रामठाकुर बाबा का गहबर है। यहाँ आसपास के कई गाँवों से लोग अपनी इच्छा लेकर आते हैं,और संतुष्ट होकर जातेहै।यहाँ रामठाकुर बाबा पिंडी रुप में विराजमान हैं॥
 श्री राम राम रामेति
@@ -2241,22 +2543,22 @@
 रामनाम वरानने</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C98" t="n">
         <v>50</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>समर कैम्प (ग्रीष्मकालीन शिविर)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>समर कैम्प (ग्रीष्मकालीन शिविर), कुछ देशों में (आमतौर पर) गर्मियों के महीनों में बच्चों और/या किशोर-किशोरियों के लिए निगरानी के तहत आयोजित किये जाने वाला एक कार्यक्रम को कहते हैं। समर कैम्प में शामिल होने वाले बच्चों और किशोर-किशोरियों को कैम्पर्स के नाम से जाना जाता है।
 विभिन्न प्रकार के विशेष क्रियाकलापों वाले नए समर कैम्पों की अधिक से अधिक स्वीकृति के साथ, हाइकिंग (लंबी पैदल यात्रा), कैनोइंग (नौकायन) और कैम्पफायर (अलाव या शिविर-समारोह) के साथ एक जंगली स्थान के रूप में एक समर कैम्प के पारंपरिक नज़रिए का विकास हो रहा है। उदाहरण के लिए, प्रदर्शन कला, संगीत, जादू, कंप्यूटर, भाषा शिक्षण, गणित, विशेष जरूरतों वाले बच्चों और वजन कम करने के लिए कैम्पों का आयोजन किया जाता है। 2006 में, अमेरिकन कैम्प एसोसिएशन ने बताया कि कुल कैम्पों में से 75 प्रतिशत कैम्पों में नए कार्यक्रम शामिल किए गए हैं। छोटे आकार के परिवारों, पूरक शैक्षिक कार्यक्रमों में वृद्धि तथा इलेक्ट्रॉनिक मीडिया की बढ़ती लोकप्रियता के कारण समर कैम्पों के नामांकन में बड़े पैमाने पर होने वाली गिरावट को कम करने के लिए ऐसा किया गया है; इन सभी के कारण पिछली पीढ़ियों की तुलना में बच्चों को घर के अंदर ही व्यस्त रखना काफी आसान हो गया है। ये कैम्प हर उम्र के लोगों के लिए हो सकते हैं।
@@ -2264,291 +2566,358 @@
 कई कैम्पों का मुख्य उद्देश्य शैक्षिक या सांस्कृतिक विकास होता है। समर कैम्प के माहौल में बच्चों को एक सुरक्षित और परवरिश के माहौल में गुणकारी जोखिम उठाने का अवसर मिल सकता है।</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C99" t="n">
         <v>264</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>ममता सौदा</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>ममता सौदा, एक भारतीय खिलाड़ी हैं, जिन्हें माउंट एवरेस्ट को 2010 में फतह करने के सफल प्रयास के लिए जाना जाता हैं। पर्वतारोहण खेल के क्षेत्र में उनकी सेवाओं के लिए 2014 में उन्हें भारत सरकार द्वारा देश के चौथे सर्वोच्च नागरिक सम्मान पद्म श्री से सम्मानित किया गया था।</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C100" t="n">
         <v>50</v>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>मद्रास प्रैज़िडन्सी</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>मद्रास प्रेसीडेंसी (तमिल: சென்னை மாகாணம், तेलुगु: చెన్నపురి సంస్థానము, मलयालम: മദ്രാസ് പ്രസിഡന്‍സി, कन्नड़: ಮದ್ರಾಸ್ ಪ್ರೆಸಿಡೆನ್ಸಿ, ओड़िया: ମଦ୍ରାସ୍ ପ୍ରେସୋଦେନ୍ଚ୍ଯ), जिसे आधिकारिक तौर पर फोर्ट सेंट जॉर्ज की प्रेसीडेंसी तथा मद्रास प्रोविंस के रूप में भी जाना जाता है, ब्रिटिश भारत का एक प्रशासनिक अनुमंडल था। अपनी सबसे विस्तृत सीमा तक प्रेसीडेंसी में दक्षिण भारत के अधिकांश हिस्सों सहित वर्तमान भारतीय राज्य तमिलनाडु, उत्तरी केरल का मालाबार क्षेत्र, लक्षद्वीप द्वीपसमूह, तटीय आंध्र प्रदेश और आंध्र प्रदेश के रायलसीमा क्षेत्र, गंजाम, मल्कानगिरी, कोरापुट, रायगढ़, नवरंगपुर और दक्षिणी उड़ीसा के गजपति जिले और बेल्लारी, दक्षिण कन्नड़ और कर्नाटक के उडुपी जिले शामिल थे। प्रेसीडेंसी की अपनी शीतकालीन राजधानी मद्रास और ग्रीष्मकालीन राजधानी ऊटाकामंड थी।
+1639 में ब्रिटिश ईस्ट इंडिया कंपनी ने मद्रासपट्टनम गांव को खरीदा था और इसके एक साल बाद मद्रास प्रेसीडेंसी की पूर्ववर्ती, सेंट जॉर्ज किले की एजेंसी की स्थापना की थी, हालांकि मछलीपट्टनम और आर्मागोन में कंपनी के कारखाने 17वीं सदी के प्रारंभ से ही मौजूद थे। 1655 में एक बार फिर से इसकी पूर्व की स्थिति में वापस लाने से पहले एजेंसी को 1652 में एक प्रेसीडेंसी के रूप में उन्नत बनाया गया था। 1684 में इसे फिर से एक प्रेसीडेंसी के रूप में उन्नत बनाया गया और एलीहू येल को पहला प्रेसिडेंट नियुक्त किया गया। 1785 में पिट्स इंडिया एक्ट के प्रावधानों के तहत मद्रास ब्रिटिश ईस्ट इंडिया कंपनी द्वारा स्थापित तीन प्रांतों में से एक बन गया। उसके बाद क्षेत्र के प्रमुख को "प्रेसिडेंट" की बजाय "गवर्नर" का नाम दिया गया और कलकत्ता में गवर्नर-जनरल का अधीनस्थ बनाया गया, यह एक ऐसा पद था जो 1947 तक कायम रहा. न्यायिक, विधायी और कार्यकारी शक्तियां राज्यपाल के साथ रह गयीं जिन्हें एक काउंसिल का सहयोग प्राप्त था जिसके संविधान को 1861, 1909, 1919 और 1935 में अधिनियमित सुधारों द्वारा संशोधित किया गया था। 1939 में द्वितीय विश्व युद्ध छिड़ने के समय तक मद्रास में नियमित चुनाव आयोजित किए गए। 1908 तक प्रांत में 22 जिले शामिल थे जिनमें से प्रत्येक एक जिला कलेक्टर के अधीन था और आगे इसे तालुका तथा फिरका में उपविभाजित किया गया था जिसमें गांव प्रशासन की सबसे छोटी इकाई के रूप में थे।
+मद्रास ने 20वीं सदी के प्रारंभिक दशकों में भारतीय स्वतंत्रता आंदोलन में एक महत्वपूर्ण योगदान दिया और यह 1919 के मोंटेग-चेम्सफोर्ड सुधारों के बाद ब्रिटिश भारत में द्विशासन की प्रणाली को लागू करने वाला पहला प्रांत था। इसके बाद गवर्नर ने एक प्रधानमंत्री के साथ-साथ शासन किया। 15 अगस्त 1947 को भारतीय स्वतंत्रता के आगमन के साथ प्रेसीडेंसी को भंग कर दिया गया। 26 जनवरी 1950 को भारतीय गणराज्य के शुभारंभ के अवसर पर मद्रास को भारतीय संघ के राज्यों में से एक के रूप में स्वीकृत किया गया।</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>437</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>अर्जुन पुरस्कार</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>अर्जुन पुरस्कार खिलाड़ियों को दिये जाने वाला एक पुरस्कार है जो भारत सरकार द्वारा खेल के क्षेत्र में उत्कृष्ट प्रदर्शन के लिये दिया जाता है। इस पुरस्कार का प्रारम्भ 1961 में हुआ था। पुरस्कार स्वरूप पंद्रह लाख रुपये की राशि, अर्जुन की कांस्य प्रतिमा और एक प्रशस्ति पत्र दिया जाता है।
 बिहार की विश्वस्तरीय निशानेबाज श्रेयसी_सिंह को 2020 में दिया गया</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C102" t="n">
         <v>61</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>पिनांग</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>पिनांग 
 मलेशिया का एक राज्य है जो मलक्का के जलडमरुमध्य के साथ प्रायद्वीपीय मलेशिया के पश्चिमोत्तर तट पर स्थित है।
 क्षेत्र के हिसाब से पिनांग पेर्लिस के बाद मलेशिया का दूसरा सबसे छोटा और आठवां सबसे अधिक जनसंख्या वाला राज्य है। पिनांग के निवासी को बोलचाल की भाषा में पेननगाइट के रूप में जाना जाता है।</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C103" t="n">
         <v>56</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>बेलारूस</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>बेलारूस (ISO: Belārūs) (बेलारूसी: Белару́сь, लातिन: Biełaruś, IPA: [bʲɛlaˈrusʲ]; रूसी: Беларусь), आधिकारिक बेलारूस गणराज्य (बेलारूसी: Рэспубліка Беларусь; रूसी: Республика Беларусь), पूर्व ज्ञात रूसी नाम ब्येलोरसिया (रूसी: Белоруссия; हालाँकि यह नाम अब बेलारूस में, रूसी भाषा में भी काम में नहीं लिया जाता), पूर्वी यूरोप का स्थल-रुद्ध देश है। बेलारूस की सीमा उत्तर-पूर्व में रूस से, दक्षिण में यूक्रेन से, पश्चिम में पोलैण्ड और उत्तर-पश्चिम में लिथुआनिया एवं लातविया से लगती है। इसकी राजधानी और सर्वाधिक जनसंख्या वाला नगर मिन्स्क है। इसके 207,600 वर्ग किलोमीटर (2.235×1012 वर्ग फुट) का 40% से अधिक भाग वन है। इसका सबसे प्रबल आर्थिक क्षेत्र सेवा उद्योग और विनिर्माण है। बीसवीं सदी तक, वर्तमान बेलारूस की भूमि को विभिन्न देशों ने अधिगृहित किया जिसमें प्रिन्सिपलिटी ऑफ़ पोलोतस्क (11-14वीं सदी), ग्रैंड डची ऑफ़ लिथुआनिया, पोलिश लिथुआनियाई राष्ट्रमण्डल और रूसी साम्राज्य शामिल हैं।</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C104" t="n">
         <v>135</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>सामाजिक प्रभाव</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>समकक्ष दबाव, साथियों के एक समूह द्वारा किसी व्यक्ति पर समूह के आदर्शों के अनुरूप अपने तरीके, मूल्यों, या व्यवहार को परिवर्तित करने के लिए डाले जाने वाले दबाव का संदर्भ देता है। प्रभावित सामाजिक समूहों में सदस्यता समूह भी शामिल हैं जहां व्यक्ति "औपचारिक रूप से" एक सदस्य (उदाहरण के लिए, राजनीतिक दल, ट्रेड यूनियन) या एक सामाजिक गुट होता है। समकक्ष दबाव से प्रभावित व्यक्ति इन समूहों में शामिल होने का इच्छुक हो भी सकता है और नहीं भी. वे उन अलगाववादी समूहों की पहचान भी कर सकते हैं जिनके साथ वे जुड़ना नहीं चाहते हैं और इसलिए वे उस समूह के संबंध में प्रतिकूल व्यवहार दर्शाते हैं। 
+युवा लोगों में
+युवा समकक्ष दबाव को समकक्ष दबाव का सबसे आम प्रकार माना जाता है। यह विशेष रूप अधिक आम है क्योंकि अधिकांश युवा व्यक्ति अपना ज्यादातर समय कुछ निश्चित समूहों (स्कूल तथा उनके भीतर के उपसमूह) में ही बिताते हैं, भले ही उस समूह के बारे में उनकी राय कैसी भी हो. इसके अलावा, उनमें 'मित्रों' के दबाव को सँभालने के लिए आवश्यक परिपक्वता का अभाव भी हो सकता है। साथ ही, युवा व्यक्ति उन लोगों के प्रति नकारात्मक व्यवहार दर्शाने के लिए अधिक तत्पर रहते हैं जो उनके समूह के सदस्य नहीं हैं। हालांकि, युवा समकक्ष दबाव के सकारात्मक प्रभाव भी हो सकते हैं। उदाहरण के लिए, यदि कोई किसी ऐसे समूह में शामिल है जिसके सदस्य महत्त्वाकांक्षी हैं और सफल होने के लिए मेहनत करते हैं, तो उसके ऊपर वैसा ही करने का दबाव पड़ सकता है, ताकि समूह से अलग होने की भावना से बचा जा सके. कई बार बच्चे खुद पर अधिक दबाव डाल लेते हैं। उन्हें लगता है कि उन्हें उस समूह में शामिल होना चाहिए ताकि वे "कूल (Cool)" तथा "शामिल" होने का अनुभव कर सकें. इसलिए, युवाओं पर स्वयं को बेहतर करने का दबाव पड़ता है जो कि लंबे समय में उनके भविष्य के लिए एक अच्छी बात है। यह उन युवाओं में अधिक आम है जो खेलकूद तथा अन्य रचनात्मक गतिविधियों में सक्रिय हैं जहां अपने साथियों के समूह का अनुकरण करने की भावना सबसे अधिक बलवान होती है।
+.</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>350</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>टोक्यो</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>टोक्यो (जापानी: 東京), आधिकारिक रूप से टोक्यो महानगर, जिसे पहले एदो के नाम से जाना जाता था; जापान की राजधानी और सबसे बड़ा नगर है। इसका महानगरीय क्षेत्र (13,452 km²) विश्व में सबसे अधिक जनसंख्या है, 2018 तक अनुमानित 37.468 मिलियन निवासियों के साथ; नगर में 13.99 मिलियन लोगों की जनसंख्या है। टोक्यो खाड़ी के शीर्ष पर स्थित, यह प्रान्त जापान के सबसे बड़े द्वीप होंशू के मध्य तट पर कान्तो क्षेत्र का भाग है। टोक्यो जापान के आर्थिक केन्द्र के रूप में कार्य करता है और यह जापान की सरकार और जापान के सम्राट दोनों की अवस्थान स्थल है। 
+मूल रूप से एदो नाम का एक मत्स्य जीवी ग्राम, 1603 में यह नगर एक प्रमुख राजनीतिक केन्द्र बन गया, जब यह तोकुगावा शोगुनराज का स्थान बन गया। 18वीं शताब्दी के मध्य तक, एदो 10 लाख से अधिक लोगों की जनसंख्या वाले विश्व के सबसे अधिक जनसंख्या वाले नगरों में से एक था।  1868 की मेजी पुनर्स्थापन के बाद, क्योतो में शाही राजधानी को एदो में स्थानान्तरित कर दिया गया, जिसका नाम बदलकर "टोक्यो" (अनुवाद. पूर्वी राजधानी) कर दिया गया। टोक्यो 1923 के महान कान्तो भूकम्प से और फिर द्वितीय विश्वयुद्ध के दौरान मित्र देशों की बमबारी से ध्वंस हो गया था। 1950 के दशक की आरम्भ में, नगर में द्रुत गति से पुनर्निर्माण और विस्तार के प्रयास हुए, जो जापानी युद्धोत्तर आर्थिक चमत्कार का नेतृत्व करने के लिए चल रहा था।  1943 के बाद से, टोक्यो महानगरीय सरकार ने प्रान्त के 23 विशेष वार्डों, इसके पश्चिमी क्षेत्र में विभिन्न कम्यूटर नगरों और उपनगरों और टोक्यो द्वीप समूह के रूप में जाने वाली दो बाहरी द्वीप शृंखलाओं को प्रशासित किया है।
+नगर ने 1964 ग्रीष्मकालीन ओलिम्पिक और 1964 ग्रीष्मकालीन पैरालिम्पिक, 2020 ग्रीष्मकालीन ओलिम्पिक और 2020 ग्रीष्मकालीन पैरालिम्पिक (स्थगित; 2021 में आयोजित), और जी७ के तीन शिखर सम्मेलन (1979, 1986 और 1993 में) सहित कई अंतर्राष्ट्रीय कार्यक्रमों की आतिथ्य की है।  टोक्यो जापान में अग्रणी अनुसंधान और विकास केंद्र है और इसी तरह कई प्रमुख विश्वविद्यालयों द्वारा प्रतिनिधित्व किया जाता है, विशेष रूप से तोक्यो विश्वविद्यालय सहित। टोक्यो स्थानक जापान के द्रुतगामी  रेलमार्ग अन्तर्जाल, शिंकान्सेन का केन्द्र है; टोक्यो का शिंजुकु स्थानक दुनिया का सबसे व्यस्त रेलमार्ग स्थानक भी है। तोक्यो के उल्लेखनीय विशेष वार्डों में शामिल हैं: चियोदा, राष्ट्रीय डायट भवन और टोक्यो इम्पीरियल पैलेस की साइट;  शिंजुकु, नगर का प्रशासनिक केन्द्र; और शिबुया, एक वाणिज्यिक, सांस्कृतिक और व्यावसायिक केन्द्र।</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>390</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>2008 ग्रीष्मकालीन ओलम्पिक</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>२००८ ग्रीष्मकालीन ओलम्पिक या बीजिंग ओलम्पिक २००८ में बीजिंग, चीन में आयोजित हुए ग्रीष्मकालीन ओलम्पिक खेल का नाम है। इसका नारा था एक विश्व, एक स्वप्न (同一个世界 同一个梦想) और इनका आयोजन ८ अगस्त से २४ अगस्त, २००८ तक हुआ, जिसमें ११,०२८ खिलाड़ियों द्वारा २८ खेलों की ३०२ प्रतिस्पर्धाओं में भाग लिया गया।</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C107" t="n">
         <v>52</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>नेपाल क्रिकेट टीम</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>नेपाल क्रिकेट टीम (अंग्रेज़ी: Nepal national cricket team) अंतरराष्ट्रीय क्रिकेट में नेपाल का प्रतिनिधित्व करता है। 1988 से नेपाल अंतरराष्ट्रीय क्रिकेट परिषद के एफिलिएट सदस्य के रूपमें था जो 1996 के बाद एसोसिएट सदस्य बन चुका है। 2014 जून में नेपालको आईसीसी ने ट्वेंटी20 अंतरराष्ट्रीयका सदस्यतासे सम्मानित किया   
 15 मर्च 2018 को एक दिवसीय मान्यता प्रप्त किया1</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="C108" t="n">
         <v>57</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>शिशुशिक्षा</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>"शिशु" शब्द का अर्थ बहुत व्यापक होता है। कोई जन्म से लेकर ढाई तीन वर्षों तक, कोई पाँच वर्ष तक और कोई छह या सात वर्ष तक के बच्चे को शिशु कहता है। परंतु शिशुशिक्षा के अर्थ "दो से ग्यारह या बारह वर्ष तक की शिक्षा" माना जाता है। इस पर्याप्त लंबी अवधि को प्राय दो भागों में बाँटा जाता है। दो वर्ष से छह वर्ष की शिक्षा को शिशुशिक्षा (इनफंट या नर्सरी एजुकेशन) कहते हैं, जो प्राय: शिशुशालाओं (नर्सरी स्कूलों) में दी जाती है। छह वर्ष के पश्चात् ग्यारह या बारह वर्ष की शिक्षा को बालशिक्षा (चाइल्ड एजुकेशन) या प्रारंभिक शिक्षा (एलीमेंटरी एजुकेशन) कहते हैं। संसार के सभी प्रगतिशील देशों में प्रारंभिक शिक्षा अनिवार्य है। अत: कहीं छह वर्ष के पश्चात् और कहीं सात वर्ष से प्रारंभिक विद्यालयों में शिक्षा आरंभ की जाती है जो प्राय: पाँच वर्षों तक चलती है। तत्पश्चात् बच्चे माध्यमिक शिक्षा में प्रविष्ट होते हैं।
 शिशु मनुष्य का पूर्वरूप है। मनुष्य की संपूर्ण शक्तियाँ और संभावनाएँ शिशु में संनिहित रहती हैं। उसके समुचित पालन पोषण एवं शिक्षादीक्षा पर ही भावी मनुष्य का विकास निर्भर रहता है। अत: मनुष्य की शिक्षा को पूर्ण बनाने की नींव शैशवावस्था में ही पड़ जानी चाहिए। इसी से आज के युग में शिशुशिक्षा को सर्वाधिक महत्व प्रदान किया जाता है।</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C109" t="n">
         <v>210</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>2022 शीतकालीन ओलम्पिक</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>2022 का शीतकालीन ओलम्पिक, आधिकारिक रूप से XXIV शीतकालीन ओलम्पिक खेल, एक अन्तर्राष्ट्रीय बहु-खेल प्रतियोगिता है जिसका आयोजन 2022 में चीन की राजधानी बीजिंग में होना है। इससे पहले बीजिंग 2008 के ग्रीष्मकालीन ओलम्पिक खेलों का भी आयोजन कर चुका है। और इस प्रकार बीजिंग विश्व का पहला और एकमात्र नगर है जो ओलम्पिक खेलों के दोनों रूपान्तरों (ग्रीष्मकालीन और शीतकालीन) की मेज़बानी कर चुका है। शीतकालीन खेलों की मेज़बानी करने वाला बीजिंग अब तक का सबसे बड़ा नगर भी होगा। इन खेलों का आयोजन 4 फ़रवरी से 20 फ़रवरी 2022 तक के बीच किया जाएगा।
 चीन में आयोजित होने वाला यह पहला शीतकालीन ओलम्पिक खेल होगा। इन खेलों का अनुमानित बजट 3.9 अरब डॉलर है, जबकि 2008 में चीन में ही आयोजित ग्रीष्मकालीन खेलों में 43 अरब डॉलर व्यय किए गए थे।|</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C110" t="n">
         <v>133</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>बंगलौर विश्वविद्यालय</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>बैंगलोर विश्वविद्यालय (BU) एक सार्वजनिक विश्वविद्यालय है, जो कर्नाटक राज्य, भारत के बैंगलोर शहर में स्थित है। यह विश्वविद्यालय भारत के पुराने विश्वविद्यालयों में से एक है जिसकी स्थापना सन 1886 में हुई थी तथा यह भारत के अग्रणी बड़े विश्वविद्यालयों में से एक है। विश्वविद्यालय, भारतीय विश्वविद्यालयों के संघ (AIU) का एक भाग है तथा 'उत्कृष्टता के लिये संभावित' (Potential for Excellence) की प्रतिष्ठा के नजदीक है जो कि विश्वविद्यालय अनुदान आयोग (UGC) के दिशा निर्देशों के अनुसार भारत के 10 शीर्ष विश्वविद्यालयों के लिये आरक्षित है।
 विश्वविद्यालय, प्रतिष्ठित विदेशी तथा स्थानीय विश्वविद्यालयों, संगठनों तथा संस्थाओं के साथ एमओयू के द्वारा शोध कार्य में संलग्न है। इसके कई विभाग उत्कृष्टता के केन्द्र के रूप में UGC द्वारा चिन्हित किये गये हैं।</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C111" t="n">
         <v>122</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>आज़ाद कश्मीर</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>वर्तमान मे "आज़ाद" कश्मीर, कश्मीर के भूगोलिक क्षेत्र मे, पाकिस्तान स्वर अधिकृत क्षेत्र हैं। यह इलाका भारत-पाकिस्तान के बटवारे से बहुत विवादित रहा है। जम्मू और कश्मीर पूरा भारत का एक अभिन्न हिस्सा है</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="C112" t="n">
         <v>34</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>2018 शीतकालीन ओलम्पिक</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>2018 के शीतकालीन ओलंपिक, आधिकारिक तौर पर तेईसवाँ ओलंपिक शीतकालीन खेल (कोरियाई: 제23회 동계 올림픽), एक अन्तरराष्ट्रीय बहु-खेल आयोजन है, जो कि दक्षिण कोरिया के प्योंगचांग काउण्टी में आयोजित किया जा रहा है। जुलाई 2011 में डरबन, दक्षिण अफ्रीका में 123वें आईओसी सत्र के दौरान प्योंगचांग को अगला मेज़बान शहर चुना गया था। दक्षिण कोरिया ने पहली बार शीतकालीन ओलंपिक खेलों कि मेजबानी की है, जबकि यह देश में आयोजित होने वाले दूसरा ओलम्पिक खेल (पहला 1988 ग्रीष्मकालीन ओलंपिक) है।
 शीतकालीन ओलंपिक 9 से 25 फरवरी 2018 तक चलेगा, उद्घाटन समारोह से पहले 8 और 9 फरवरी को कुछ स्पर्धाएँ अयोजित कराई गई। इस आयोजन में पंद्रह खेलों में 102 स्पर्धाएँ शामिल हैं, जिसमें बिग एयर स्नोबोर्डिंग, मास स्टार्ट स्पीड स्केटिंग, मिश्रित युगल कर्लिंग, और मिश्रित टीम अल्पाइन स्कीइंग आदि खेल शीतकालीन ओलम्पिक कार्यक्रम में शामिल है। 92 राष्ट्रीय ओलंपिक समितियों (देशों) के कुल 2,952 खिलाड़ी इस आयोजन में भाग लेंगे। इक्वाडोर, एरिट्रिया, कोसोवो, मलेशिया, नाइजीरिया और सिंगापुर का यह पहला शीतकालीन ओलम्पिक है।</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C113" t="n">
         <v>164</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>१९३६ ग्रीष्मकालीन ओलंपिक में भारत</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>भारत ने बर्लिन, जर्मनी में आयोजित हुए 1936 ग्रीष्मकालीन ओलंपिक में भाग लिया था। इन खेलों में भारत की पुरुष हॉकी टीम ने अपना तीसरा स्वर्ण पदक जीता था। मेजर ध्यानचंद ने भारतीय दल का नेतृत्व किया।</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C114" t="n">
         <v>37</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>फ़ोर्ब्स</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>फोर्ब्स इन्कॉर्पोरेट, एक निजी स्वामित्व वाली प्रकाशन एवं मीडिया कंपनी है। जिसका प्रमुख प्रकाशन एक द्वि-साप्ताहिक पत्रिका फोर्ब्स  है, जिसकी खपत (संचलन) 900,000 से अधिक है। अगस्त 2006 में, निजी इक्विटी फर्म, एलीवेशन पार्टनर्स, नवगठित कंपनी, फोर्ब्स मीडिया में एक अल्पसंख्यक शेयरधारक बन गयी, जिसमें फोर्ब्स पत्रिका और वेबसाइट पर अग्रणी व्यावसायिक साइटों में से एक Forbes.com शामिल हैं। Forbes.com प्रति महीने 18 लाख लोगों को तक पहुँचता है। फोर्ब्स मीडिया के अन्य वेबसाइट हैं: Investopedia; RealClearPolitics, RealClearMarkets एवं RealClearSports और True/Slant'. Forbes.com Business और Finance Blog Network के साथ ये संपत्तियां प्रति माह लगभग 40 लाख व्यावसायिक निर्णयकर्ताओं तक पहुँचती हैं।
 कंपनी फोर्ब्स एशिया, फोर्ब्स लाइफ और फोर्ब्स वुमन पत्रिकाओं का प्रकाशन करती हैं। इसके अलावा, फोर्ब्स का चीन, क्रोएशिया, भारत, इंडोनेशिया, इजरायल, कोरिया, पोलैंड, रोमानिया, रूस और तुर्की में 10 स्थानीय भाषाओं का लाइसेंसधारी संस्करण है। फोर्ब्स, फोर्ब्स एशिया और कंपनी के दस अंतर्राष्ट्रीय लाइसेंसधारी संस्करण एक साथ 60 लाख से अधिक पाठकों वाले विश्वव्यापी दर्शकों तक पहुँचते हैं।</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="C115" t="n">
         <v>161</v>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>इमरान ख़ान</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>इमरान खान नियाज़ी  (उर्दू: عمران خان نیازی  देवनागरीकृत : इ़मरान ख़ान नियाज़ी  , उर्दू:  عِمْران اَحْمَد خان نِیازی ; देवनागरीकृत : इ़म्रान अह्मद ख़ान नियाज़ी  ; जन्म 25 नवम्बर 1952) एक पाकिस्तानी राजनीतिज्ञ तथा वर्तमान पाकिस्तान के प्रधानमंत्री और सेवानिवृत्त पाकिस्तानी क्रिकेटर हैं। उन्होंने पाकिस्तानी आम चुनाव, २०१८ में बहुमत जीता। वह 2013 से 2018 तक पाकिस्तान की नेशनल असेंबली के सदस्य थे, जो सीट 2013 के आम चुनावों में जीती थीं। इमरान बीसवीं सदी के उत्तरार्द्ध के दो दशकों में अंतर्राष्ट्रीय क्रिकेट खेला और 1990 के दशक के मध्य से राजनीतिज्ञ हो गए।
 ख़ान, 1971-1992 तक पाकिस्तानी क्रिकेट टीम के लिए खेले और 1982 से 1992 के बीच, आन्तरायिक कप्तान रहे। 1987 के विश्व कप के अंत में, क्रिकेट से संन्यास लेने के बाद, उन्हें टीम में शामिल करने के लिए 1988 में दुबारा बुलाया गया। 39 वर्ष की आयु में ख़ान ने पाकिस्तान की प्रथम और एकमात्र विश्व कप जीत में अपनी टीम का नेतृत्व किया। 
@@ -2556,42 +2925,42 @@
 अप्रैल 1996 में ख़ान ने पाकिस्तान तहरीक-ए-इंसाफ (न्याय के लिए आंदोलन) नाम की एक छोटी और सीमांत राजनैतिक पार्टी की स्थापना की और उसके अध्यक्ष बने और जिसके वे संसद के लिए निर्वाचित केवल एकमात्र सदस्य हैं। उन्होंने नवंबर 2002 से अक्टूबर 2007 तक नेशनल असेंबली के सदस्य के रूप में मियांवाली का प्रतिनिधित्व किया। ख़ान ने दुनिया भर से चंदा इकट्ठा कर, 1996 में औकत खानम मेमोरियल चिकित्सालय तथा अनुसन्धान केन्द्र और 2008 में मियांवाली  नमल महाविद्यालय की स्थापना में सहायता की।</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="C116" t="n">
         <v>271</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>केन्द्रीय उच्च तिब्बती शिक्षा संस्थान</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>केन्द्रीय तिब्बती अध्ययन विश्वविद्यालय (तिब्बती: ཝ་ཎ་མཐོ་སློབ, Wylie: वा ना म्थो स्लोब / Central University for Tibetan Studies (CUTS)) भारत का स्ववित्तपोषित विश्वविद्यालय है। यह उत्तर प्रदेश में वाराणसी के निकट सारनाथ में स्थित है। यह पूरे भारत में अपने ढंग का एकमेव विश्वविद्यालय है।</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C117" t="n">
         <v>44</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>डुनेडिन</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>डुनेडिन आईपीए: /dəˈniːdɨn/ (माओरी: Ōtepoti) न्यूजीलैंड के दक्षिण द्वीप का दूसरा सबसे बड़ा शहर और ओटागो क्षेत्र का प्रमुख शहर है।
 न्यूज़ीलैंड देश का प्रमुख नगर। इसे ऐतिहासिक, सांस्कृतिक और भौगोलिक कारणों से न्यूजीलैंड के चार प्रमुख शहरी केन्द्रों में से एक माना जाता है। प्रादेशिक भूमि क्षेत्र विस्तार की दृष्टि से डुनेडिन कभी सबसे बड़ा शहर हुआ करता था, लेकिन नवंबर 2010 में ऑकलैंड परिषद के निर्माण के बाद से यह श्रेय ऑकलैंड के पास चला गया है। लगभग उन्नीसवीं सदी तक डुनेडिन जनसंख्या की दृष्टि से न्यूजीलैंड का सबसे बड़ा शहर था।
@@ -2599,83 +2968,106 @@
 शहर का सबसे बड़ा उद्योग तृतीयक शिक्षा है - डुनेडिन न्यूजीलैंड के पहले विश्वविद्यालय यूनिवर्सिटी ऑफ ओटागो (1869) और ओटागो पॉलिटेक्निक का गृह क्षेत्र है। यहाँ छात्रों की जनसंख्या काफी अधिक है: 2006 की जनगणना के अनुसार न्यूजीलैंड की औसत 14.2 प्रतिशत जनसंख्या की तुलना में शहर की जनसंख्या के लगभग 21.6 प्रतिशत लोगों की उम्र 15 से 24 के बीच है।</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="C118" t="n">
         <v>213</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>कम्पनी सचिव</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>कम्पनी सचिव (Company Secretary) निजी क्षेत्र की कम्पनियों तथा सार्वजनिक क्षेत्र के संस्थान का एक उच्च पद है। यह प्रायः प्रबन्धक या उससे भी ऊँचा पद है। (जिसमें ceo और cfo यह दो पद आते है.) कम्पनी सचिव का दायित्व कम्पनी का दक्षतापूर्वक प्रबन्धन करना है किन्तु उसका मुख्य दायित्व यह सुनिश्चित करना है कि संस्था कम्पनी कानूनों का पालन करते हुए प्रगति करे। निदेशक मण्डल द्वारा लिए गये निर्णयों को लागू किए जाय - यह सुनिश्चित करना भी उसका दायित्व है।
+भारत में कम्पनी अधिनियम के तहत न्यूनतम 5 करोड़ लागत वाली कम्पनी को कम्पनी सचिव (सी एस) रखना अनिवार्य है। सी एस को किसी कम्पनी के प्रधान अफसरों में से एक माना जाता है। ट्रेनिंग के दौरान सीखे हुए क्षेत्र के अनुसार वह अपना कार्य विभिन्न क्षेत्रों में दक्षतापूर्वक करता है जैसे फाइनेंस, आकउन्टस्, लीगल एडमिनिस्ट्रेषन एवं निजी डिविजन इत्यादि। अन्य कार्य क्षेत्र में सम्मिलित है- विधि सम्बन्धी जानकारी एवं कम्पनी सम्बन्धी सभी कार्य। ‘बोर्ड ऑफ डायरेक्टर’ की मीटिंग सम्बन्धि जानकारी, मीटिंग को आयोजित करने से लेकर सारे रिकार्ड तक सारी जिम्मेदारी सी एस की होती है। कम्पनी के आवश्यकतानुसार केन्द्र / राज्य सेल्स टेक्स, एक्साइज, लेबर एवं कार्परेट सम्बन्धी सभी तथ्य सी एस की जिम्मेदारियों में शामिल हैं। संस्था निवेश, प्रोजेक्ट स्वीकृति, लाइसेन्स एवं परमिट उपलब्ध करना, एम आर टी पी (मोनोपाली एण्ड रेस्ट्रिक्टिव ट्रेड प्रेक्टिस एक्ट) और फेरा (फॉरिन एक्सचेंज रेगुलेषन एक्ट) से सम्बन्धी कार्य भी सी एस के कार्य क्षेत्र में आता है। कम्पनी के वार्षिक रिटर्न भी कम्पनी सचिव  को ही भरने पड़ते हैं।
+वैयक्तिक सहायक या निजी सचिव एक संगठन की रीढ़ की हड्डी होता/होती है। निजी सचिव एक कार्यपालक सहायक होता है जिसे कार्यालयी कौशलों में प्रवीणता प्राप्त होती है, उसमें बिना प्रत्यक्ष पर्यवेक्षण के उत्तरदायित्वों को वहन करने की क्षमता होती है तथा उसे सौंपे गए दायित्वों के भीतर पहल करने तथा निर्णय लेने की क्षमता होती है।
+सचिव के कार्य में सृजनात्मकता की आवश्यकता होती है क्योंकि उसे अपने कार्यपालक की ओर से नियमित रुप से अनेक निर्णय लेने होते हैं।</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>331</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>2014 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>सत्रहवें एशियाई खेल २०१४ में दक्षिण कोरिया के इंचियोन में १७ सितम्बर २०१४ से ४ अक्टूबर २०१४ के मध्य आयोजित किए गए।</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C120" t="n">
         <v>22</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>चम्पा बेन</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>चम्पा बेन (9 अप्रैल 1935 - 21 जनवरी 2011) भारत की एक समाज सेविका एवं सामाजिक कार्यकर्ता थीं। उन्होने ने बेड़िया समुदाय की महिलाओं के उत्थान के लिए कार्य किया। इसके लिए उन्हें 2002-03 में राज्य के इंदिरा गांधी समाज सेवा पुरस्कार सहित अन्य कई पुरस्कारों से सम्मानित किया गया।</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>50</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>2010 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>सोलहवें एशियाई खेल, १२ नवम्बर से २७ नवम्बर, २०१० के बीच चीन के गुआंग्झोऊ में आयोजित किए जाएँगे। बीजिंग, जिसने १९९० के एशियाई खेलों की मेज़बानी की थी, के बाद गुआंग्झोऊ इन खेलों का आयोजन करने वाला दूसरा चीनी नगर होगा। इसके अतिरिक्त यह इतनी बड़ी संख्या में खेल प्रतियोगिताएँ आयोजित करने वाला अन्तिम नगर होगा, क्योंकि एशियाई ओलम्पिक परिषद ने भविष्य के खेलों के लिए नए नियम लागू किए हैं जो २०१४ के खेलों से यथार्थ में आएँगे। 
 गुआंग्झोऊ को ये खेल १ जुलाई, २००४ को प्रदान किए गए थे, जब वह इकलौता बोली लगाने वाला नगर था। यह तब हुआ जब अन्य नगर, अम्मान, क्वालालम्पुर और सियोल बोली प्रक्रिया से पीछे हट गए। खेलों की सह-मेज़बानी तीन पड़ोसी नगरों डोंग्गूआन, फ़ोशन और शानवेइ के द्वारा भी की जाएगी।</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C122" t="n">
         <v>130</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>चम्पा बेन</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>चम्पा बेन (9 अप्रैल 1935 - 21 जनवरी 2011) भारत की एक समाज सेविका एवं सामाजिक कार्यकर्ता थीं। उन्होने ने बेड़िया समुदाय की महिलाओं के उत्थान के लिए कार्य किया। इसके लिए उन्हें 2002-03 में राज्य के इंदिरा गांधी समाज सेवा पुरस्कार सहित अन्य कई पुरस्कारों से सम्मानित किया गया।</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>50</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>ड्रैगन नृत्य</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>ड्रैगन नृत्य (सरलीकृत चीनी वर्ण: 舞龙; पारम्परिक चीनी वर्ण: 舞龍; पिनयिन: wǔ lóng) चीनी संस्कृति में पारंपरिक नृत्य एवं प्रदर्शन का एक रूप है। सिंह नृत्य की तरह इसे भी सबसे ज्यादा उत्सव समारोह में देखा जाता है। कई चीनी लोग 1970 के दशक में शुरू होने वाले चलन के एक हिस्से के रूप में एक जातिगत पहचान के एक चिह्न के रूप में अक्सर "ड्रैगन के वंशज " (龍的傳人 या 龙的传人, lóng de chuán rén) शब्द का इस्तेमाल करते हैं। एक अन्य व्युत्पत्ति (農的傳人) अर्थात् शेनोंग के वंशज से हुई है जो चीनी लोगों का पहला पौराणिक राजा था जिसने उनलोगों कृषि, क़ानून और चिकित्सा, सभ्यता की नींव के बारे में बताया।
 नृत्य में, लोगों का एक दल खंभों पर ड्रैगन लिए रहता है - जो चीनी ड्रैगन की एक छवि है। एक ड्रैगन की रचना ज्यादा से ज्यादा 50 लोगों से की जा सकती है। नृत्य दल एक घुमावदार और लहरदार तरीके से इस नदी आत्मा की कल्पित गतिविधियों की नक़ल करता है। 
@@ -2683,86 +3075,86 @@
 ऐसी मान्यता है कि ड्रैग लोगों के लिए सौभाग्य लेकर आता है जो उनकी गुणवत्ता में दिखाई देता है जिसमें महान शक्ति, गरिमा, प्रजनन (सेक्स), बुद्धि और कल्याण शामिल है। ड्रैगन का स्वरूप भयावह [उद्धरण चाहिए] होने के साथ-साथ साहसी भी है लेकिन इसका एक उदार स्वाभाव है और इसलिए अंत में यह शाही अधिकारी का प्रतिनिधित्व करने वाला एक प्रतीक बन गया।</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C123" t="n">
         <v>275</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>1990 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>ग्यारहवें एशियाई खेल २२ सितंबर से ७ अक्टूबर, १९९० के बीच बीजिंग, चीन में आयोजित किए गए थे। चीन में आयोजित होने वाली यह प्रथम विशाल-स्तरीय अन्तर्राष्ट्रीय खेल प्रतियोगिता थी। कुल ३७ एशियाई देहों से ६,१२२ खिलाड़ियों ने इन खेलों में भाग लिया और २९ क्रीड़ाओं में प्रतिद्वन्दिता की। पहली बार सम्मिलित किए गए खेल थे सॉफ़्टबॉल, सेपक टाक्रौ, वूशू, कबड्डी और नौकायन।</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C124" t="n">
         <v>63</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>शैक्षिक मनोविज्ञान</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>शैक्षिक मनोविज्ञान (Educational psychology), मनोविज्ञान की वह शाखा है जिसमें इस बात का अध्ययन किया जाता है कि मानव शैक्षिक वातावरण में सीखता कैसे है तथा शैक्षणिक क्रियाकलाप अधिक प्रभावी कैसे बनाये जा सकते हैं। 'शिक्षा मनोविज्ञान' दो शब्दों के योग से बना है - ‘शिक्षा’ और ‘मनोविज्ञान’। अतः इसका शाब्दिक अर्थ है - शिक्षा संबंधी मनोविज्ञान। दूसरे शब्दों में, यह मनोविज्ञान का व्यावहारिक रूप है और शिक्षा की प्रक्रिया में मानव व्यवहार का अध्ययन करने वाला विज्ञान है।मानव व्यवहार को बनाने की दृष्टि से जब व्यवहार का अध्ययन किया जाता है तो अध्ययन की इस शाखा को शिक्षा मनोविज्ञान Archived 2021-05-05 at the वेबैक मशीन के नाम से संबोधित किया जाता है। अतः कहा जा सकता है कि शिक्षा मनोविज्ञान Archived 2021-05-05 at the वेबैक मशीन शैक्षणिक स्थितियों में मानव व्यवहार का अध्ययन करता है। दूसरे शब्दों में शैक्षिक समस्याओं का वैज्ञानिक व संगठन से समाधान करने के लिए मनोविज्ञान के आधारभूत सिद्धांतों का उपयोग करना ही शिक्षा मनोविज्ञान की विषय वस्तु है। शिक्षा के सभी पहलुओं जैसे शिक्षा के उद्देश्यों, शिक्षण विधि, पाठ्यक्रम, मूल्यांकन, अनुशासन आदि को मनोविज्ञान ने प्रभावित किया है। बिना मनोविज्ञान की सहायता के शिक्षा प्रक्रिया सुचारू रूप से नहीं चल सकती।
 शिक्षा मनोविज्ञान से तात्पर्य शिक्षण एवं सीखने की प्रक्रिया को सुधारने के लिए मनोवैज्ञानिक सिद्धान्तों का प्रयोग करने से ह शिक्षा मनोविज्ञान शैक्षिक परिस्थितियों में व्यक्ति के व्यवहार का अध्ययन करता है।
 इस प्रकार शिक्षा मनोविज्ञान में व्यक्ति के व्यवहार, मानसिक प्रक्रियाओं एवं अनुभवों का अध्ययन शैक्षिक परिस्थितियों में किया जाता है। शिक्षा मनोविज्ञान मनोविज्ञान की वह शाखा है जिसका ध्येय शिक्षण की प्रभावशाली तकनीकों को विकसित करना तथा अधिगमकर्ता की योग्यताओं एवं अभिरूचियों का आंकलन करना है। यह व्यवहारिक मनोविज्ञान की शाखा है जो शिक्षण एवं सीखने की प्रक्रिया को सुधारने में प्रयासरत है।</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C125" t="n">
         <v>292</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>भूपेश बघेल</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>डॉ.भूपेश बघेल (जन्म 23 अगस्त 1961) छत्तीसगढ़ के तीसरे मुख्यमंत्री के रूप में सेवा देने वाले एक भारतीय राजनीतिज्ञ हैं। वे भारतीय राष्ट्रीय कांग्रेस के राजनेता हैं।  उन्होंने 80 के दशक में यूथ कांग्रेस के साथ अपनी सियासी पारी शुरू की थी। वे छत्तीसगढ़ प्रदेश कांग्रेस कमिटी के अध्यक्ष थे। वह पाटन से पांच बार विधानसभा सदस्य (भारत) रहे हैं।   
 भूपेश बघेल आज पूरे भारत में किसी परिचय के मोहताज नहीं हैंं। भूपेश बघेल छत्तीसगढ़ के अब तक सबसे जोशीले, कर्मठ व नयी ऊर्जा का प्रतीक यशश्वी मुख्यमंत्री हैं। वे राजनीति का अनुभव, संघर्षशील, मिलनसार, तीव्र बुद्धि के धनी, और अपनी कुशल नीतियों के कारण जाने जाते हैं और सत्य का अनुसरण करने वाले, गलत कार्य का विरोध करने वाले व्यक्ति है।   
 वे एक परिश्रमी, प्रेरित करने वाले, आशावादी सोच, पूर्वानुमान का आभास रखने वाले व्यक्ति हैं। स्वभाव से वे सरल, दयावान, मानवतावादी के हैं। यही कारण है कि 90 में से 69 विधानसभा सीट ऐतिहासिक रिकॉर्ड से जीत दर्ज किया है। छत्तीसगढ़ मुख्यमंत्री रहते कल्याणकारी योजनाओं से भी प्रसिद्ध हुए। नरवा गरवा घुरवा बाड़ी योजना और गढ़बो नवा छत्तीसगढ़ के नारा दिया।</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C126" t="n">
         <v>183</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>1982 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>नौवें एशियाई खेल १९ नवम्बर से ४ दिसम्बर, १९८२ तक दिल्ली, भारत में आयोजित किए गए थे। दिल्ली में दूसरी बार इन खेलों का आयोजन किया गया था और इससे पूर्व १९५१ के अभिषेकात्मक एशियाई खेल भी यहाँ आयोजित किए गए थे। नई दिल्ली, बैंकाक के बाद ऐसा दूसरा नगर बना जिसने इन खेलों की एक से अधिक बार मेज़बानी की हो।
 दिल्ली के एशियाई खेल प्रथम एशियाड थे जो एशियाई ओलम्पिक परिषद (एओप) के संरक्षण में आयोजित हो रहे थे। एशियाई खेल संघ, जिसके न्यायाधिकार में प्रथम आठ एशियाई खेल आयोजित हुए थे, को भंग कर एओप बनाया गया।
@@ -2773,22 +3165,44 @@
 १९८६ के अगले एशियाई खेलों (१०वें) और १९८८ के २४वें ग्रीष्मकालीन ओलम्पिक खेलों के मेज़बान दक्षिण कोरिया ने ४०६-सदस्यीय प्रतिनिधिमण्डल के साथ इन खेलों में भाग लिया, जिसमें एक पर्यवेक्षण दल भी था जो सुविधाओं, प्रबन्धन और प्रतियोगिताओं के बारे में जानकारी एकत्र करने के लिए आया था।</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="C127" t="n">
         <v>293</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>लास वेगास</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>लास वेगास (उच्चारित/lɑːs ˈveɪɡəs/); नेवाडा का सबसे अधिक आबादी वाला शहर है। क्‍लार्क काउंटी का स्थान है और जुआ, खरीदारी तथा शानदार खान-पान के लिए अंतरराष्ट्रीय (अन्तरराष्ट्रीय) स्‍तर पर जाना जाने वाला एक प्रमुख रिसोर्ट शहर है। स्‍वयं को दुनिया की मनोरंजन राजधानी के रूप में प्रचारित करने वाला लास वेगास, कसीनो रिसोर्ट्स की बड़ी संख्‍या और उनसे संबंधित (सम्बन्धित) मनोरंजन के लिए मशहूर है। अब यहाँ अधिक-से-अधिक लोग सेवानिवृत्ति के बाद और अपने परिवारों के साथ बस रहे हैं और यह संयुक्‍त राज्‍य अमेरिका का 28वाँ सबसे अधिक आबादी वाला शहर बन गया है। संयुक्‍त राज्‍य अमेरिका के जनगणना ब्‍यूरो के अनुसार 2008 तक की इसकी जनसंख्‍या 5,58,383 थी। 2008 तक लास वेगास के महानगरीय क्षेत्र की अनुमानित जनसंख्‍या 18,65,746 थी।
+1905 में स्‍थापित लास वेगास को 1911 में आधिकारिक रूप से शहर का दर्जा दिया गया। उसके बाद इतनी प्रगति हुई कि 20वीं शताब्‍दी में स्थापित किया गया यह शहर सदी के अंत तक अमेरिका का सबसे ज्‍़यादा आबादी वाला शहर बन गया (19 वीं शताब्‍दी में यह दर्जा शिकागो को हासिल था). वयस्‍कों के सभी प्रकार के मनोरंजन की अनुमति होने के कारण यह 'सिन सिटी' (गुनाहों का शहर) के नाम से जाना जाने लगा और लास वेगास की इसी छवि के कारण यह फिल्‍मों और टीवी कार्यक्रमों की शूटिंग के लिए एक लोकप्रिय शहर बन गया। दूसरी ओर, किसी भी अन्‍य अमेरिकी शहर [उद्धरण चाहिए] की तुलना में लास वेगास में प्रति व्‍यक्ति के हिसाब से गिरजाघरों की संख्‍या सबसे अधिक है। फ्रीमॉन्‍ट स्‍ट्रीट और शहर के अन्‍य कई स्‍थानों पर भी अनेकों आउटडोर लाइटिंग डिस्‍प्‍ले जगमगाते रहते हैं।
+लास वेगास नाम को अक्‍सर शहर के चारों ओर के अनिगमित क्षेत्रों, खासकर लास वेगास स्ट्रिप और उसके पास स्‍ि‍थत रिसोर्ट क्षेत्रों के लिए प्रयुक्‍त किया जाता है। स्ट्रिप कहलाने वाले 4 मील (6.4 कि॰मी॰) लास वेगास बोलेवर्ड का विस्‍तार मुख्‍यत: पेरेडाइज़ और विंचेस्‍टर के अनिगमित क्षेत्रों में है, जबकि उसका एक छोटा हिस्‍सा लास वेगास और एंटरप्राइज़ के असंख्य समुदाय में भी पड़ता है।</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>328</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>1986 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>दसवें एशियाई खेल २० सितम्बर से ५ अक्टूबर, १९८६ के बीच सियोल, दक्षिण कोरिया में आयोजित कराए गए थे। इस नगर ने १९७० में इन खेलों का आयोजन करना था लेकिन, उत्तर कोरिया से मिली धमकियों के चलते इन्हें टालना पड़ा और तब बैंकाक ने उन खेलों की मेज़बानी की थी। इन खेलों के लिए बनाए गए खेलस्थल और सुविधाएँ वही थे जिनका १९८८ ग्रीष्मकालीन ओलम्पिक खेलों में उपयोग किया गया क्योंकि इन खेलों को परीक्षण खेलों के रूप में माना गया।
 कुल मिलाकर २७ देशों से ४,८३९ खिलाड़ियों ने इन खेलों में भाग लिया और २५ प्रतियोगिताओं में प्रतिस्पर्धा की। पहली बार इन खेलों में जूडो, ताक्वाण्डो, महिला साइक्लिंग और महिला शूटिंग लाए गए। ८३ एशियाई और ३ विश्व कीर्तिमान तोड़े गए।
@@ -2797,417 +3211,439 @@
 मुख्यभूमि चीन को छोड़कर, सभी समाजवादी देशों ने, जिनमें उत्तर कोरिया भी था, इन खेलों का राजनीतिक कारणों से बहिष्कार किया था। एक जासूस ने खेलों से कुछ दिन पूर्व गिम्पो अन्तर्राष्ट्रीय हवाईअड्डे पर एक वेण्डिंग मशीन के पीछे एक बम विस्फोट कर दिया जिससे ५ लोग मारे गए, जिनमे एक तकनीशियन भी था।</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C129" t="n">
         <v>295</v>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>1998 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>तेरहवें एशियाई खेल ६ दिसंबर से २० दिसंबर, १९९८ के बीव बैंकाक, थाईलैण्ड में आयोजित किए गए थे। यह पहली बार था जब थाईलैण्ड ने इन खेलों के लिए बोली लगाई। इससे पहले थाईलैण्ड ने १९७० और १९७८ के एशियाई खेलों के आयोजन में अन्तिम समय पर अपना समर्थ्न दिया जब खेलों को रद्ध करने की स्थिति आ गई थी।</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C130" t="n">
         <v>60</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>1962 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>चौथे एशियाई खेल २४ अगस्त से ४ सितंबर, १९६२ तक जकार्ता, इण्डोनेशिया में आयोजित किए गए थे। इन खेलों की उल्लेखनीय बात थी इस्राइल और ताइवान का खेलों से निष्कासन।
 अरब देशों और चीन के दबाव में आकर इण्डोनेशियाई सरकार ने इस्राइली और ताइवानी मण्डल को वीज़ा जारी नहीं किए। ऐसा करना एशियाई खेल महासंघ के नियमों के विरुद्ध था और स्वयं मेज़बान सरकार के उस वचन के विरुद्ध भी, जिसमें उसने उन देशों को भी आमन्त्रित करने का वचन दिया था जिनके साथ उसके राजनयिक सम्बन्ध नहीं हैं (इस्राइल, ताइवान और दक्षिण कोरिया)।
 कुल १६ देशों के १, ४६० खिलाड़ियों ने इन खेलों में भाग लिया, जहाँ पर बैडमिण्टन को पहली बार सम्मिलित किया गया था।</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="C131" t="n">
         <v>117</v>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>1958 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>तीसरे एशियाई खेल २४ मई से १ जून, १९५८ को टोक्यो, जापान में आयोजित किए गए थे। २० एशियाई देशों के १,८२० खिलाड़ियों ने इन खेलों की तेरह स्पर्धाओं में भाग लिया। प्रथमोप्रवेश खेल थे, फ़ील्ड हॉकी, टेबल टेनिस, टेनिस और वॉलीबॉल। इन खेलों के आयोजन के बाद टोक्यों ने १९६४ ग्रीष्मकालीन ओलम्पिक खेलों की मेज़बानी भी की।</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C132" t="n">
         <v>58</v>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>1996 एशियाई शीतकालीन खेल</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>तीसरे एशियाई शीतकालीन खेल ४ फ़रवरी से ११ फ़रवरी, १९९६ के मध्य हार्बिन, चीन में आयोजित किए गए थे।</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>19</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>1970 एशियाई खेल</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>छठे एशियाई खेल ९ दिसंबर से २० दिसंबर, १९७० के बीच बैंकाक, थाईलैण्ड में आयोजित किए गए थे। पहले इन खेलों का आयोजन दक्षिण कोरिया द्वारा किया जाना था लेकिन उत्तर कोरिया मिली धमकियों के चलते इन खेलों को बचाने के लिए पिछले मेज़बान थाइलैण्ड ने हस्तक्षेप किया और दक्षिण कोरिया के निधियों का उपयोग करते हुए इन खेलों की मेज़बानी की। १८ देशों के २, ४०० खिलाड़ियों ने इन खेलो में भाग लिया, जहाँ पर नौकायन प्रथमोप्रवेश क्रीड़ा था।</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>80</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>1986 एशियाई शीतकालीन खेल</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>पहले एशियाई शीतकालीन खेल १ मार्च से ८ मार्च, १९८६ के बीच सपोरो, जापान में आयिजित किए गए थे। इस नगर ने १९७२ शीतकालीन ओलम्पिक खेलों के अनुभव और खेल-ढाँचे के साथ इन खेलों की मेज़बानी की थी। इन खेलों में एशिया की कुल ७ राष्ट्रीय ओलम्पिक समितियों ने भाग लिया था जिसमें ३५ खेल स्पर्धाएँ थी। इन सात देशों के ४३० खिलाड़ियों ने प्रथम एशियाई शीतकालीन खेलों में भाग लिया था।</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>72</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>1966 एशियाई खेल</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>पाँचवे एशियाई खेल ९ दिसंबर से २० दिसंबर, १९६६ के बीच बैंकाक, थाईलैण्ड में आयोजित किए गए थे। ताइवान और इस्राइल की इन एशियाई खेलों में वापसी हुई, इण्डोनेशिया के इन दोनों देशों को खेलों से प्रतिबन्धित करने के निर्णय के उलट। १८ एशियाई देशों के २, ५०० खिलाड़ियों और अधिकारियों ने इन खेलों में भाग लिया, जहाँ पर महिला वॉलीबॉल ने प्रथमोप्रवेश किया।</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>64</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>चकेरी सवाई माधोपुर</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>चकेरी राजस्थान के सवाई माधोपुर जिले का एक छोटा सा किन्तु महत्वपूर्ण गाँव है। चकेरी, सवाई माधोपुर जिले मे दिल्ली मुंबई रेलवे ट्रैक पर स्थित्त एक गावं हैं जो राजस्थान के पूर्व क्षेत्र की सांस्कृतिक,राजनीतिक, सामाजिक और खेल कूद की गतिविधियों का केंद्र है और क्षेत्रीय सहयोग, एकता, सद्भाव में एक महत्वपूर्ण भूमिका निभाता आया हैं।
 गांव में कई जातियों के लोग रहते हैं ,कहावत हैं की सातो जातिया रहती हैं। मीणा जाति के लोग बहुसंख्यक हैं। दूसरी जातियों में नाथ, ब्राम्हण, जैन, बैरवा, धोबी, गवारिया, नाई, चमार, रैगर, हरिजन, कोळी, गुर्जर, खटीक, राव व राजपूत आदि शामिल हैं। सभी लोग हिन्दू धर्म को मानने वाले हैं। अल्प मात्रा में लोग मुस्लिम धर्म को भी मानते हैं। सभी लोग आपस में मिलजुलकर रहते हैं और एक दूसरे के सुख -दुःख में शरीक होते हैं। 
 भारत की 2011 की जनगडना के अनुसार इस गाव की आबादी 3441 थी, कुल घरो की संख्या 695 थी।</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C133" t="n">
         <v>153</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>1994 एशियाई खेल</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>बारहवें एशियाई खेल २ अक्टूबर से १६ अक्टूबर, १९९४ के बीच हिरोशिमा, जापान में आयोजित किए गए थे। इन खेलों का प्रसंग, एशियाई देशों के मध्य शान्ति और सद्भावना को प्रोत्साहित करना था। इस पर मेज़बान द्वारा पूरा बल दिया गया क्योंकि खेलस्थल १९४५ में हुए विश्व के पहले परमाणु हमले का स्थल भी था।
-इन खेलों में ४२ देशों से कुल ६,८२८ खिलाड़ियों और अधिकारियों ने भाग लिया और कुल ३४ खेल-प्रतियोगिताएँ थी। प्रथमोप्रवेश खेल थे बेसबॉल, कराटे और आधुनिक पेण्टाथलोन।</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>82</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>1951 एशियाई खेल</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>प्रथम एशियाई खेल ४ मार्च से ११ मार्च, १९५१ में दिल्ली, भारत में हुए थे। मूल रूप से इन खेलों का आयोजन १९५० में होना तय किया गया था, लेकिन तैयारियों की देरी के चलते इन्हें १९५१ तक स्थगित करना पड़ा। महाराजाधिराज महाराजा यादवेन्द्र सिंह ने इन खेलों के संगठन में एक महत्त्वपूर्ण भूमिका निभाई। यद्यपि जापान को लन्दन में आयोजित १९४८ ग्रीष्मकालीन ओलम्पिक में नहीं खेलने दिया गया और एशियाई खेल संघ की बैठक में भी नहीं बुलाया गया, लेकिन अभिषेकात्मक एशियाई खेलों में स्पर्धा करने दिया गया। कोरिया, कोरियाई युद्ध के चलते भाग नहीं ले सका।</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>98</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>1996 एशियाई शीतकालीन खेल</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>तीसरे एशियाई शीतकालीन खेल ४ फ़रवरी से ११ फ़रवरी, १९९६ के मध्य हार्बिन, चीन में आयोजित किए गए थे।</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>19</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>टॉम क्रूज़</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>थॉमस क्रूज़ मापोदर IV (जन्म: 3 जुलाई 1962), जो अपने फिल्मी नाम टॉम क्रूज़ से ज्यादा जाने जाते हैं, एक अमेरिकी अभिनेता और फ़िल्म निर्माता हैं। 2006 में फ़ोर्ब्स पत्रिका ने उन्हें दुनिया के अत्यधिक प्रभावशाली लोकप्रिय व्यक्तित्व का दर्जा दिया। टॉम तीन अकादमी पुरस्कारों के लिए नामित हुए और उन्होंने तीन गोल्डन ग्लोब पुरस्कार जीते हैं। उनकी पहली प्रमुख भूमिका 1983 की फ़िल्म रिस्की बिज़नेस में थी, जिसे"एक युवा पीढ़ी की क्लासिक और अभिनेता के लिए कैरियर-निर्माता" के रूप में वर्णित किया गया है। 1986 के लोकप्रिय और आर्थिक रूप से सफल फ़िल्म टॉप गन में एक बहादुर नौसेना पायलट की भूमिका निभाने के बाद, 1990 और 2000 दशक में बनी मिशन इम्पॉसिबल एक्शन फ़िल्म श्रृंखला में एक गुप्त एजेंट की भूमिका निभाते हुए, क्रूज़ ने इस शैली को जारी रखा.
 इन वीरोचित किरदारों के अलावा, मैग्नोलिया (1999) में एक स्त्री-द्वेषी पुरुष गुरू और मैकल मान की क्राइम थ्रिलर फ़िल्म कोल्लाटरल (2000) में एक शांत और स्वार्थी मनोरोगी क़ातिल जैसी कई अन्य भूमिकाएं निभाईं. 
 2005 में, हॉलीवुड पत्रकार एडवर्ड जे एपस्टीन ने तर्क दिया कि क्रूज़ उन चंद निर्माताओं (अन्य में शामिल हैं -जॉर्ज लुकास,स्टीवन स्पीलबर्ग और जेर्री ब्रुक्कहेइमेर) में से हैं, जो अरब-डॉलर फ़िल्म के विक्रयाधिकार की सफलता की गारंटी दे सकते हैं। 2005 से क्रूज़ और पाउला वैग्नर यूनाइटेड आर्टिस्ट फ़िल्म स्टूडियो के प्रभारी रहे हैं, जहां क्रूज़ निर्माता और अभिनेता के रूप में और वैग्नर मुख्य कार्यपालक के रूप में शामिल हैं। क्रूज़, चर्च ऑफ़ साइनटॉलोजी के अपने विवादास्पद समर्थन और पालन के लिए भी जाने जाते हैं।</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="C135" t="n">
         <v>252</v>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1970 एशियाई खेल</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>छठे एशियाई खेल ९ दिसंबर से २० दिसंबर, १९७० के बीच बैंकाक, थाईलैण्ड में आयोजित किए गए थे। पहले इन खेलों का आयोजन दक्षिण कोरिया द्वारा किया जाना था लेकिन उत्तर कोरिया मिली धमकियों के चलते इन खेलों को बचाने के लिए पिछले मेज़बान थाइलैण्ड ने हस्तक्षेप किया और दक्षिण कोरिया के निधियों का उपयोग करते हुए इन खेलों की मेज़बानी की। १८ देशों के २, ४०० खिलाड़ियों ने इन खेलो में भाग लिया, जहाँ पर नौकायन प्रथमोप्रवेश क्रीड़ा था।</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>80</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1966 एशियाई खेल</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>पाँचवे एशियाई खेल ९ दिसंबर से २० दिसंबर, १९६६ के बीच बैंकाक, थाईलैण्ड में आयोजित किए गए थे। ताइवान और इस्राइल की इन एशियाई खेलों में वापसी हुई, इण्डोनेशिया के इन दोनों देशों को खेलों से प्रतिबन्धित करने के निर्णय के उलट। १८ एशियाई देशों के २, ५०० खिलाड़ियों और अधिकारियों ने इन खेलों में भाग लिया, जहाँ पर महिला वॉलीबॉल ने प्रथमोप्रवेश किया।</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>64</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1986 एशियाई शीतकालीन खेल</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>पहले एशियाई शीतकालीन खेल १ मार्च से ८ मार्च, १९८६ के बीच सपोरो, जापान में आयिजित किए गए थे। इस नगर ने १९७२ शीतकालीन ओलम्पिक खेलों के अनुभव और खेल-ढाँचे के साथ इन खेलों की मेज़बानी की थी। इन खेलों में एशिया की कुल ७ राष्ट्रीय ओलम्पिक समितियों ने भाग लिया था जिसमें ३५ खेल स्पर्धाएँ थी। इन सात देशों के ४३० खिलाड़ियों ने प्रथम एशियाई शीतकालीन खेलों में भाग लिया था।</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>72</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>1994 एशियाई खेल</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>बारहवें एशियाई खेल २ अक्टूबर से १६ अक्टूबर, १९९४ के बीच हिरोशिमा, जापान में आयोजित किए गए थे। इन खेलों का प्रसंग, एशियाई देशों के मध्य शान्ति और सद्भावना को प्रोत्साहित करना था। इस पर मेज़बान द्वारा पूरा बल दिया गया क्योंकि खेलस्थल १९४५ में हुए विश्व के पहले परमाणु हमले का स्थल भी था।
+इन खेलों में ४२ देशों से कुल ६,८२८ खिलाड़ियों और अधिकारियों ने भाग लिया और कुल ३४ खेल-प्रतियोगिताएँ थी। प्रथमोप्रवेश खेल थे बेसबॉल, कराटे और आधुनिक पेण्टाथलोन।</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>82</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1951 एशियाई खेल</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>प्रथम एशियाई खेल ४ मार्च से ११ मार्च, १९५१ में दिल्ली, भारत में हुए थे। मूल रूप से इन खेलों का आयोजन १९५० में होना तय किया गया था, लेकिन तैयारियों की देरी के चलते इन्हें १९५१ तक स्थगित करना पड़ा। महाराजाधिराज महाराजा यादवेन्द्र सिंह ने इन खेलों के संगठन में एक महत्त्वपूर्ण भूमिका निभाई। यद्यपि जापान को लन्दन में आयोजित १९४८ ग्रीष्मकालीन ओलम्पिक में नहीं खेलने दिया गया और एशियाई खेल संघ की बैठक में भी नहीं बुलाया गया, लेकिन अभिषेकात्मक एशियाई खेलों में स्पर्धा करने दिया गया। कोरिया, कोरियाई युद्ध के चलते भाग नहीं ले सका।</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>98</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>1978 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>आठवें एशियाई खेल ९ दिसंबर से २० दिसंबर, १९७८ के बीच बैंकाक, थाईलैण्ड में आयोजित किए गए थे। पाकिस्तान ने भारत और बांग्लादेश के साथ विवादों के चलते इन खेलों की मेजंबानी स्थगित कर दी। वित्तीय कारणों के चलते सिंगापुर खेलों की मेज़बानी करने से पीछे हट गया।
 थाईलैण्ड ने सहायता करने की पेशकश की और इसलिए एशियाड बैंकाक में आयोजित किया गया। राजनीतिक मोर्चे पर, इस्राइल को एशियाई खेलों से निष्कासित कर दिया गया। कुल २५ एशियाई देशों के ३,८४२ खिलाड़ियों ने इन खेलों में भाग लिया। पहली बार सम्मिलित किए गए खेल थे तीरंदाज़ी और गेंदबाजी।</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="C141" t="n">
         <v>98</v>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2002 एशियाई खेल</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>चौदहवें एशियाई खेल २९ सितंबर से १४ अक्टूबर, २००२ के बीच बुसान, दक्षिण कोरिया में आयोजित किए गए थे। इन खेलों में ४४ देशों के कुल ७,५५६ खिलाड़ियों ने भाग लिया था। कुल मिलाकर इन खेलों में ३८ खेल प्रतियोगिताएँ थी और १८,००० पत्रकार, अधिकारी और खिलाड़ी थे।
-एशियाई खेलों के इतिहास में पहली बार एशियाई ओलम्पिक परिषद की सभी राष्ट्रीय ओलम्पिक समितियों ने भाग लिया था। इनमें उत्तर कोरिया भी था जिसने इन खेलों के लिए अप्रत्याशित दल दक्षिण कोरिया में भेजा था और अफ़्गानिस्तान, भी इन खेलों में तालिबान के सत्ता में आने के बाद से पहली बार भाग ले रहा था। बॉडी बिल्डिंग इन खेलों में प्रथमोप्रवेश खेल था।</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>112</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>1974 एशियाई खेल</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>सातवें एशियाई खेल १ सितंबर से १६ सितंबर, १९७४ को तेहरान, ईरान में आयोजित किए गए थे। अर्यामेहर खेल परिसर इन खेलों के लिए बनाया गया था। मध्यपूर्व में इन खेलों का आयोजन पहली बार किया जा रहा था। तेहरान में हुए इन खेलों में एशिया के २५ देशों के ३,०१० खिलाड़ियों ने भाग लिया जो इन खेलों में अब तक सर्वाधिक संख्या थी।
-असिक्रीड़ा (फेन्सिंग), जिमनास्टिक और महिला बॉस्केटबॉल इन खेलों की खेल सूची में जोड़े गए। अत्याधुनिक प्रौद्योगिकी के अतिरिक्त इन खेलों में फिलिस्तीनीयों और एक जापानी उग्रवादी मत द्वारा मिली धमकियों के चलते अभूतपूर्व सुरक्षा व्यव्स्था की गई। अरब देशों, चीनी जनवादी गणराज्य, पाकिस्तान और उत्तर कोरिया ने इस्राइल के साथ टेनिस, बॉस्केटबॉल और फुटबॉल खेलने से मना कर दिया। एशियाई खेल संघ, जिसने खेलों से दस महीने पूर्व एक सम्मेलन किया था, ने ताइवान का निष्कासन स्वीकार किया और चीनी जनवादी गणराज्य की इन खेलों में प्रविष्टि स्वीकार की।</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>153</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>सातवीं अनुसूची (भारत का संविधान)</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>भारत के संविधान में राज्य सरकारों और केन्द्र सरकार के मध्य मुद्दों अथवा अधिकारों के बंटवारे के लिए विभिन्न अनुसूचियाँ परिभाषित की गयी हैं। इनमें से महत्त्वपूर्ण अनुच्छेद २४५ और २४६ के अन्तर्गत आते हैं। भारतीय संविधान की सातवीं अनुसूची राज्यों और संघ के मध्य के अधिकारों को उल्लिखित करती है। इसमें तीन सूचियाँ हैं: 1) संघ सूची, 2) राज्य सूची और 3) समवर्ती सूची।
 एक अन्य सूची भी है -
 अवशिष्ट सूची, जिसमें संविधान निर्माण के पश्चात के विषयों को रखा जाता है।</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="C142" t="n">
         <v>84</v>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2002 एशियाई खेल</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>चौदहवें एशियाई खेल २९ सितंबर से १४ अक्टूबर, २००२ के बीच बुसान, दक्षिण कोरिया में आयोजित किए गए थे। इन खेलों में ४४ देशों के कुल ७,५५६ खिलाड़ियों ने भाग लिया था। कुल मिलाकर इन खेलों में ३८ खेल प्रतियोगिताएँ थी और १८,००० पत्रकार, अधिकारी और खिलाड़ी थे।
+एशियाई खेलों के इतिहास में पहली बार एशियाई ओलम्पिक परिषद की सभी राष्ट्रीय ओलम्पिक समितियों ने भाग लिया था। इनमें उत्तर कोरिया भी था जिसने इन खेलों के लिए अप्रत्याशित दल दक्षिण कोरिया में भेजा था और अफ़्गानिस्तान, भी इन खेलों में तालिबान के सत्ता में आने के बाद से पहली बार भाग ले रहा था। बॉडी बिल्डिंग इन खेलों में प्रथमोप्रवेश खेल था।</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>112</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1974 एशियाई खेल</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>सातवें एशियाई खेल १ सितंबर से १६ सितंबर, १९७४ को तेहरान, ईरान में आयोजित किए गए थे। अर्यामेहर खेल परिसर इन खेलों के लिए बनाया गया था। मध्यपूर्व में इन खेलों का आयोजन पहली बार किया जा रहा था। तेहरान में हुए इन खेलों में एशिया के २५ देशों के ३,०१० खिलाड़ियों ने भाग लिया जो इन खेलों में अब तक सर्वाधिक संख्या थी।
+असिक्रीड़ा (फेन्सिंग), जिमनास्टिक और महिला बॉस्केटबॉल इन खेलों की खेल सूची में जोड़े गए। अत्याधुनिक प्रौद्योगिकी के अतिरिक्त इन खेलों में फिलिस्तीनीयों और एक जापानी उग्रवादी मत द्वारा मिली धमकियों के चलते अभूतपूर्व सुरक्षा व्यव्स्था की गई। अरब देशों, चीनी जनवादी गणराज्य, पाकिस्तान और उत्तर कोरिया ने इस्राइल के साथ टेनिस, बॉस्केटबॉल और फुटबॉल खेलने से मना कर दिया। एशियाई खेल संघ, जिसने खेलों से दस महीने पूर्व एक सम्मेलन किया था, ने ताइवान का निष्कासन स्वीकार किया और चीनी जनवादी गणराज्य की इन खेलों में प्रविष्टि स्वीकार की।</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>153</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>1990 एशियाई शीतकालीन खेल</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>दूसरे एशियाई शीतकालीन खेल ९ मार्च से १४ मार्च, १९९० के मध्य सपोरो, जापान में आयोजित किए गए थे। मूल रूप से भारत को इन खेलों का आयोजन करना था, लेकिन तकनीकि और कोषीय परेशानियों के कारण मेज़बानी जापान को दे दी गई। इन खेलों में तीन राओस ने पहली बार भाग लिया: ईरान, चीनी ताइपे और फ़िलीपीन्स।</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="C145" t="n">
         <v>58</v>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>ओस्लो</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>ओस्लो युरोप महादेश में स्थित नार्वे देश की राजधानी एवं वहां का सबसे बडा़ शहर है। इसे सन १६२४ से १८७९ तक क्रिस्टैनिया के नाम से जाना जाता था। आधुनिक ओस्लो की स्थापना ३ जनवरी १८३८ को एक नगर निगम के रूप में की गयी थी।</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="C146" t="n">
         <v>46</v>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>मैरीलैंड</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>मैरीलैंड राज्य (i/ˈmɛrələnd/) एक अमेरिकी राज्य है, जो संयुक्त राज्य अमेरिका के मध्य अटलांटिक क्षेत्र में स्थि‍त है, यह वर्जीनिया, पश्चिम वर्जीनिया की सीमा से लगा है और इसके दक्षिण और पश्चिम में कोलंबिया जिला, इसके उत्तर में पेंसिल्वेनिया और पूर्व में डेलावेयर है। कुल क्षेत्र के मामले में मैरीलैंड यूरोप के बेल्जियम देश के समकक्ष है। अमेरिकी सेंसस ब्यूरो के अनुसार अन्य राज्यों की तुलना में मैरीलैंड की घरेलू औसत आय सबसे अधिक है, 2006 में इसने नई जर्सी को पीछे छोड़ दिया; मैरीलैंड की औसत घरेलू आय 2007 में 68,080 डॉलर थी। 2009 में, मैरीलैंड ने 2008 के अपने 70,545 डॉलर की सबसे अधिक औसत आय के कारण अमेरिकी राज्यों में तीसरी बार लगातार प्रथम स्थान प्राप्त किया। मैरीलैंड ऐसा सातवां राज्य है जिसने संयुक्त राज्य अमेरिका के संविधान को अंगीकार किया और इसके तीन उपनाम पड़े, ओल्ड लाइन स्टेट, फ्री स्टेट और चेसापिक बे स्टेट नाम का भी कभी-कभी इस्तेमाल होता है।
 मैरीलैंड जीवन विज्ञान अनुसंधान और विकास का एक गठजोड़ है, जहां 350 से अधिक जैव प्रौद्योगिकी कंपनियां स्थित हैं, जो संयुक्त राज्य में इस क्षेत्र में मैरीलैंड को तीसरा सबसे बड़ा गठजोड़ बनाती हैं।
 जॉन्स हॉपकिंस यूनिवर्सिटी, जॉन्स हॉपकिन्स एप्लाइड फिजिक्स लेबोरेटरी, यूनिवर्सिटी सिस्टम ऑफ मैरीलैंड एक से अधिक परिसर, नेशनल इंस्टीट्यूट ऑफ हेल्थ (NIH), नेशनल इंस्टीट्यूट ऑफ स्टैंडर्ड्स एंड टेक्नोलॉजी(NIST), नेशनल इंस्टीट्यूट ऑफ मेंटल हेल्थ (NIMH), फेडरल फूड एंड ड्रग एडमिनिस्ट्रेशन (FDA), हावर्ड हजेज मेडिकल इंस्टीट्यूट, केलेरा जीनोमिक्स कंपनी, ह्यूमन जीनोम साइंसेस (HGS), जे. क्रेग वेंटर इंस्टीट्यूट और हाल ही में अस्ट्रज़ेनेका द्वारा खरीदी गयी मेडीम्यून सहित अनुसंधान और विकास में दिलचस्पी रखने वाले संस्थान और एजेंसियां मैरीलैंड में स्थित हैं।</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="C147" t="n">
         <v>267</v>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>१७२५ तक क्रिकेट का इतिहास</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>क्रिकेट के ज्ञात मूल से लेकर इंग्लैंड का प्रमुख खेल बन जाने और अन्य देशों में इसकी शुरुआत किये जाने तक इस खेल के विकास के पदचिह्न 1725 तक क्रिकेट का इतिहास में दर्ज हैं।
+क्रिकेट पर पुराना निश्चित सन्दर्भ 1598 में मिलता है और इससे साफ हो जाता है कि क्रिकेट 1550 की सदी में खेला जाता था, लेकिन इसकी असली उत्पत्ति एक रहस्य ही है। एक निश्चित हद तक इतना कहा जा सकता है कि इसकी शुरूआत 1550 से पहले हुई थी, दक्षिण-पूर्व इंग्लैंड के केंट, ससेक्स, सरे में से कहीं से हुई, ज्यादा संभावना उस क्षेत्र से जो वेल्ड के रूप में जाना जाता है। दूसरे खेलों जैसे कि स्टूलबॉल और राउंडर्स की तरह, बल्लेबाज़, गेंदबाज़ और क्षेत्ररक्षकों के साथ क्रिकेट अपेक्षाकृत छोटे घास पर खेला जा सकता है, विशेष रूप से 1760 के दशक तक गेंद मैदान में दिया जाता था। इसलिए जंगलों की सफाई और जहां भेड़ चरते हैं, खेल के लिए उपयुक्त जगह हो सकती है।
+क्रिकेट के बारे में छिटपुट उपलब्ध जानकारी से पता चलता है कि मूल रूप से यह बच्चों का खेल था। इसके बाद 17वीं शताब्दी में इसे कर्मचारियों द्वारा अपना लिया गया। चार्ल्स प्रथम के शासनकाल के दौरान इसके संरक्षक और कभी-कभी खिलाड़ी के रूप में कुलीन वर्ग की दिलचस्पी इसमें बढ़ने लगी। उनके लिए इसमें सबसे बड़ा आकर्षण यह था कि इस खेल में जुआ खेलने की गुंजाइश थी और इसी कारण प्रत्यावर्तन के बाद के वर्षों में यह फैलता गया। हनोवेरियन शासन के समय से, क्रिकेट में निवेश ने पेशेवर खिलाड़ी और पहला प्रमुख क्लब तैयार किया, इस तरह लंदन और दक्षिण इंग्लैंड में यह खेल लोकप्रिय सामाजिक गतिविधि के रूप में स्थापित हुआ। इस बीच अंग्रेज़ उपनिवेशवादियों ने उत्तर अमेरिका और वेस्ट इंडीज में क्रिकेट की शुरुआत की; और ईस्ट इंडिया कंपनी के नाविक और व्यापारी इसे भारतीय उपमहाद्वीप ले गये।</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>305</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>ब्लेज़र</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>ब्लेज़र एक प्रकार का जैकेट होता है, जिसे एक अच्छे दिखने वाले अनौपचारिक पोशाक के रूप में पहना जाता है। ब्लेज़र शब्द कभी-कभी, दो अलग प्रकार के वस्त्रों, बोटिंग जैकेट और स्पोर्ट्स जैकेट के समानार्थक के रूप में प्रयोग किया जाता है। ब्लेज़र, अनौपचारिक तौर पर एक सूट कोट से मिलता जुलता होता है - जो कभी-कभी पट्टेरहित पैच पॉकेट और धातु के बटन से युक्त होता है। ब्लेज़र बाहर पहनने वाला स्पोर्ट्स जैकेट होता है इसलिए इसका कपड़ा आमतौर पर टिकाऊ (14 ओजेड) होता है। शैलीगत ढंग से, ब्लेज़र प्रायः यूनिफार्म के रूप में प्रयोग की जाने वाली पोशाक होते हैं, अर्थात, एयरलाइन, स्कूल और नौकायान और नौका विहार के समय पहने जाने वाली पोशाक.
 ब्लेज़र शब्द, दो भिन्न प्रकार के जैकेट की ओर संकेत करता है; पहला, वास्तविक ब्लेज़र, यह इकहरे अग्रभाग वाला बोट क्लब जैकेट होता था, जो चटक रंग का, प्रायः धारीदार कपडे का और विपरीत रंग की पाइपिंग लगा होता था, यह प्रारंभ में अनिवार्य रूप से स्पोर्ट्स जैकेट की तरह प्रयोग किया जाता था, जिसे नौकायान के दौरान पहना जाता था। दूसरा ब्लेज़र एक चुस्त, आदर्श कट वाला, दोहरे अग्रभाग वाला नेवी ब्ल्यू जैकेट होता है, इसे वास्तव में रीफर जैकेट के नाम से जाना जाता है, अब इस नाम का प्रयोग बहुत कम ही होता है। जब से पुरुषों ने वास्तविक बोट क्लब ब्लेज़र पहनना बंद कर दिया, तब से यह नाम सिर्फ दोहरे अग्रभाग वाले, धातु की बटन युक्त नाविकीय संस्करण के लिए ही प्रयोग किया जाने लगा; सेना का वास्तविक ब्लेज़र काले रंग का होता था।</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C149" t="n">
         <v>255</v>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>पोर्टलैंड, ऑरेगॉन</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>पोर्टलैंड, पश्चिमोत्तर संयुक्त राज्य अमेरिका में ऑरेगॉन राज्य की विल्मेट और कोलंबिया नदियों के संगम के पास स्थित एक शहर है।
 जुलाई 2009 तक, इसकी अनुमानित आबादी 582,130 थी और यह संयुक्त राज्य अमेरिका का सबसे अधिक आबादी वाला 29वां राज्य है। 
@@ -3224,84 +3660,84 @@
 यह मौसम गुलाब की खेती के लिए आदर्श है और एक सदी से भी अधिक समय से पोर्टलैंड को "गुलाबों का शहर" के रूप में जाना जाता है, यहां कई गुलाब के उद्यान हैं जिनमें सबसे प्रमुख अंतरराष्ट्रीय गुलाब टेस्ट गार्डन है।</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="C150" t="n">
         <v>278</v>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>सैन होज़े, कैलिफोर्निया</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>सान ख़ोसे (स्पेनी: San Jose) कैलिफोर्निया का तीसरा सबसे बड़ा शहर, संयुक्त राज्य अमेरिका का दसवाँ सबसे बड़ा शहर और सांता क्लारा काउंटी का काउंटी सीट है। यह देश के 31वें सबसे बड़े महानगरीय क्षेत्र का एक ऐंकर है जो सैन फ्रांसिस्को खाड़ी के दक्षिणी छोर पर स्थित है। 
 सान ख़ोसे कभी एक छोटा सा कृषि शहर था जहां 1950 के दशक से अब तक बड़ी तेज़ी से विकास हुआ है। जनसंख्या, भूमि क्षेत्र, एवं औद्योगिक विकास की दृष्टि से सैन ख़ोसे खाड़ी क्षेत्र का सबसे बड़ा शहर है। 1 जनवरी 2010 तक इसकी अनुमानित जनसंख्या 1,023,083 थी। 
 सान ख़ोसे की नींव 29 नवम्बर 1777 को नुएवा कैलिफोर्निया के स्पेनिश कॉलोनी के पहले कस्बे, एल पुएब्लो डी सैन होज़े डी ग्वाडालूप (El पुएब्लो de San José de Guadalupe), के रूप में रखी गई, जो बाद में अल्टा कैलिफोर्निया बना. इस शहर ने सैन फ्रांसिस्को और मोंटेरे में स्पेनिश सैन्य प्रतिष्ठानों के समर्थन में एक कृषि समुदाय के रूप काम किया। जब कैलिफोर्निया को 1850 में एक राज्य का दर्ज़ा प्राप्त हुआ था, उस समय सैन होज़े ने इसकी पहली राजधानी के रूप अपनी सेवा प्रदान की. एक कृषि केंद्र के रूप में 150 वर्ष से अधिक समय तक अपनी सेवा प्रदान करने के बाद सैन होज़े ने द्वितीय विश्व युद्ध से लौटने वाले सैनिकों और सेवानिवृत सैनिकों के आवासन की अत्यधिक मांग के साथ-साथ 1950 और 1960 के दशक में और अधिक भूमि क्षेत्र को मिलाकर आक्रामक विस्तार का अनुभव किया। 1990 के दशक तक, उत्तरोत्तर विकासशील स्थानीय प्रौद्योगिकी उद्योग के अंतर्गत आने वाले सैन होज़े के क्षेत्र को कैपिटल ऑफ़ सिलिकन वैली (सिलिकन घाटी की राजधानी) उपनाम दिया गया.</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="C151" t="n">
         <v>270</v>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>जॉर्ज हर्बर्ट मीड</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>जॉर्ज हर्बर्ट मीड (George Herbert Mead ; 1863 -- 1931) अमेरिकी समाजशास्त्री थे जो अमेरिकी व्यावहारिकता (प्रैग्मैटिज्म) के संस्थापक, प्रतीकात्मक अन्तःक्रियावाद (symbolic interactionism) के अग्रणी और सामाजिक मनोविज्ञान के संस्थापकों में से एक के रूप में जाने जाते थे।</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="C152" t="n">
         <v>39</v>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>2026 एशियाई खेल</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>2026 एशियाई खेल (जापानी: 2026年アジア競技大会), जिसे 20वें एशियाई खेल (जापानी: 第20回アジア競技大会) और आइची-नागोया 2026 (जापानी: 愛知/名古屋2026)  के नाम से भी जाना जाता है, एक बहु-खेल प्रतियोगिता प्रतियोगिता है, जो कि जापान के आइची प्रीफ़ेक्चर के राजधानी नागोया नगर में 18 सितम्बर से 3 अक्टूबर तक आयोजित होंगे। टोक्यो 1958 के बाद और हिरोशिमा 1994 के बाद नागोया एशियाई खेलों की मेजबानी करने वाला तीसरा जापानी शहर होगा। कोविड-19 महामारी के कारण चीन में हांग्जो में 2022 एशियाई खेल को 2023 तक स्थगित कर दिए जाने के बाद, यह आयोजन अपने पारंपरिक 4-वर्षीय चक्र पर लौटने के लिए तैयार है।</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="C153" t="n">
         <v>99</v>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>ओलंपिक में नेपाल</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>नेपाल ने बारह ग्रीष्मकालीन खेलों में और चार शीतकालीन ओलंपिक खेलों में हिस्सा लिया है।
 नेपाली राष्ट्रीय, तेजबीर बुरा ने 1922 के एवरेस्ट अभियान में उनकी भूमिका के लिए 1924 शीतकालीन ओलंपिक में मिश्रित अलपितावाद में स्वर्ण पदक जीता। हालांकि, इस अभियान में अन्य देशों के नागरिकों ने भी भाग लिया, क्योंकि यह पुरस्कार मिश्रित टीम में चला गया। इसके अलावा, अंतर्राष्ट्रीय ओलंपिक समिति की वेबसाइट इस पदक को अधिकारी के रूप में पहचान नहीं करती है।
@@ -3309,84 +3745,84 @@
 नेपाल ओलंपिक समिति का गठन 1962 में हुआ था और 1963 में मान्यता प्राप्त थी।</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="C154" t="n">
         <v>116</v>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>वैयक्‍तिक सहायक</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>वैयक्तिक सहायक (परसनल असिस्टैण्ट), बोलचाल शब्द में निजी सचिव (परसनल सेक्रेटरी) होती है। निजी सचिव एक कार्यपालक सहायक होता है जिसे कार्यालयी कौशलों में प्रवीणता प्राप्त होती है, उसमें बिना प्रत्यक्ष पर्यवेक्षण के उत्तरदयित्वों को वहन करने की क्षमता होती है तथा उसे सौंपे गए दयित्वों के भीतर पहल करने तथा निर्णय लेने की क्षमता होती है।</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="C155" t="n">
         <v>57</v>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>क्षेत्री</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>क्षेत्री या छेत्री नेपाल के पहाड़ी क्षेत्रों में रहने वाले योद्धा वर्ण के हैं, इन्हें पहाड़ी भी कहाँ जाता है। ये एक हिन्द-आर्य भाषिक  जाति हैं। क्षेत्री या छेत्री या क्षथरीय सब क्षत्रिय के अपभ्रंश हैं और ये हिन्दू वर्ण व्यवस्था के अन्तर्गत क्षत्रिय वर्ण में आते हैं। ये लोग मूल रूप से सैनिक, राजा और प्रशासनिक क्षेत्र में काफी आगे हैं। ये [[बाहुन] और खस दलित के जैसे खस समुदाय के एक विभाजन हैं।
 क्षेत्री नेपाल के कुल जनसंख्या में सर्वाधिक १६.६% हैं। इस जाति को नेपाल में सत्तारुढ माना जाता है। इन लोगों की उत्पत्ति के बारे में विभिन्न इतिहासकार और खोजकर्ता जेसै कि डोरबहादुर विष्ट और सूर्यमणि अधिकारी, आदि के अनुसार भारत के राज्स्थान  प्रदेश में हुआ था। इस जाति के पूर्वज पूर्वी इरानी भाषिक खस जाति हैं जो बाह्लिक-गान्धार क्षेत्रमें पाए जाते थे।  आज ये नेपाल के सभी क्षेत्रों और भारत के कुछ क्षेत्रों में भी पाए जाते हैं। ये लोग पूर्णत: हिन्दु होते हैं और स्थानिय मष्टो देवता की पुजा करते हैं। इस पुजा को मष्ट पुजा या देवाली कहते हैं। इन का मातृभाषा नेपाली भाषा है और ये इंडो-यूरोपियन भाषा परिवार के सदस्य हैं। 
 नेपाल के खस राजवंश, खप्तड राजवंश, सिंजा राजवंश, बस्नेत, कुँवर और पाँडे वंश, दरबारिया समुह और नेपाल के पिछले समय के क्रुर शासक राणा वंश भी क्षेत्रीजाति में आते हैं।  क्षेत्री अधिकतर नेपाल सरकार और नेपाली सेना में कार्यरत पाए जाते हैं। इन के लिए भारतिय सेना में एक सैनिक दस्ता 9 वीं गोरखा रेजिमेन्त आरक्षित है।</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="C156" t="n">
         <v>247</v>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>मुनि की रेती</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>मुनि की रेती (Muni Ki Reti) भारत के उत्तराखण्ड राज्य के टिहरी गढ़वाल ज़िले में स्थित एक नगर है। यह ऋषिकेश के समीप और गंगा नदी के किनारे बसा हुआ है। मुनि की रेती अपने आश्रमों के लिए जाना जाता है।</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="C157" t="n">
         <v>41</v>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>ओलंपिक में थाईलैंड</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>1952 में थाईलैंड ने पहली बार ओलंपिक खेलों में भाग लिया, और 1980 के ग्रीष्मकालीन ओलंपिक के यूएस-नेतृत्व वाले बहिष्कार में भाग लेने के अलावा, तब से हर ग्रीष्मकालीन ओलंपिक खेलों में प्रतिस्पर्धा करने के लिए एथलीटों को भेजा है। थाईलैंड 2002 के बाद से शीतकालीन ओलंपिक खेलों में भी भाग लिया है।
 थाईलैंड ने मॉन्ट्रियल में 1976 के खेलों में अपना पहला पदक जीता था, जब मुक्केबाज पीएओ पौंटैट ने पुरुषों की लाइट फ्लावेवेट श्रेणी में कांस्य पदक जीता था। थाईलैंड का पहला स्वर्ण पदक अटलांटा में 1996 के खेलों में मुक्केबाजी में भी आ जाएगा, जब सोमलक कामसिंग ने पुरुषों की फेदरवेट श्रेणी जीती थी। तब से, थाई एथलीटों ने लंदन में 2012 के खेलों के अपवाद के बाद हर ग्रीष्मकालीन ओलंपिक में स्वर्ण पदक जीते हैं, पुरुषों के मुक्केबाजी में आने वाले सभी स्वर्ण पदक और महिला भारोत्तोलन के साथ।
@@ -3394,22 +3830,42 @@
 थाईलैंड के लिए राष्ट्रीय ओलंपिक समिति 1948 में बनाई गई थी और 1950 में मान्यता प्राप्त थी।</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="C158" t="n">
         <v>193</v>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>जम्मू-कश्मीर में भारतीय सेना का ऑपरेशन</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>जम्मू-कश्मीर में भारतीय सेना का ऑपरेशन ऑपरेशन जैसे सुरक्षा कार्यों को शामिल करें रक्षक जो 1990 में शुरू हुआ, ऑपरेशन सर्प विनाश 2003 और ऑपरेशन मेंरंदोरी बहक में 2020 में ख़तम हुआ .अन्य अभियानों में मानवीय मिशन शामिल हैं जैसे ऑपरेशन  मेघ राहत  और ऑपरेशन गुडविल और ऑपरेशन कैलम डाउन जैसे सामाजिक उद्देश्य के साथ संचालन किया गया । भारतीय सेना भारतीय सशस्त्र बलों और जम्मू-कश्मीर में सुरक्षा बलों जैसे मिशन सायाता  सहायता ’’ या संयुक्त अभियानों के दौरान अन्य हथियारों के साथ मिलकर काम करती है।</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>87</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>अखिल भारतीय फुटबॉल महासंघ</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>अखिल भारतीय फुटबॉल महासंघ (ऑल इंडिया फुटबॉल फेडरेशन), एआईएफएफ के रूप में भी जाना जाता है, भारत में एसोसिएशन फुटबॉल के शासी निकाय है।
 १९४८ में स्थापित, संघ एशियाई फुटबॉल परिसंघ के संस्थापक सदस्यों में से एक था, जो एशिया में फुटबॉल का पर्यवेक्षक था।
@@ -3419,171 +3875,177 @@
 एआईएफएफ दक्षिण एशियाई फुटबॉल महासंघ का भी हिस्सा है, जो संगठन दक्षिण एशिया में फुटबॉल चलाता है। महासंघ वर्तमान में द्वारका, दिल्ली में स्थित है।</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="C160" t="n">
         <v>126</v>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>जम्मू-कश्मीर में भारतीय सेना का ऑपरेशन</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>जम्मू-कश्मीर में भारतीय सेना का ऑपरेशन ऑपरेशन जैसे सुरक्षा कार्यों को शामिल करें रक्षक जो 1990 में शुरू हुआ, ऑपरेशन सर्प विनाश 2003 और ऑपरेशन मेंरंदोरी बहक में 2020 में ख़तम हुआ .अन्य अभियानों में मानवीय मिशन शामिल हैं जैसे ऑपरेशन  मेघ राहत  और ऑपरेशन गुडविल और ऑपरेशन कैलम डाउन जैसे सामाजिक उद्देश्य के साथ संचालन किया गया । भारतीय सेना भारतीय सशस्त्र बलों और जम्मू-कश्मीर में सुरक्षा बलों जैसे मिशन सायाता  सहायता ’’ या संयुक्त अभियानों के दौरान अन्य हथियारों के साथ मिलकर काम करती है।</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>87</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>भारतीय महिला हॉकी टीम</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>भारतीय महिला राष्ट्रीय हॉकी टीम महिला हॉकी के खेल में भारत का प्रतिनिधित्व करने वाला दल है।</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="C161" t="n">
         <v>17</v>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>2018 शीतकालीन पैरालम्पिक</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>2018 शीतकालीन पैरालम्पिक (हंगुल: 평창 동계 패럴림픽; हांजा: 平昌 冬季 패럴림픽; आरआर लिप्यंतरण: Pyeongchang Donggye Paereollimpik), जो कि आधिकारिक रूप से बारहवाँ पैरालम्पिक खेल के नाम से जाना जाता है, 9 से 18 मई के मध्य दक्षिण कोरिया के प्योंगचांग नगर में आयोजित होंगे। यह एक अन्तर्राष्ट्रीय शीतकालीन खेलों का आयोजन है जो कि अन्तरराष्ट्रीय पैरालम्पिक समिति द्वारा आयोजित किया जाना है। अन्तरराष्ट्रीय ओलम्पिक समिति ने इस आयोजन के लिये 15 अक्टूबर 2009 को तीन दावेदारियां प्राप्त की थी। प्योंगचांग के साथ फ्रेंच आल्प्स में स्थित एन्नेसी, फ्रांस तथा म्यूनिख, जर्मनी (1972 ग्रीष्मकालीन ओलम्पिक का मेज़बान) ने भी इस आयोजन के लिये मेज़बानी का अपना दावा ठोका था। 22 जून 2010 को यह सभी दावेदार नगर प्रतिभागी नगर के तौर पर चुन लिये गये। जीते हुए प्रतिभागी नगर की घोषणा 6 जून 2011 को 123वें आईओसी सत्र, डरबन, दक्षिण अफ्रीका में हुई। 
 27 अक्टूबर 2013 को 2018 शीतकालीन पैरालम्पिक खेलों का नया प्रतीक चिह्न जारी हुआ जो कि 16 मार्च 2014 को सोची नगर द्वारा मेज़बान नगर को सौंपा गया।
 अभिनेता ली दोंग वुक को इन खेलों के लिये सम्मानित दूत चुना गया।</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="C162" t="n">
         <v>183</v>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>संयुक्त कैंपस और कॉलेज क्रिकेट टीम</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>संयुक्त कैंपस और कॉलेज (सीसीसी) एक प्रथम श्रेणी की क्रिकेट टीम है जो कैरिबियन बीयर कप और केएफसी कप की वेस्टइंडीज घरेलू प्रतियोगिताओं में निभाती है। वेस्टइंडीज क्रिकेट टीम के पिछले विश्वविद्यालय की प्रभावी ढंग से एक निरंतरता, टीम 2007/08 सीज़न के लिए बनाई गई थी और अक्टूबर 2007 में केएफसी कप वनडे प्रतियोगिता में अपना पहला मैच खेला था।</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="C163" t="n">
         <v>60</v>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>वेशभूषा संहिता</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>मनुष्य की भौतिक उपस्थिति के पहलू के रूप में वेशभूषा संहिता वस्त्र धारण करने का लिखित नियम है (जो विभिन्न समाज में अलग हो सकता है हालांकि पश्चिमी शैली को सामान्यतः मान्य माना जाता है).
+मानव की भौतिक उपस्थिति के अन्य पहलुओं की तरह वस्त्रों का सामाजिक महत्व है।
+वेशभूषा संहिता में निहित नियम या संकेत होते हैं जो व्यक्ति के कपड़ों और उन्हें पहनने के तरीके से दिए जा रहे संदेश को इंगित करते हैं।
+यह संदेश व्यक्ति के लिंग, आय, व्यवसाय और सामाजिक वर्ग, राजनैतिक और जातीय संबद्धता, आराम के प्रति उसके रवैये और दृष्टिकोण, फ़ैशन, परंपराओं, लिंग अभिव्यक्ति, वैवाहिक स्थिति, यौन उपलब्धता और यौन अभिविन्यास इत्यादि को संप्रेषित कर सकता है। कपड़े निजी या सांस्कृतिक पहचान का बयान या दावा, सामाजिक समूह के मानकों की स्थापना, अनुरक्षण या अवहेलना और आराम और कार्यक्षमता की सराहना सहित अन्य सामाजिक संदेश भी संसूचित कर सकते हैं।
+उदाहरण के लिए, महंगे कपड़े पहनने से धन के होने का, धन की छवि का या गुणवत्ता वाले कपड़ों की सुलभता का पता चलता है।
+सभी कारक विपरीत तौर पर सस्ते कपड़े पहनने और इसी तरह की वस्तुओं पर लागू होते हैं। प्रेक्षक परिणामी, महंगे कपड़े देखता है लेकिन उस सीमा का गलत अनुमान लगा सकता है जिस तक प्रेक्षण अधीन व्यक्ति पर ये कारक लागू होते हैं। (Cf. विशिष्ट खपत). कपड़े सामाजिक संदेश दे सकते हैं, भले ही कोई इरादा न हो. [उद्धरण चाहिए]
+अगर प्राप्तकर्ता के कोड की व्याख्या प्रेषक के कोड से अलग हो तो गलत अर्थ निकलता है।
+हर संस्कृति में एक सामाजिक संदेश व्यक्त करने के लिए मौजूदा फैशन सचेत निर्माण, संयोजन और कपड़े पहनने के ढंग को नियंत्रित करता है।
+फैशन के परिवर्तन की दर अलग होती है इसलिए महीने या दिनों में कपड़े पहनने और उसके साज-सज्जा के सामान की शैली संशोधित होती है, विशेष रूप से छोटे सामाजिक समूहों में या संचार मीडिया से प्रभावित आधुनिक समाज में. अधिक समय, धन और प्रभाव के लिए प्रयास की आवश्यकता वाले और अधिक व्यापक परिवर्तन कई पीढ़ियों में हो सकते हैं। जब फैशन बदलता है तो कपड़ों में परिवर्तन से व्यक्त संदेश भी बदल जाता है।</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>349</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>जापान राष्ट्रीय फुटबॉल टीम</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>जापान राष्ट्रीय फुटबॉल टीम (サ ッ カ ー 日本 代表 सकाका निप्पॉन दैहो) अंतरराष्ट्रीय फुटबॉल में जापान का प्रतिनिधित्व करती है और जापान फुटबॉल संघ (जेएफए) के शासी निकाय द्वारा संचालित की जाती है। वर्तमान मुख्य कोच पूर्व फुटबॉल खिलाड़ी अकिरा निशिनो है।
 जापान एशिया की सबसे सफल टीमों में से एक है, जिसने पिछले छह बार लगातार फीफा विश्व कप के लिए क्वालीफाई किया और 2002, 2010 और 2018 में दूसरे राउंड में अपनी जगह बनाई है, जापान ने 1992, 2000, 2004 और 2011 में एएफसी एशियाई कप में रिकॉर्ड चार बार जीत हासिल की थी। टीम ने 2001 फीफा कन्फेडरेशंस कप में भी दूसरा स्थान हासिल किया था। उनके प्रमुख महाद्वीपीय प्रतिद्वंद्वियों दक्षिण कोरिया और हाल ही में, ऑस्ट्रेलिया हैं।</t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="C165" t="n">
         <v>122</v>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>संबद्ध विपणन</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>संबद्ध विपणन (affiliate marketing) का इतिहास 1990 की दशक से प्रारंभ होता है जब इंटरनेट का उपयोग तेजी से बढ़ने लगा तो पहले एफिलिएट प्रोग्राम जो है। जिसे अमेजन ने 1996 में शुरू किया था। इस प्रोग्राम के तहत एफिलिएट को अमेजन की वेबसाइट पर लाए गए हर ग्राहक की खरीदारी पर कमीशन मिलता था। यह मॉडल जल्दी लोकप्रिय हो गया और और अन्य कम्पनी ने इसे अपना लिया। इसके उदाहरण में पुरस्कार स्थान या क्षेत्र शामिल है, जहाँ किसी प्रस्ताव की समाप्ति पर या क्षेत्र में अन्य व्यक्तियों को भेजने हेतु प्रयोक्ताओं को नकद या उपहार द्वारा पुरस्कृत किया जाता है।
+इस उद्योग में चार प्रमुख खिलाड़ी होते हैं: व्यापारी (जिसे 'रीटेलर' या "ब्रांड" के नाम से भी जाना जाता है), नेटवर्क, प्रकाशक (जिसे 'संबद्ध' के नाम से भी जाना जाता है), एवं ग्राहक. संबद्ध प्रबंधन एजेंसियां, सुपर संबद्ध एवं विशेष तृतीय पक्ष वेंडर सहित माध्यमिक (द्वितीयक) खिलाड़ियों को प्रमाणित करने के लिए बाज़ार ने जटिलता में विकास किया है। 
+संबद्ध विपणन प्रायः कुछ हद तक अन्य इंटरनेट विपणन तरीकों को ढ़ांकता या आच्छादित करता है क्योंकि संबद्ध प्रायः नियमित विपणन तरीकों का प्रयोग करते हैं। इन तरीकों में आर्गेनिक सर्च इंजन ऑप्टीमाइजेशन, पेड सर्च इंजन मार्केटिंग, इ-मेल मार्केटिंग और कुछ में डिस्प्ले विज्ञापन शामिल हैं। दूसरी ओर, संबद्ध कई बार कम रूढ़िगत तकनीकों का प्रयोग करते हैं जैसे एक सहभागी द्वारा दी गयी सेवाओं या उत्पादों की समीक्षा का प्रकाशन.
+संबद्ध विपणन - एक वेबसाइट का प्रयोग करते हुए अन्य की ओर यातायात मोड़ना - ऑनलाइन विपणन का एक रूप है, जिस पर विज्ञापन दाताओं द्वारा अक्सर ध्यान नहीं दिया जाता. जबकि सर्च इंजन, ई-मेल एवं वेबसाइट सिंडीकेशन ऑन लाइन रीटेलरों का ध्यान अधिक आकृष्ट करते हैं, संबद्ध विपणन तुलनात्मक रूप से कम ध्यान आकृष्ट करता है। लेकिन फिर भी, ई-रीटेलरों की विपणन योजनाओं में संबद्ध की महत्त्वपूर्ण भूमिका होती है।</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>303</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>ग्लैक्सो स्मिथक्लाइन</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>जीएसके (GSK) के नाम से प्रसिद्ध ग्लैक्सोस्मिथक्लाइन पीएलसी (GlaxoSmithKline plc) (एलएसई: GSKNYSE: GSK) एक वैश्विक स्तर की औषध, जीव-विज्ञान (बायोलॉजिक्स), टीका एवं उपभोक्ता स्वास्थ्य-देखभाल कंपनी है जिसका मुख्यालय लंदन, यूनाइटेड किंगडम में स्थित है। आमदनी के आधार पर जॉन्सन एण्ड जॉन्सन एवं फाइज़र के बाद यह विश्व की तीसरी सबसे बड़ी फार्मास्यूटिकल कंपनी है। इसके उत्पादों की श्रृंखला में बड़ी बीमारियों जैसे कि दमा, कैंसर, वायरस नियंत्रण, संक्रमण, मानसिक स्वास्थ्य, मधुमेह एवं पाचन संबंधी उत्पाद शामिल हैं। इसका एक बहुत बड़ा उपभोक्ता स्वास्थ्य प्रभाग है जो कि मौखिक स्वास्थ्य उत्पादों, पौष्टिक पेय पदार्थों एवं आसानी से सुलभ चिकित्सा उत्पादों का उत्पादन एवं विपणन करता है, इनमें सेंसोडाइन, हॉर्लिक्स एवं गेविस्कॉन जैसे उत्पाद शामिल हैं।
 यह प्राथमिक रूप से लंदन स्टॉक एक्सचेंज में सूचीबद्ध है एवं यह FTSE 100 सूचकांक का एक घटक है। इसके अतिरिक्त यह न्यूयॉर्क स्टॉक एक्सचेंज में भी सूचीबद्ध है।</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="C167" t="n">
         <v>143</v>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>शहीद भगत सिंह कॉलेज</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>शहीद भगत सिंह महाविद्यालय, दिल्ली विश्वविद्यालय से सम्बद्ध एक महाविद्यालय है। यह दक्षिणी दिल्ली के शेख सराय चरण-2 में स्थित है और इसकी स्थापना १९६७ में हुई थी। वाणिज्य के क्षेत्र में अध्ययन के लिए यह भारत के सर्वश्रेष्ठ महाविद्यालयों में से एक है।  इसे 'ग्रेड-ए' (3.26 NAAC) प्रदान किया गया है। कॉलेज का नाम भारत के महान स्वतंत्रता सेनानी और शहीद भगत सिंह के नाम पर है। 
-अपनी स्थापना (1967) के सात साल के भीतर ही इसने पोस्ट ग्रेजुएट कॉलेज का दर्जा प्राप्त कर लिया था। यहां की शैक्षणिक गुणवत्ता इसे साउथ कैंपस के कॉलेजों की सूची में प्रथम स्थान पर पहुंचाती है। कॉलेज को राष्ट्रीय मूल्यांकन एवं प्रत्यायन परिषद (नैक) ने ए ग्रेड दिया है। 
-कॉलेज में कंप्यूटर लैब व खेल का मैदान भी है। इसके पुस्तकालय में 65 हजार से भी अधिक पुस्तकें हैं। यहां अध्यापकों के लिए ई-रिसर्च सेंटर है। 
-कॉलेज में विभिन्न विभागों की अपनी-अपनी सोसायटी हैं, जोकि कार्यक्रमों का आयोजन करती रहती हैं। इकोनॉमिक्स सोसायटी सेमिनार का, हिस्ट्री सोसायटी जनवरी में होने वाले कार्यक्रम युगान्तर का आयोजन करती है। युगान्तर कार्यक्रम में विद्यार्थी विभिन्न गतिविधियों द्वारा इतिहास विषय पर अपना नजरिया रखते हैं। मैथमैटिक्स सोसायटी 'गणितम्' कार्यक्रम का आयोजन करती है, रंगोली, मास्क मेकिग के साथ ही अन्य गतिविधियां कराई जाती हैं। 
-कॉलेज का हिन्दी विभाग भी पूरी तरह से सक्रिय है। 
-कॉलेज में एनसीसी व एनएसएस भी है। कोर्स-बीकॉम ऑनर्स, बीकॉम, बीए ऑनर्स (अर्थशास्त्र, इतिहास, राजनीति विज्ञान, हिन्दी, अंग्रेजी, भूगोल), बीएससी ऑनर्स गणित, बीए प्रोग्राम, व एमकॉम। हॉस्टल की सुविधा नहीं है। विद्यार्थी कॉलेज के आसपास पेइंग गेस्ट (पीजी) के रूप में रह सकते हैं।</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>262</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>बुंदेलखंड का काव्य</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>महाराजा छत्रसाल बुंदेला के समय में जहां बुन्देलखण्ड को "इत जमुना उत नर्मदा, इत चम्बल उत टोंस" से जाना जाता है, वहीं भौगोलिक दृष्टि जनजीवन, संस्कृति और भाषा के संदर्भ से बुन्देला क्षत्रियों के वैभवकाल से जोड़ा जाता है। बुन्देली इस भू-भाग की सबसे अधिक व्यवहार में आने वाली बोली है। विगत ७०० वर्षों से इसमें पर्याप्त साहित्य सृजन हुआ। बुन्देली काव्य के विभिन्न साधनाओं, जातियों और आदि का परिचय भी मिलता है। काव्रू का आधार इसीलिए बुन्देलखण्ड की नदियां, पर्वत और उसके वीरों को बनया गया है। विभिन्न प्रवृत्तियों और आन्दोलनों के आधार पर बुन्देलखण्ड काव्य के कुल सात युग माने जा सकते हैं, जिन्हें अध्ययन के सुविधा से निम्न नामों से अभिहित किया गया है।
 १. भाषा काव्य आन्दोलन - नवीं शती विक्रमी से तेरहवीं शती तक
@@ -3595,469 +4057,517 @@
 ७. अत्याधुनिक काल - सम्वत् २००० से अब तक।</t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="C168" t="n">
         <v>198</v>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>शहीद भगत सिंह कॉलेज</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>शहीद भगत सिंह महाविद्यालय, दिल्ली विश्वविद्यालय से सम्बद्ध एक महाविद्यालय है। यह दक्षिणी दिल्ली के शेख सराय चरण-2 में स्थित है और इसकी स्थापना १९६७ में हुई थी। वाणिज्य के क्षेत्र में अध्ययन के लिए यह भारत के सर्वश्रेष्ठ महाविद्यालयों में से एक है।  इसे 'ग्रेड-ए' (3.26 NAAC) प्रदान किया गया है। कॉलेज का नाम भारत के महान स्वतंत्रता सेनानी और शहीद भगत सिंह के नाम पर है। 
+अपनी स्थापना (1967) के सात साल के भीतर ही इसने पोस्ट ग्रेजुएट कॉलेज का दर्जा प्राप्त कर लिया था। यहां की शैक्षणिक गुणवत्ता इसे साउथ कैंपस के कॉलेजों की सूची में प्रथम स्थान पर पहुंचाती है। कॉलेज को राष्ट्रीय मूल्यांकन एवं प्रत्यायन परिषद (नैक) ने ए ग्रेड दिया है। 
+कॉलेज में कंप्यूटर लैब व खेल का मैदान भी है। इसके पुस्तकालय में 65 हजार से भी अधिक पुस्तकें हैं। यहां अध्यापकों के लिए ई-रिसर्च सेंटर है। 
+कॉलेज में विभिन्न विभागों की अपनी-अपनी सोसायटी हैं, जोकि कार्यक्रमों का आयोजन करती रहती हैं। इकोनॉमिक्स सोसायटी सेमिनार का, हिस्ट्री सोसायटी जनवरी में होने वाले कार्यक्रम युगान्तर का आयोजन करती है। युगान्तर कार्यक्रम में विद्यार्थी विभिन्न गतिविधियों द्वारा इतिहास विषय पर अपना नजरिया रखते हैं। मैथमैटिक्स सोसायटी 'गणितम्' कार्यक्रम का आयोजन करती है, रंगोली, मास्क मेकिग के साथ ही अन्य गतिविधियां कराई जाती हैं। 
+कॉलेज का हिन्दी विभाग भी पूरी तरह से सक्रिय है। 
+कॉलेज में एनसीसी व एनएसएस भी है। कोर्स-बीकॉम ऑनर्स, बीकॉम, बीए ऑनर्स (अर्थशास्त्र, इतिहास, राजनीति विज्ञान, हिन्दी, अंग्रेजी, भूगोल), बीएससी ऑनर्स गणित, बीए प्रोग्राम, व एमकॉम। हॉस्टल की सुविधा नहीं है। विद्यार्थी कॉलेज के आसपास पेइंग गेस्ट (पीजी) के रूप में रह सकते हैं।</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>262</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>मोहम्मद बिन जायद अल नाहयान</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>मोहम्मद बिन ज़ायेद बिन सुल्तान अल-नाह्यान (Mohamed bin Zayed bin Sultan Al-Nahyan) (अरबी: محمد بن زايد بن شيطان آل نهيان; जन्म 11 मार्च, 1961), अबू धाबी (Abu Dhabi) के युवराज हैं तथा यूएई (UAE) के सैन्य बलों के डेप्युटी सुप्रीम कमांडर (Deputy Supreme Commander) हैं।</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="C170" t="n">
         <v>45</v>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>निर्मला पुतुल</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>निर्मला पुतुल (जन्मः 6 मार्च 1972) बहुचर्चित संताली लेखिका, कवयित्री और सोशल एक्टिविस्स्ट हैं। दुमका, संताल परगना (झारखंड) के दुधानी कुरुवा गांव में जन्मी निर्मला पुतुल हिंदी कविता में एक परिचित आदिवासी नाम है। पिता सिरील मुरमू (नहीं रहे) व मां कांदिनी हांसदा की पुत्री निर्मला ने राजनीतिशास्त्र में ऑनर्स हैं और नर्सिंग में डिप्लोमा किया है। 
 इनकी प्रमुख कृतियों में ‘नगाड़े की तरह बजते शब्द’ और ‘अपने घर की तलाश में’ हैं। इनकी कविताओं का अनुवाद अंग्रेजी, मराठी, उर्दू, उड़िया, कन्नड़, नागपुरी, पंजाबी, नेपाली में हो चुका है। 
 कविता लेखन के साथ-साथ पिछले 15 वर्षों से भी अधिक समय से निर्मला शिक्षा, सामाजिक विकास, मानवाधिकार और आदिवासी महिलाओं के समग्र उत्थान के लिए व्यक्तिगत और संस्थागत स्तर पर लगातार सक्रिय हैं। अनेक राज्य स्तरीय और राष्ट्रीय सम्मान हासिल कर चुकी निर्मला फिलहाल निर्वाचित मुखिया हैं।</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="C171" t="n">
         <v>136</v>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>पिट बुल</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>पिट बुल एक शब्द है जिसका प्रयोग सामान्यतया मोलोसेर नस्ल समूह के कुत्तों की कई नस्लों का वर्णन करने में किया जाता है।
 कई अधिकारक्षेत्र जो पिट बुल कुत्तों की नस्ल को प्रतिबंधित करते हैं, इसमें ओंटेरियो, कनाडा और डेनवर, कोलराडो शामिल हैं, वे "पिट बुल" शब्द का इस्तेमाल आधुनिक अमेरिकी पिट बुल टेरियर, अमेरिकी स्टेफर्डशायर टेरियर, स्टेफर्डशायर बुल टेरियर या अन्य किसी ऐसे कुत्ते के लिए करते हैं जिसमे इस नस्ल की पर्याप्त शारीरिक विशेषताएं और समान रूप रेखा पाई जाती हैं। हालांकि, कुछ अधिकारक्षेत्र जैसे कि सिंगापुर और फ्रैंकलिन काउंटी, ओहियो भी आधुनिक अमेरिकी बुलडॉग को एक "पिट बुल-प्रकार के कुत्ते" के रूप में वर्गीकृत करते हैं, जबकि युनाइटेड किंगडम में यह शब्द केवल अमेरिकी पिट बुल टेरियर के लिए प्रयोग किया जाता है। इन तीनों नस्लों का इतिहास एक ही है, जिसके अनुसार इनकी मूल उत्पत्ति बुलडॉग और विभिन्न प्रकार के टेरियर कुत्तों से हुई है। यह शब्द उन कुत्तों की ओर भी संकेत करता है जिन्हें आधुनिक बुल टेरियर के विकास से पूर्व 20वीं शताब्दी में "बुल टेरियर्स" के नाम से जाना जाता था। 
 अनेकों प्रचारित घटनाओं के कारण पिट बुल नस्ल के कुत्तों के संबंध में हुई मानव दुर्घटनाओं पर अध्ययन किये गये हैं। इस प्रकार की घटनाओं के फलस्वरूप कई ख़ास इलाकों में नस्ल विशेष पर आधारित कानून लागू किये गए और इनके संबंध में दायित्व बीमे की किस्त (प्रीमियम) भी बढ़ा दी गयी। कुछ विमान सेवाओं ने पिट बुल कुत्तों की हवाई यात्रा पर प्रतिबन्ध लगा दिया है, हालांकि कुछ घटनाओं में यह प्रतिबन्ध स्वयं कुत्तों की भलाई के लिए ही लगाये गए हैं।</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="C172" t="n">
         <v>261</v>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>आर्लिंग्टन, टॅक्सस</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>आर्लिंग्टन, संयुक्त राज्य अमेरिका के टॅक्सस राज्य की टारण्ट काउण्टी में स्थित एक नगर है। यह डालास-फोर्ट वर्थ-आर्लिंग्टन महानगर क्षेत्र के भीतर आता है। डॉ॰ रॉबर्ट क्लक इस नगर के महापौर हैं। आर्लिंग्टन, टेक्सास राज्य में सातवां और संरा अमेरिका में पचासवां सबसे बड़ा नगर है।</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="C173" t="n">
         <v>46</v>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>नेपाल क्रिकेट संघ</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>नेपाल क्रिकेट संघ नेपालमें क्रिकेट खेल के आधिकारिक परिचालक निकाय हैं। इसके वर्तमान मुख्यालय काठमांडू, नेपाल में रहा हैं। सन् १९८८ से नेपाल क्रिकेट संघ अंतर्राष्ट्रीय क्रिकेट परिषदमें नेपाल के प्रतिनिधि होने के साथ ही एसोसिएट सदस्य भी हैं। यह एशियाई क्रिकेट परिषद के भी सदस्य रहा हैं। सन् २०१२ में संघ ने अपना ब्रांड एम्बेसडर महेन्द्र सिंह धोनी को चयन किया हैं।</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="C174" t="n">
         <v>63</v>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>स्टीव बाल्मर</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>स्टीवन एंथोनी "स्टीव" बाल्मर (जन्म 24 मार्च 1956) जनवरी 2000 से माईक्रोसॉफ्ट कार्पोरेशन (Microsoft Corporation) के मुख्य कार्यकारी अधिकारी रहे हैं। 2010 के अनुसार [update], एक अनुमान के अनुसार वह 14.5 अरब डॉलर की निजी संपत्ति के साथ 2010 के दुनिया में एक सबसे अमीर लोगों में से एक हैं।</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="C175" t="n">
         <v>50</v>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>बॉक्सिंग डे</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>बॉक्सिंग डे, बैंक या सार्वजनिक अवकाश है जो 26 दिसम्बर अथवा राष्ट्रीय या क्षेत्रीय कानूनों के अनुसार क्रिसमस के एक या दो कार्यकारी दिनों के बाद पड़ता है। इसे ऑस्ट्रेलिया, न्यूज़ीलैण्ड, कनाडा, ब्रिटेन तथा कुछ अन्य राष्ट्रमंडल देशों में मनाया जाता है। आयरलैंड में इसे सेंट स्टीफन दिवस या रेन (Wren) दिवस आयरिश: Lá an Dreoilín के रूप में मनाया जाता है। दक्षिण अफ्रीका में इसे 1994 में सद्भावना दिवस का नाम दिया गया था। ऐतिहासिक रूप से, पूर्व के पूर्वी जर्मनी में इसे क्रिसमस के दूसरे दिन Weihnachtsfeiertag के रूप में मनाया जाता था।
 हालांकि बैंक अवकाश कानून 1871 ही मूलतः संपूर्ण इंग्लैंड में बैंक अवकाश निर्धारित करता था, क्रिसमस के अगले दिन को इंग्लैंड, स्कॉटलैंड तथा वेल्स में बॉक्सिंग डे, एवं आयरलैंड में सेंट स्टीफेंस की दावत दिवस के रूप में परिभाषित किया गया। 26 दिसम्बर के बदले में अन्य बैंक अवकाश केवल उत्तरी आयरलैंड में संभावित है। इससे इनके कानूनी अंतर का पता चलता है क्योंकि सेंट स्टीफेंस दिवस, बॉक्सिंग दिवस के समान अपने आप ही सोमवार को नहीं चला जाता है।
 कनाडा में बॉक्सिंग दिवस, कनाडा मजदूर संहिता के अनुसार एक वैकल्पिक अवकाश है। केवल ओंटारियो प्रांत में यह सुनिश्चित अवकाश है जहां मजदूरों को सवेतन अवकाश मिलता है।</t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="C176" t="n">
         <v>203</v>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>भारतीय फुटबॉल</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>भारत में फुटबॉल ब्रिटिश उपनिवेश काल के दौरान अंग्रेजों द्वारा लाया गया था। आरंभ में फुटबॉल मैच सैनिक टीमों के बीच खेले जाते थे। सीघ्र ही फुटबॉल क्लब भी बनने लगे। इनमें से कई क्लब आधुनिक फुटबॉल संगठन फीफा आदि के बनने से भी पहले बन चुके थे। भारत में फुटबॉल मुख्यतः पश्चिम बंगाल, गोआ, केरल, मणिपुर, मिजोरम और सिक्किम में पनपा और यहीं से उसे नई दिशा भी मिली।फुटबॉल में महान शक्ति होती है, और वह अच्छे (या बुरे) के लिए भावनाएँ उत्पन्न करता है। जबकि कुछ फुटबॉल से प्यार करते हैं और सुपर प्रशंसक हैं, वहीं अन्य इसे पूरी ताकत से नफरत करते हैं। लेकिन अगर कुछ ऐसा है जिस पर मुझे यकीन है, तो वह यह है कि फुटबॉल किसी को भी उदासीन नहीं छोड़ता है!</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="C177" t="n">
         <v>129</v>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>स्टेफ़नी मॅकमहन</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>स्टेफ़नी मैरी मॅकमहन-लेवेस्क (जन्म सितम्बर 24, 1976) के कार्यकारी उपाध्यक्षा, विश्व कुश्ती मनोरंजन, सृजनात्मक विकास और गतिविधियाँ, व्यवसायी कुश्ती खिदमतगार और सामयिक पहलवान अपने कुमारी नाम स्टेफ़नी मॅकमहन से बेहतर जानी जाती है। वह WWE अध्यक्ष और सीईओ विन्स मैक्‌महोन और लिंडा मैक्‌महोन की बेटी भी, शेन मैक्‌महोन की छोटी बहन भी और अमेरिकी पहलवान पॉल लेवेस्क्यु की पत्नी जो ट्रिपल एच नाम से जाना जाता है।
 1999 में मैक्‌महोन अंडरटेकर के साथ कथावस्तु के अंश बनके नियमित रूप से कंपनी में प्रकट होने लगी. टेस्ट के साथ परदे पर संक्षिप्त संबंध के बाद, वह ट्रिपल एच के साथ जुड़ गयी-जिससे उसने दोनों परदे पर और बाद में वास्तविक जीवन में शादी की-जो मैक्‌महोन-हेम्स्ली दलबंदी कथावस्तु के साथ पराकाष्ठा पर पहुँच गया। कंपनी में उसके कार्यकाल के दौरान, वह एक बार डबल्यूडबल्यूऍफ़ महिला चैम्पियनशिप पद पर थी। 2001 में, द इनवेजन के एक्सट्रीम कुश्ती चैम्पियनशिप के परदे पर वह मालकिन थी। अगले वर्ष, वह [[स्मेकडाउन (0} की जनरल मेनेजर थी, लेकिन उसके पिता विन्स के साथ "आइ क्विट"मेच|स्मेकडाउन (0} की जनरल मेनेजर थी, लेकिन उसके पिता विन्स के साथ "आइ क्विट"मेच]] के बाद नियमित रूप से टेलीविजन पर दिखाई देना बंद किया। कई सालों तक कभी कभी दिखाई पड़ने के बाद, 2008 मैं Raw ब्रांड जनरल मेनेजर के हैसियत से Raw पर नियमित रूप से प्रकट होने लगी.</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="C178" t="n">
         <v>218</v>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>ईरान राष्ट्रीय फुटबॉल टीम</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>ईरान राष्ट्रीय फुटबॉल टीम (फारसी: تیم ملی فوتبال ایران, (अनुवाद) तिम-ऐ मेलि-ऐ फुटबाल-ऐ ईरान), जिसे टीम मेली भी कहा जाता है (फारसी: تیم ملی, अनुवाद। तिम-ऐ मेली, राष्ट्रीय टीम), अंतर्राष्ट्रीय फुटबॉल प्रतियोगिताओं में ईरान का प्रतिनिधित्व करता है और ईरान फुटबॉल संघ द्वारा शासित किया जाता है। दिसंबर 2014 से मई 2018 तक, ईरान की राष्ट्रीय फुटबॉल टीम  एशिया में सर्वोच्च श्रेणी की टीम बनी रही, और पूरे महाद्वीप में शीर्ष पर लंबे समय तक रहने वाली सबसे लंबी अवधि का प्रतिनिधित्व करती है।</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="C179" t="n">
         <v>84</v>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>कुवैत ओलम्पिक समिति</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>कुवैत ओलम्पिक समिति, (आईओसी कूट: KUW) कुवैत की राष्ट्रीय ओलम्पिक समिति है। अन्तर्राष्ट्रीय ओलम्पिक संघ द्वारा कुओस पर १ जनवरी २०१० को सरकारी हस्तक्षेप के कारण प्रतिबन्ध लगाया था।</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="C180" t="n">
         <v>29</v>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>भारत में क्रिकेट</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>भारत में क्रिकेट, देश का सबसे लोकप्रिय खेल है। यह भारत में लगभग हर जगह खेला जाता है। भारतीय राष्ट्रीय क्रिकेट टीम ने 1983 क्रिकेट विश्वकप, 2007 आई सी सी ट्वेन्टी 20, 2011 क्रिकेट विश्व कप, 2013 आईसीसी चैंपियंस ट्रॉफी 2024 t20 विश्व कप जीत चुका है, और श्रीलंका के साथ 2002 आईसीसी चैंपियंस ट्रॉफी साझा किया था। घरेलू प्रतियोगिताओं में रणजी ट्रॉफी, दुलीप ट्रॉफी, विजय हजारे ट्रॉफी, देवधर ट्रॉफी, ईरानी ट्रॉफी और एनकेपी साल्वे चैलेंजर ट्रॉफी शामिल हैं। इसके अलावा, बीसीसीआई द्वारा इंडियन प्रीमियर लीग, एक 20-ट्वेंटी क्रिकेट प्रतियोगिता आयोजित की जाती है। भारतीय क्रिकेट टीम का एम.एस. धोनी की कप्तानी के तहत सभी आईसीसी टूर्नामेंट जीतने विश्व रिकॉर्ड है।</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="C181" t="n">
         <v>111</v>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>जापानी संस्कृति</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>जापान की संस्कृति पिछली एक सहस्राब्दियों में बहुत बदली है। प्रागैतिहासिक जोमोन काल की संस्कृति से आरम्भ होकर यह अपने वर्तमान मिश्रित रूप में दृष्टिगोचर है। जापान की वर्तमान संस्कृति पर एशिया, यूरोप तथा उत्तरी अमेरिका का मिश्रित प्रभाव है। जापानवासी टोकुगावा काल के लम्बी अवधि में बाहरी दुनिया से अपेक्षाकृत कटे रहे।</t>
         </is>
       </c>
-      <c r="C161" t="n">
+      <c r="C182" t="n">
         <v>53</v>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>यूरोपीय नाट्यशालाएँ</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="n">
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="n">
         <v>0</v>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>कुमिते 1 लीग</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>कुमिते 1 लीग (K1L) मुंबई, भारत में स्थित एक मिश्रित मार्शल आर्ट लीग और मार्शल आर्ट कंपनी है। लीग वर्ल्ड किकबॉक्सिंग नेटवर्क द्वारा समर्थित और तोयम स्पोर्ट्स लिमिटेड द्वारा समर्थित है। 'कुमिते 1 लीग' ने मिश्रित मार्शल आर्ट कंपनी की शुरुआत 28 सितंबर 2018 को मुंबई में किया था और बॉक्सिंग दिग्गज माइक टायसन को इस आयोजन का ब्रांड एंबेसडर नियुक्त किया था।</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="C184" t="n">
         <v>63</v>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>काउबॉय</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>उत्तरी अमेरिका में फार्मों के पशुओं की रखवाली करने वाले को काउबॉय कहा जाता है, परंपरागत रूप से घोड़े पर सवार होकर वह यह काम करता है और अक्सर फ़ार्म संबंधित अन्य अनेक प्रकार के काम भी किया करता है। 19वीं शताब्दी के अंत में यह ऐतिहासिक अमेरिकी काउब्वॉय उत्तरी मेक्सिको के वाकुएरो (काउब्वॉय का एक स्थानीय नाम) परंपराओं से उत्पन्न हुआ और इसने विशेष महत्व का आकार ग्रहण कर लिया और एक दंतकथा बन गया। इसके एक उपप्रकार (सबटाइप) को रैंगलर (अश्वपाल) कहते हैं, जो विशेष रूप से मवेशियों के काम में प्रयोग किये जाने वाले घोड़ों की देखभाल करता है। फार्म या खेत के काम के अलावा, कुछ काउबॉय रोडीओ (घुड़सवार चरवाहों की सार्वजनिक प्रतिस्पर्धा) के लिए काम करते हैं या उसमें भाग लेते हैं। काउगर्ल्स, 19वीं सदी के अंत में पहली बार इस तरह परिभाषित, की ऐतिहासिक भूमिका का बहुत कम दस्तावेजी प्रमाण है, लेकिन आधुनिक दुनिया में इन्होने बिल्कुल समान कार्य करने की अपनी क्षमता स्थापित की है और अपनी उपलब्धियों के लिए यथेष्ट सम्मान प्राप्त किया है। विश्व के अन्य अनेक भागों में भी काउबॉय या मवेशियों के प्रबंधकर्ता हुआ करते हैं, खासकर दक्षिण अमेरिका और ऑस्ट्रेलिया में, जो अपने देशों में काउबॉय जैसे ही काम किया करते हैं।
 स्पेन और अमेरिकों (Americas) के शुरुआती यूरोपीय अधिवासियों में काउबॉय की गहरी ऐतिहासिक जड़ें पायी जाती हैं। सदियों से, इलाकों में भिन्नता, जलवायु और अनेक संस्कृतियों की चरवाहा परंपराओं के प्रभाव ने उपकरणों, पोशाकों और पशुओं के प्रबंध की अनेक अलग शैलियों का निर्माण किया। नित्य-व्यावहारिक काउबॉय को आधुनिक दुनिया के लिए अनुकूलित किया गया, तब काउबॉय के उपकरण और तकनीक को भी कुछ हद तक अनुकूलित करना पड़ा, हालांकि अनेक क्लासिक परंपराएं आज भी संरक्षित हैं।</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="C185" t="n">
         <v>281</v>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>मित्रताका लागि फुटबल</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>मित्रताका लागि फुटबल
 मित्रताका लागि फुटबल PJSC Gazprom द्वारा बालबालिकाहरूका लागि  कार्यान्वयन गरिएको वार्षिक अन्तर्राष्ट्रिय सामाजिक कार्यक्रम हो। कार्यक्रमको लक्ष्य भनेको नव युवाहरूमा फुटबलमार्फत महत्त्वपूर्ण मूल्य र स्वस्थकर जीवनशैलीका रूचिहरू विकास गर्नु हो ।  कार्यक्रमको ढाँचामा, विभिन्न राष्ट्रका 12 वर्षका फुटबल खेलाडीहरू बालबालिकाहररूको वार्षिक अन्तर्राष्ट्रिय मञ्च, "मित्रताका लागि फुटबल" को विश्वकपमा फुटबल र मित्रताको अन्तर्राष्ट्रिय दिवसका दिन सहभागी हुन्छन्। कार्यक्रम FIFA, UEFA, ओलंपिक और पैरालंपिक समिति, फुटबॉल संघों, चिल्ड्रेन्स फाउंडेशन, सैकड़ों प्रसिद्ध एथलीटों और दुनिया भर के हजारों पत्रकारों द्वारा समर्थित है।. कार्यक्रम का वैश्विक ऑपरेटर AGT Communications Group (Russia) है।</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="C186" t="n">
         <v>91</v>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>राष्ट्रमण्डल खेलों में भारत</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>भारत, कुल अठारह राष्ट्रमंडल खेलों में से 1934 से पिछले चौदह खेलों में हिस्सा ले चुका है। भारत ने भी खेलों की मेजबानी की है।</t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="C187" t="n">
         <v>25</v>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>महापरियोजना</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>ऐसी परियोजना को महापरियोजना या मेगाप्रोजेक्ट (megaproject) कहते हैं जिसमें अत्यन्त बड़े स्तर निवेश (investment) करने की जरूरत पड़ती है। प्राय: एक बिलियन अमेरिकी डालर से भी अधिक खर्च वाले परियोजनाओं को महापरियोजना की श्रेणी में रखा जाता है। इन पर जनता का बहुत ध्यान भी आकर्षित होता है क्योंकि इनका आम जनता, पर्यावरण एवं देश की अर्थव्यवस्था पर बड़ा असर पड़ने की सम्भावना रहती है। दूसरे शब्दों में महापरियोजना उस पहल (इनिशिएटिव) को कहते हैं जिनमें कुछ भौतिक चीज बनने वाली हो, जो बहुत खर्चीली हो और जो सार्वजनिक हो। 
 पुल, सुरंग, राजमार्ग, रेलपथ, हवाई अड्डे, समुद्री पत्तन, उर्जा संयंत्र, बांध, विशेष आर्थिक क्षेत्र (SEZ), तेल एवं प्राकृतिक गैस निकालना, वायु-अन्तरिक्ष परियोजना, अस्त्र-प्रणाली परियोजना आदि महापरियोजना की श्रेणी में आ सकतीं हैं।</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="C188" t="n">
         <v>123</v>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>हेनरी मरे</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>हैनरी मरे (Henry Alexander Murray ; (13 मई 1893 – 23 जून 1988) अमेरिका के मनोवैज्ञानिक थे। उन्होने हार्वर्ड विश्वविद्यालय में ३० वर्ष से भी अधिक समय तक अध्यापन किया।</t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="C189" t="n">
         <v>30</v>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>कॉण्टैक्ट लैंस</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>कांटैक्ट लैंस (कांटैक्ट के नाम से भी लोकप्रिय) सामान्यतः आंख की कोर्निया (स्वच्छपटल) पर रखा जाने वाला एक सुधारक, प्रसाधनीय या रोगोपचारक लैंस होता है। 1508 में कांटैक्ट लैंसों की पहली कल्पनाओं को समझाने और रेखांकित करने का श्रेय लियोनार्डो दा विंसी को जाता है[उद्धरण चाहिए] लेकिन वास्तविक कांटैक्ट लैंसों को बनाने और आंख पर लगाने में 300 वर्षों से भी अधिक लगे। आधुनिक नर्म कांटैक्ट लैंसों का आविष्कार चेक केमिस्ट ओटो विक्टरली और उसके सहायक ड्राह्सलाव लिम ने किया, जिसने उनके उत्पादन के लिये प्रयुक्त जेल का आविष्कार भी किया।
+कुछ नर्म कांटैक्ट लैंसों को हल्के नीले रंग का बनाया जाता है ताकि साफ करने और रखने के घोलों में वे आसानी से दिखाई दे सकें. कुछ कास्मेटिक लैंसों को आंख दिखावट को बदलने के लिये जानबूझ कर रंगीन बनाया जाता है। आज कल कुछ कांटैक्ट लैंसों पर आंख के प्राकृतिक लैंस को यूवी से नुकसान से बचाने के लिये यूवी रक्षात्मक सतही प्रक्रिया की जाती है।
+यह अनुमान है कि विश्व भर में 125 मिलियन लोग कांटैक्ट लैंसों का प्रयोग करते हैं, जिनमें से युनाइटेड स्टेट्स में 28 से 38 मिलियन और जापान में 13 मिलियन लोग हैं। प्रयुक्त और सिफारिश किये गए लैंसों के प्रकार हर देश में भिन्न होते हैं – जापान, नीदरलैंड्स और जर्मनी में आजकल सिफारिश किये जा रहे लैंसों का 20% से अधिक कड़े लैंस होते हैं, जबकि स्कैंडिनेविया में 5% से भी कम लोग इसका प्रयोग करते हैं।
+लोग कांटैक्ट लैंसों का प्रयोग कई कारणों से करते हैं, जिनमें अकसर उनकी दिखावट और कार्यशीलता मुख्य होती है। चश्मों की तुलना में, कांटैक्ट लैंसों पर नम मौसम का असर कम होता है, उन पर भाप नहीं जमती और वे दृष्टि का अधिक बड़ा क्षेत्र उपलब्ध करते हैं। वे खेलों की कई गतिविधियों के लिये भी उपयुक्त होते हैं। इसके अतिरिक्त केरेटोकोनस और एनाइसीकोनिया जैसे आंखों के विकारों को चश्मों से सही तरह से ठीक नहीं किया जा सकता है।</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>316</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>नीके</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>यूनानी पौराणिक कथाओं में  नीके (प्राचीन यूनानी : Νίκη) एक देवी थीं जिन्होंने कला, संगीत, युद्ध और व्यायाम सहित हर क्षेत्र में जीत हासिल की। उन्हें अक्सर यूनानी कला में उड़ते हुए पंखवाली विजयी के रूप में चित्रित किया जाता है, हालांकि वे बिना पंखों के "बिना पंखवाली विजयी" के रूप में भी दिखाई दे सकती हैं, जब उन्हें अथीना जैसे किसी अन्य देवता की विशेषता के रूप में चित्रित किया जा रहा है। यूनानी साहित्य में नीके को ज़्यूस और अथीना देवताओं के लिए एक विशेषता और परिचर दोनों के रूप में वर्णित किया गया है। टाइटनों के युद्ध के दौरान नीके ने ज़्यूस सहित यह सम्मानित भूमिका प्राप्त की, जहाँ वे ज़्यूस के प्रति अपनी निष्ठा की पेशकश करने वाले पहले देवताओं में से एक थी। एथेंस में नीके अथीना के साथ-साथ उनके संरक्षक शहर में अथीना की प्रमुख स्थिति के कारण उनकी एक विशेषता बन गई। एथेंस में दो देवी-देवताओं के संलयन ने नीके की उत्पत्ति के आसपास की अस्पष्टता में योगदान दिया है। यह स्पष्ट नहीं है कि वह यूनानी देवी अथीना के चरित्र लक्षण से उत्पन्न हुई थी या हमेशा एक स्वतंत्र देवता के रूप में अस्तित्व में रही है। यूनानी पौराणिक कथाओं में उनकी मूल कहानी भी थोड़ी अस्पष्ट है, थिओगोनी ने नीके को वैतरणी और पलास की बेटी होने का दावा किया है जबकि होमरिक भजन एरीस को नीके के पिता के रूप में वर्णित करते हैं। उनका रोमन समकक्ष विक्टोरिया था।</t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="C191" t="n">
         <v>239</v>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>भारत में हॉकी</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>भारत में हॉकी, मैदानी हॉकी में भारत की ओर से दो टीमों भारत की राष्ट्रीय हॉकी टीम और भारत की महिला राष्ट्रीय हॉकी टीम को सन्दर्भित करता है। 
 जून 2018 में, भारतीय राज्य ओडिशा के मुख्यमंत्री ने प्रधानमंत्री नरेंद्र मोदी को एक पत्र लिख कर मैदानी हॉकी को भारत का राष्ट्रीय खेल घोषित करने के लिए आग्रह किया। ओडिशा राज्य सरकार ने फरवरी 2018 से अगले पांच साल तक भारत की राष्ट्रीय हॉकी टीम को समर्थन करने का फैसला किया गया है।</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="C192" t="n">
         <v>82</v>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>जॉर्ज सोरोस</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>जॉर्ज सोरोस (उच्चारण सहायता /ˈsɔroʊs/ या/ˈsɔrəs/, श्वार्ट्ज़ गियोर्गी, हंगरी मेंउच्चारण: [ˈʃoroʃ] 12 अगस्त 1930 में जन्म) हंगरी-अमेरिकी मुद्रा सटोरिया, स्टॉक निवेशक, व्यापारी, जन-हितैषी और राजनीतिक कार्यकर्ता हैं। 1992 में UK मुद्रा संकट ब्लैक वेन्ज्डे के दौरान उनके एक बिलियन डॉलर बनाने के बाद वे "उस आदमी जिसने बैंक ऑफ इंग्लैंड को कड़का बना दिया" के रूप में जाने जाने लगे। 
 सोरोस, सोरोस फंड मैनेजमेंट और ओपेन सोसाइटी इंस्टीच्यूट के अध्यक्ष हैं और काउंसिल ऑन फॉरेन रिलेशन्स के निदेशक बोर्ड के पूर्व सदस्य हैं। हंगरी (1984-89) में, साम्यवाद से पूंजीवाद में संक्रमण में उन्होंने महत्वपूर्ण भूमिका निभायी, और यूरोप में उच्च शिक्षा के लिए अब तक की सबसे बड़ी स्थायी निधि बुडापेस्ट में सेंट्रल यूरोपियन यूनिवर्सिटी को प्रदान की है। बाद में जॉर्जिया के संगठन रोज रिवोल्यूशन की सफलता के लिए उनके कोष मुहैया कराए जाने को रूसी और पश्चिमी पर्यवेक्षकों द्वारा महत्वपूर्ण माना गया। संयुक्त राज्य अमेरिका में, 2004 में राष्ट्रपति जॉर्ज डबल्यू. बुश को उनके पुनर्निवार्चित होने के प्रयास को मात देने के अभियान के लिए चंदे में एक बड़ी रकम देने के लिए वे जाने जाते हैं। उन्होंने सेंटर फॉर अमेरिकन प्रोग्रेस को स्थापित करने में सहायता की।
@@ -4065,309 +4575,309 @@
 खेल काफी बाक़ी होते हुए भी जार्ज सोरोस ने बहुत ही बुद्धिमानी से पूरी रकम निकाल कर एक बहुत ही सफल सटोरिये के रूप में पहचान बनाई है। उनकी विशाल जीत अब उत्साहवर्द्धक तरीके से संक्रमणकालीन और एक उभरते हुए राष्ट्र को ‘खुला समाज’, खुला वाणिज्य स्वतंत्रता के अर्थ में नहीं; बल्कि – इससे ज्यादा महत्वपूर्ण – नए विचारों और विभिन्न विचारधाराओं तथा व्यवहारों के प्रति सहिष्णु होने के अर्थ में, बनाने में समर्पित हो गयी।</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="C193" t="n">
         <v>295</v>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>ली सीडोल</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>ली सीडोल एक दक्षिण कोरियाई गो खिलाड़ी हैं। फ़रबरी 2016 में ये 18 अंतरराष्ट्रीय खिताब जीतकर सबसे ज्यादा ख़िताब जीतने वालों की सूची में दूसरे स्थान पर हैं। 
 मार्च 2016 में ये कंप्यूटर प्रोग्राम अल्फागो के खिलाफ पांच मैच के एक मुकाबले में भाग ले रहे हैं।</t>
         </is>
       </c>
-      <c r="C172" t="n">
+      <c r="C194" t="n">
         <v>47</v>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>राष्ट्रीय खेल दिवस</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>राष्ट्रीय खेल दिवस विभिन्न देशों में राष्ट्रीय खेल टीमों और उन देशों की खेल परंपराओं का सम्मान करने के लिए म982215820
 नाया जाता है। इस दिन विभिन्न आयु वर्ग के लोग कबड्डी, मैराथन, बास्केटबॉल, हॉकी आदि खेलों में भाग लेते हैं।</t>
         </is>
       </c>
-      <c r="C173" t="n">
+      <c r="C195" t="n">
         <v>41</v>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>जापान में खेल</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>जापान में खेल जापानी संस्कृति का एक महत्वपूर्ण हिस्सा हैं। सुमो और मार्शल आर्ट्स जैसे पारंपरिक खेल और बेसबॉल और एसोसिएशन फुटबॉल जैसे पश्चिमी आयात दोनों प्रतिभागियों और दर्शकों के साथ लोकप्रिय हैं। सुमो कुश्ती को जापान का राष्ट्रीय खेल माना जाता है। 19वीं शताब्दी में अमेरिकियों का दौरा करके बेसबॉल को देश में पेश किया गया था |</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="C196" t="n">
         <v>59</v>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>श्रीलंका में खेल</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>श्री लंका में खेल श्रीलंकाई संस्कृति का एक महत्वपूर्ण हिस्सा है। हालांकि खेल मंत्रालय ने वॉलीबॉल को राष्ट्रीय खेल का नाम दिया,  यह क्रिकेट है जो श्रीलंका में सबसे लोकप्रिय खेल है। रग्बी यूनियन भी लोकप्रिय है। अन्य लोकप्रिय खेल जल खेल, बैडमिंटन, एथलेटिक्स, फुटबॉल, बास्केटबाल और टेनिस हैं। श्रीलंका के स्कूल और कॉलेज नियमित रूप से खेल और एथलेटिक्स टीमों को व्यवस्थित करते हैं, जो प्रांतीय और राष्ट्रीय स्तर पर प्रतिस्पर्धा करते हैं| 1990 के दशक में श्रीलंका की राष्ट्रीय क्रिकेट टीम ने 1996 के विश्व कप जीतने के लिए अंडरगॉग स्थिति से बढ़ते हुए काफी सफलता हासिल की।  श्रीलंकाई राष्ट्रीय क्रिकेट टीम 2007 क्रिकेट विश्व कप के फाइनल में पहुंच गई, जहां वे ब्रिजटाउन, बारबाडोस में केंसिंग्टन ओवल में ऑस्ट्रेलिया से हार गए|
 श्रीलंका में क्रिकेट सबसे लोकप्रिय खेल है। [4] यह बारह राष्ट्रों में से एक है जो पूर्ण सदस्य हैं और टेस्ट क्रिकेट में भाग लेते हैं और पांच राष्ट्रों में से एक है जिन्होंने क्रिकेट विश्व कप जीता है। क्रिकेट देश में पेशेवर, अर्ध-पेशेवर और मनोरंजक स्तर पर खेला जाता है और आबादी के बड़े अनुपात से अंतरराष्ट्रीय क्रिकेट मैचों को ब्याज के साथ देखा जाता है।</t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="C197" t="n">
         <v>192</v>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>दशरथ रंगशाला स्टेडियम</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>दशरथ रंगशाला स्टेडियम नेपाल का बहूद्देशीय स्टेडियम है, जो त्रिपुरेश्वर, काठमाण्डु में है। यह नेपाल का सबसे विशाल स्टेडियम है। अभी इसका अधिकतर उपयोग फुटबॉल के मैच और सांस्कृतिक और मनोरंजन कार्यक्रमों के लिए होता है। स्टेडियम की क्षमता २५,००० दर्शक है। इस स्टेडियम का निर्माण १९५६ में किया गया था। नेपाल की बहुत से राष्ट्रीय और अन्तर्राष्ट्रीय खेल-प्रतियोगिताएँ इस स्टेडियम में आयोजित की जाती हैं।</t>
         </is>
       </c>
-      <c r="C176" t="n">
+      <c r="C198" t="n">
         <v>66</v>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>ग्यारी वेनरचुक</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>ग्यारी वेनरचुक (१४ नवंबर, १९७५ को गेनैडी वेनरचुक के नाम से जन्मे) अमेरिकी धारावाहिकके एक उद्यमी, चार-बार न्यूयॉर्क टाइम्स सबसेज्यादा बिक्रीहुये पुस्तकोंके लेखक, वक्ता और अंतर्राष्ट्रीय स्तरपर मान्यता प्राप्त इंटरनेट व्यक्तित्व हैं। वेनरचुकको पहले एक प्रमुख वाइन समालोचक के रूपमें जाना जाता था, जिन्होंने अपने परिवार के वाइन के कारोबार को ३० लाख डालर से बढ़ाकर ६ करोड डालर तक पहुँचा दिया था। अब न्यूयॉर्क-आधारित VaynerMedia और VaynerX का नेतृत्व करके वह डिजिटल मार्केटिंग और सोशल-मीडिया (सामाजिक संचार माध्यम) पथ-प्रदर्शक के रूपमें जाने जाते हैं।। 
 वेनरचुक, अन्य कंपनियों के साथ-साथ, Uber, Birchbox, Snapchat, Facebook, Twitter और Tumblr के एक एन्जेल (प्रवर्ती) निवेशक या सलाहकार हैं। वह वैश्विक उद्यमशिलता और प्रौद्योगिकी सम्मेलनों में नियमित रूप से मुख्य वक्ता रहते हैं।</t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="C199" t="n">
         <v>119</v>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>विमलेन्द्र निधि</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>बिमलेंद्र निधि ( मैथिली / नेपाली / देवनागरी : बिमलेंद्र निधि  ); नेपाल के  पूर्व उप प्रधानमंत्री और गृह मामलों के मंत्री हैं ।  वो नेपालके गभर्निङ पार्टी, नेपाली कांग्रेस, के उपसभापति भी हैं ।</t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="C200" t="n">
         <v>35</v>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>उभयउपांग-कुशलता</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>बाएं और दाहिने दोनों उपांगों (जैसे कि हाथ) से काम करने में समान रूप से निपुण होने की स्थिति को उभयउपांग-कौशल (या उभयहस्त-कौशल या सव्यसाची) कहते हैं। मिश्रित-प्रभुत्व की यह एक सबसे मशहूर किस्मों में से एक है। प्राकृतिक रूप से उभय-हस्तकुशल लोग या सव्यसाची दुर्लभ हैं, सौ में से सिर्फ एक ही व्यक्ति सव्यसाची हुआ करता है। प्रत्येक हाथ की चपलता की अवस्था आम तौर पर एक व्यक्ति की उभय-हस्तकौशलता निर्धारित करने का गुणात्मक कारक होती है।
 आधुनिक समय में, उभय-हस्तकुशल माने जाने वाले व्यक्तियों को पाया जाना अधिक आम बात हो गयी है, जो मूलतः बाएं-हाथ वाले होते हैं, लेकिन जो जानबूझकर उभय-हस्तकौशल बने या स्कूलों जैसे बचपन के संस्थानों में उन्हें सीखना पड़ा, जहां दाहिने-हाथ की आदतों पर अक्सर जोर दिया जाता है या उसकी जरूरत पडती है। इसके अलावा, प्रतिदिन के अनेक उपकरण (जैसे कि कनस्तर ओपनर और (कैंची)) असममात्रिक होते हैं और उन्हें दाहिने-हाथ वाले लोगों के लिए बनाया गया है। बाएं-हाथ के मॉडलों की दुर्लभता या अभाव के कारण बाएं हाथ वालों को उन्हें दाहिने हाथ से उपयोग करना सीखना पड़ता है। इस प्रकार, बाएं हाथ के लोगों द्वारा दाहिने-हाथ वालों की तुलना में अपने गैर-प्रमुख हाथ से मोटर कौशल विकसित करने के लिए कहीं अधिक प्रयास करने पड़ते हैं (जो कि बाएं-हाथ के उपकरण नहीं होते हैं). दाहिने-हाथ वाले लोग दाहिने हाथ या भुजा में चोट लगने के कारण उभय-हस्तकुशल बन सकते हैं। बाजीगरी, तैराकी, तालवाद्य, कीबोर्ड संगीत, बेसबॉल, लैक्रोस, सर्जरी, मुक्केबाजी, मार्शल आर्ट्स और बास्केटबॉल जैसी गतिविधियों के लिए दोनों हाथों की निपुणता के मद्देनजर उभय-हस्तकौशलता को अक्सर प्रोत्साहित किया जाता है।</t>
         </is>
       </c>
-      <c r="C179" t="n">
+      <c r="C201" t="n">
         <v>260</v>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>सिंहपुर,आजमगढ़</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>सिंहपुर उत्तर प्रदेश के आज़मगढ़ जिले के मेहनगर ब्लॉक् का एक गांव है ।</t>
         </is>
       </c>
-      <c r="C180" t="n">
+      <c r="C202" t="n">
         <v>14</v>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>लडाकू पतंगें</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>सेनानी पतंगें  वे  पतंगें होती हैं जो  पतंग-लड़ाई  के खेल के लिए इस्तेमाल की जाती हैं। परंपरागत रूप से ज्यादातर  छोटे, अस्थिर सिंगल-लाइन फ्लैट पतंगें होती  हैं जहां लाइन के तनाव को अकेले नियंत्रण के लिए उपयोग किया जाता है, और अन्य पतंगों की स्ट्रिंग / लाइन को काटने के लिए एक अपघर्षक लाइन का उपयोग किया जाता है। 
 पतंग की लड़ाई कई देशों में होती है, लेकिन विशेष रूप से अफगानिस्तान, बांग्लादेश, भारत, इंडोनेशिया, नेपाल, पाकिस्तान, वियतनाम, कोरिया, थाईलैंड और ब्राजील से जुड़ी हुई है।</t>
         </is>
       </c>
-      <c r="C181" t="n">
+      <c r="C203" t="n">
         <v>86</v>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>पद्मश्री पुरस्कार (२०२०–२०२९)</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>पद्म श्री पुरस्कार, भारत का चौथा सबसे बड़ा नागरिक सम्मान है। सन् २०२० से २०२९ तक विजेताओं की सूची निम्न है:</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="C204" t="n">
         <v>21</v>
       </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>कुनलुन लड़ाई</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>कुनलुन लड़ाई (Kunlun Fight) चीन में एक पेशेवर किकबॉक्सिंग लीग.</t>
         </is>
       </c>
-      <c r="C183" t="n">
+      <c r="C205" t="n">
         <v>10</v>
       </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>भारत की राष्ट्रीय अंडर-17 फुटबॉल टीम</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>भारत की राष्ट्रीय अंडर-17 फुटबॉल टीम अंतरराष्ट्रीय फुटबॉल में अंडर-17 स्तर पर भारत का प्रतिनिधित्व करती है। भारत में फुटबॉल के लिए शासी निकाय अखिल भारतीय फुटबॉल महासंघ द्वारा नियंत्रित यह टीम एशियाई फुटबॉल संघ और दक्षिण एशियाई फुटबॉल महासंघ का हिस्सा है।</t>
         </is>
       </c>
-      <c r="C184" t="n">
+      <c r="C206" t="n">
         <v>43</v>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>तंग्राम</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>तंग्राम (चीनी भाषा : 七巧板; पिन्यिन : qī qiǎo bǎn; शाब्दिक अर्थ : शलता के साथ बोर्ड) एक पहेली वाली खेल है जिसमें सात प्रकार की आकृतियों वाले बोर्ड होते हैं जिनको सटाकर जमाना होता है ताकि दी हुई आकृति बन जाय। चपटी आकृतियों को 'टैन' कहते हैं। जिस आकृति को बनाना होता है उसका केवल बाहरी सीमारेखा (आउटलाइन) ही दी गयी होती है और अपनी कल्पना-शक्ति का प्रयोग करके सभी सात टुकड़ों का प्रयोग करके हुए वह आकृति बनानी होती है। इसमें सीमारेखा के अन्दर कहीँ खाली स्थान नहीं बचना चाहिये या आकृतियाँ एक-दूसरे पर चढ़ी हुई नहीं हों। 
 इस खेल का विकास मूलतः चीन में हुआ किंतु कब हुआ, यह ठीक-ठीक पता नहीं है। चीन से यह नवीं शती में व्यापारिक जहाजों के माध्यम से यूरोप पहुँची। यूरोप में कुछ काल के लिये यह बहुत लोकप्रिय हुई और बाद में प्रथम विश्वयुद्ध के समय में भी काफी लोकप्रिय रही। यह विश्व की अपने तरह की सर्वाधिक लोकप्रिय खेल है।</t>
         </is>
       </c>
-      <c r="C185" t="n">
+      <c r="C207" t="n">
         <v>161</v>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>केन्द्रीय विद्यालय हेब्बल, बैंगलोर</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>केंद्रीय विद्यालय हेब्बल, बैंगलोर में एक स्कूल और भारत में केंद्रीय विद्यालय का एक हिस्सा है।  यह 1965 में शुरू किया गया था। स्कूल केंद्रीय माध्यमिक शिक्षा बोर्ड से संबद्ध है।
 स्कूल में 2800 के नामांकन के साथ I से XII तक की कक्षाएं हैं।   इसने लगातार सात वर्षों तक दसवीं कक्षा में 100% उत्तीर्ण कीर्तिमान बनाए रखा है।  
@@ -4375,90 +4885,90 @@
 KVH भारत के कुछ स्कूलों में से एक है जिसे क्वालिटी काउंसिल ऑफ इंडिया (QCI) और नेशनल एक्रीडिएशन बोर्ड फॉर एजुकेशन एंड ट्रेनिंग (NABET) द्वारा मान्यता प्राप्त है।  इसने भारत भर के केंद्रीय विद्यालयों में गुणवत्तापूर्ण शिक्षा को बढ़ावा देने के लिए QCI के साथ एक समझौता ज्ञापन पर हस्ताक्षर किए हैं।</t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="C208" t="n">
         <v>143</v>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>भारत के राष्ट्रीय खेल 2023</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>भारत के 2023 के राष्ट्रीय खेल, जिन्हें भारत के 37वें राष्ट्रीय खेल के रूप में भी जाना जाता है और अनौपचारिक रूप से गोवा 2023 के रूप में गोवा राज्य में 25 अक्टूबर से 9 नवंबर 2023 तक आयोजित किए जाते हैं।</t>
         </is>
       </c>
-      <c r="C187" t="n">
+      <c r="C209" t="n">
         <v>42</v>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>शिन क्यूंग-ह्वान</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>शिन क्यूंग-ह्वान' (हंगुल: 신경환; जन्म 30 अगस्त 1987) एक दक्षिण कोरियाई पैरा-बैडमिंटन खिलाड़ी हैं। उन्होंने 2020 ग्रीष्मकालीन पैरालिंपिक में पुरुष एकल एसएल4 स्पर्धा में भाग लिया, लेकिन ग्रुप चरण में बाहर हो गए।</t>
         </is>
       </c>
-      <c r="C188" t="n">
+      <c r="C210" t="n">
         <v>33</v>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>हैमस्ट्रिंग</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>मानव शरीर रचना विज्ञान में हैमस्ट्रिंग (hamstring) जांघ के पीछे स्थित तीन मांसपेशियों का एक समूह है, जिसमें सेमीमेम्ब्रानोसस, सेमीटेंडिनोसस और बाइसेप्स फेमोरिस शामिल हैं।</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="C211" t="n">
         <v>25</v>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>खेलकूद</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>खेलकूद</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>लॉस एंजिल्स कन्वेंशन सेंटर</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>लॉस एंजिल्स कन्वेंशन सेंटर डाउनटाउन लॉस एंजिल्स, कैलिफोर्निया, संयुक्त राज्य अमेरिका के दक्षिण-पश्चिम खंड में एक कन्वेंशन सेंटर है। यह कई वार्षिक सम्मेलनों की मेजबानी करता है और अक्सर इसे टीवी शो और फिल्मों में फिल्मांकन स्थान के रूप में उपयोग किया जाता है।</t>
         </is>
       </c>
-      <c r="C190" t="n">
+      <c r="C212" t="n">
         <v>44</v>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>खेलकूद</t>
         </is>
